--- a/C61/sprint0/Plannification.xlsx
+++ b/C61/sprint0/Plannification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\Projet_Synthese\C61\sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FF4F90-6949-4798-931C-3BA053320F61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF303E2-4275-4277-9CFF-177F0D0FEDD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12195" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12195" activeTab="1" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -612,28 +612,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -641,27 +621,12 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -671,10 +636,6 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -686,30 +647,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -780,33 +717,13 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,10 +737,6 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -832,13 +745,125 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -870,31 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1944,7 +1944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8FB06B-24CC-4E83-8696-39BA0BCB3539}">
   <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1968,7 +1968,7 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="42" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1988,58 +1988,58 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="44"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="44"/>
     </row>
     <row r="17" spans="1:2" ht="15.75">
-      <c r="A17" s="70"/>
-      <c r="B17" s="75"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="44"/>
     </row>
     <row r="18" spans="1:2" ht="15.75">
-      <c r="A18" s="70"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="44"/>
     </row>
     <row r="19" spans="1:2" ht="15.75">
-      <c r="A19" s="70"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:2" ht="15.75">
-      <c r="A20" s="70"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="44"/>
     </row>
     <row r="21" spans="1:2" ht="15.75">
-      <c r="A21" s="70"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="44"/>
     </row>
     <row r="22" spans="1:2" ht="15.75">
-      <c r="A22" s="70"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:2" ht="15.75">
-      <c r="A23" s="71"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2057,1736 +2057,1653 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB54021C-D73D-4DDD-9C45-FB24F7DA2170}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5" style="7" customWidth="1"/>
-    <col min="3" max="5" width="3.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="7" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="9" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="9" customWidth="1"/>
-    <col min="12" max="14" width="9.28515625" style="7"/>
-    <col min="15" max="15" width="9.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="7"/>
+    <col min="1" max="1" width="1.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" style="3" customWidth="1"/>
+    <col min="3" max="5" width="3.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="4" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="3"/>
+    <col min="15" max="15" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="66" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 1   |   </v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="67">
+        <v>44980</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="13">
+      <c r="B9" s="57">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="8" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="P13" s="7" t="str">
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
       </c>
-      <c r="Q13" s="7" t="e">
+      <c r="Q13" s="3" t="e">
         <f t="array" aca="1" ref="Q13" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="E14" s="18" t="str">
+      <c r="E14" s="9" t="str">
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="P14" s="7" t="str">
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="8" t="str">
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="P15" s="7" t="str">
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:17">
-      <c r="K16" s="20" t="str">
+      <c r="K16" s="10" t="str">
         <f>IF(COUNTA(F13:F15)=0, "Attention, vous devez définir au moins une orientation.", COUNTA(F13:F15)&amp;IF(COUNTA(F13:F15)&gt;1," orientations ont été déterminées"," orientation a été déterminée"))</f>
         <v>Attention, vous devez définir au moins une orientation.</v>
       </c>
     </row>
     <row r="18" spans="4:17" ht="15.75">
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="4:17">
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="8" t="str">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v/>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="P19" s="7" t="str">
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v/>
       </c>
-      <c r="Q19" s="7" t="e">
+      <c r="Q19" s="3" t="e">
         <f t="array" aca="1" ref="Q19" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="4:17">
-      <c r="E20" s="18" t="str">
+      <c r="E20" s="9" t="str">
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="P20" s="7" t="str">
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="4:17">
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="8" t="str">
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
-      <c r="P21" s="7" t="str">
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
+      <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="4:17">
-      <c r="E22" s="18" t="str">
+      <c r="E22" s="9" t="str">
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="P22" s="7" t="str">
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
+      <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="4:17">
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="8" t="str">
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
-      <c r="P23" s="7" t="str">
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="4:17">
-      <c r="E24" s="18" t="str">
+      <c r="E24" s="9" t="str">
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-      <c r="P24" s="7" t="str">
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="28" t="str">
+      <c r="J25" s="64" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="29" t="s">
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="29" t="s">
+      <c r="I27" s="65"/>
+      <c r="J27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="K27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="Q27" s="31" t="s">
+      <c r="Q27" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="4:17">
-      <c r="E28" s="17" t="str">
+      <c r="E28" s="8" t="str">
         <f>IF(ISBLANK(F28), "", 1)</f>
         <v/>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
-      <c r="P28" s="30">
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="P28" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="Q28" s="31" t="s">
+      <c r="Q28" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="4:17">
-      <c r="E29" s="18" t="str">
+      <c r="E29" s="9" t="str">
         <f>IF(ISBLANK(F29), "", MAX($E$28:E28)+1)</f>
         <v/>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="P29" s="30">
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="P29" s="14">
         <f>P28+$P$27</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="Q29" s="31" t="s">
+      <c r="Q29" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="4:17">
-      <c r="E30" s="17" t="str">
+      <c r="E30" s="8" t="str">
         <f>IF(ISBLANK(F30), "", MAX($E$28:E29)+1)</f>
         <v/>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
-      <c r="P30" s="30">
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
+      <c r="P30" s="14">
         <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
         <v>3.125E-2</v>
       </c>
-      <c r="Q30" s="31" t="s">
+      <c r="Q30" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="4:17">
-      <c r="E31" s="18" t="str">
+      <c r="E31" s="9" t="str">
         <f>IF(ISBLANK(F31), "", MAX($E$28:E30)+1)</f>
         <v/>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41"/>
-      <c r="P31" s="30">
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="P31" s="14">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="32" spans="4:17">
-      <c r="E32" s="17" t="str">
+      <c r="E32" s="8" t="str">
         <f>IF(ISBLANK(F32), "", MAX($E$28:E31)+1)</f>
         <v/>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="36"/>
-      <c r="P32" s="30">
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+      <c r="P32" s="14">
         <f t="shared" si="1"/>
         <v>5.2083333333333329E-2</v>
       </c>
     </row>
     <row r="33" spans="5:16">
-      <c r="E33" s="18" t="str">
+      <c r="E33" s="9" t="str">
         <f>IF(ISBLANK(F33), "", MAX($E$28:E32)+1)</f>
         <v/>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="41"/>
-      <c r="P33" s="30">
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="P33" s="14">
         <f t="shared" si="1"/>
         <v>6.2499999999999993E-2</v>
       </c>
     </row>
     <row r="34" spans="5:16">
-      <c r="E34" s="17" t="str">
+      <c r="E34" s="8" t="str">
         <f>IF(ISBLANK(F34), "", MAX($E$28:E33)+1)</f>
         <v/>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="36"/>
-      <c r="P34" s="30">
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
+      <c r="P34" s="14">
         <f t="shared" si="1"/>
         <v>7.2916666666666657E-2</v>
       </c>
     </row>
     <row r="35" spans="5:16">
-      <c r="E35" s="18" t="str">
+      <c r="E35" s="9" t="str">
         <f>IF(ISBLANK(F35), "", MAX($E$28:E34)+1)</f>
         <v/>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
-      <c r="P35" s="30">
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="P35" s="14">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="36" spans="5:16">
-      <c r="E36" s="17" t="str">
+      <c r="E36" s="8" t="str">
         <f>IF(ISBLANK(F36), "", MAX($E$28:E35)+1)</f>
         <v/>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="36"/>
-      <c r="P36" s="30">
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
+      <c r="P36" s="14">
         <f t="shared" si="1"/>
         <v>9.375E-2</v>
       </c>
     </row>
     <row r="37" spans="5:16">
-      <c r="E37" s="18" t="str">
+      <c r="E37" s="9" t="str">
         <f>IF(ISBLANK(F37), "", MAX($E$28:E36)+1)</f>
         <v/>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="41"/>
-      <c r="P37" s="30">
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="P37" s="14">
         <f t="shared" si="1"/>
         <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="38" spans="5:16">
-      <c r="E38" s="17" t="str">
+      <c r="E38" s="8" t="str">
         <f>IF(ISBLANK(F38), "", MAX($E$28:E37)+1)</f>
         <v/>
       </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="36"/>
-      <c r="P38" s="30">
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="20"/>
+      <c r="P38" s="14">
         <f t="shared" si="1"/>
         <v>0.11458333333333334</v>
       </c>
     </row>
     <row r="39" spans="5:16">
-      <c r="E39" s="18" t="str">
+      <c r="E39" s="9" t="str">
         <f>IF(ISBLANK(F39), "", MAX($E$28:E38)+1)</f>
         <v/>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="41"/>
-      <c r="P39" s="30">
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="P39" s="14">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="40" spans="5:16">
-      <c r="E40" s="17" t="str">
+      <c r="E40" s="8" t="str">
         <f>IF(ISBLANK(F40), "", MAX($E$28:E39)+1)</f>
         <v/>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="36"/>
-      <c r="P40" s="30">
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="20"/>
+      <c r="P40" s="14">
         <f t="shared" si="1"/>
         <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="41" spans="5:16">
-      <c r="E41" s="18" t="str">
+      <c r="E41" s="9" t="str">
         <f>IF(ISBLANK(F41), "", MAX($E$28:E40)+1)</f>
         <v/>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
-      <c r="P41" s="30">
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="25"/>
+      <c r="P41" s="14">
         <f t="shared" si="1"/>
         <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="42" spans="5:16">
-      <c r="E42" s="17" t="str">
+      <c r="E42" s="8" t="str">
         <f>IF(ISBLANK(F42), "", MAX($E$28:E41)+1)</f>
         <v/>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="36"/>
-      <c r="P42" s="30">
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="20"/>
+      <c r="P42" s="14">
         <f t="shared" si="1"/>
         <v>0.15624999999999997</v>
       </c>
     </row>
     <row r="43" spans="5:16">
-      <c r="E43" s="18" t="str">
+      <c r="E43" s="9" t="str">
         <f>IF(ISBLANK(F43), "", MAX($E$28:E42)+1)</f>
         <v/>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="41"/>
-      <c r="P43" s="30">
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="25"/>
+      <c r="P43" s="14">
         <f t="shared" si="1"/>
         <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="44" spans="5:16">
-      <c r="E44" s="17" t="str">
+      <c r="E44" s="8" t="str">
         <f>IF(ISBLANK(F44), "", MAX($E$28:E43)+1)</f>
         <v/>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="36"/>
-      <c r="P44" s="30">
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="20"/>
+      <c r="P44" s="14">
         <f t="shared" si="1"/>
         <v>0.17708333333333329</v>
       </c>
     </row>
     <row r="45" spans="5:16">
-      <c r="E45" s="18" t="str">
+      <c r="E45" s="9" t="str">
         <f>IF(ISBLANK(F45), "", MAX($E$28:E44)+1)</f>
         <v/>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="41"/>
-      <c r="P45" s="30">
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="25"/>
+      <c r="P45" s="14">
         <f t="shared" si="1"/>
         <v>0.18749999999999994</v>
       </c>
     </row>
     <row r="46" spans="5:16">
-      <c r="K46" s="20" t="str">
+      <c r="K46" s="10" t="str">
         <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins quatre tâches.</v>
       </c>
-      <c r="P46" s="30">
+      <c r="P46" s="14">
         <f t="shared" si="1"/>
         <v>0.1979166666666666</v>
       </c>
     </row>
     <row r="47" spans="5:16">
-      <c r="P47" s="30">
+      <c r="P47" s="14">
         <f>P46+$P$27</f>
         <v>0.20833333333333326</v>
       </c>
     </row>
     <row r="48" spans="5:16">
-      <c r="P48" s="30"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="13">
+      <c r="B49" s="57">
         <v>2</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="P49" s="30"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="13"/>
-      <c r="C50" s="14" t="s">
+      <c r="B50" s="57"/>
+      <c r="C50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P50" s="30"/>
+      <c r="P50" s="14"/>
     </row>
     <row r="51" spans="2:16">
-      <c r="P51" s="30"/>
+      <c r="P51" s="14"/>
     </row>
     <row r="52" spans="2:16" ht="15.75">
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="P52" s="30"/>
+      <c r="P52" s="14"/>
     </row>
     <row r="53" spans="2:16">
-      <c r="E53" s="17" t="str">
+      <c r="E53" s="8" t="str">
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="44"/>
-      <c r="P53" s="45"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="28"/>
+      <c r="P53" s="29"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="E54" s="18" t="str">
+      <c r="E54" s="9" t="str">
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="48"/>
-      <c r="P54" s="30"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="30"/>
+      <c r="P54" s="14"/>
     </row>
     <row r="55" spans="2:16">
-      <c r="E55" s="18" t="str">
+      <c r="E55" s="9" t="str">
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="44"/>
-      <c r="P55" s="30"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="28"/>
+      <c r="P55" s="14"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="E56" s="18" t="str">
+      <c r="E56" s="9" t="str">
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="48"/>
-      <c r="P56" s="30"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="30"/>
+      <c r="P56" s="14"/>
     </row>
     <row r="57" spans="2:16">
-      <c r="E57" s="18" t="str">
+      <c r="E57" s="9" t="str">
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="44"/>
-      <c r="P57" s="30"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="28"/>
+      <c r="P57" s="14"/>
     </row>
     <row r="58" spans="2:16">
-      <c r="E58" s="18" t="str">
+      <c r="E58" s="9" t="str">
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="48"/>
-      <c r="P58" s="30"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="30"/>
+      <c r="P58" s="14"/>
     </row>
     <row r="59" spans="2:16">
-      <c r="E59" s="18" t="str">
+      <c r="E59" s="9" t="str">
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="44"/>
-      <c r="P59" s="30"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="28"/>
+      <c r="P59" s="14"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="E60" s="18" t="str">
+      <c r="E60" s="9" t="str">
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="48"/>
-      <c r="P60" s="30"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="30"/>
+      <c r="P60" s="14"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="E61" s="18" t="str">
+      <c r="E61" s="9" t="str">
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="44"/>
-      <c r="P61" s="30"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="28"/>
+      <c r="P61" s="14"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="E62" s="18" t="str">
+      <c r="E62" s="9" t="str">
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="48"/>
-      <c r="P62" s="30"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="30"/>
+      <c r="P62" s="14"/>
     </row>
     <row r="63" spans="2:16">
-      <c r="E63" s="18" t="str">
+      <c r="E63" s="9" t="str">
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="44"/>
-      <c r="P63" s="30"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="28"/>
+      <c r="P63" s="14"/>
     </row>
     <row r="64" spans="2:16">
-      <c r="E64" s="18" t="str">
+      <c r="E64" s="9" t="str">
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="46"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="48"/>
-      <c r="P64" s="30"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="30"/>
+      <c r="P64" s="14"/>
     </row>
     <row r="65" spans="5:16">
-      <c r="E65" s="18" t="str">
+      <c r="E65" s="9" t="str">
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="44"/>
-      <c r="P65" s="30"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="28"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" spans="5:16">
-      <c r="E66" s="18" t="str">
+      <c r="E66" s="9" t="str">
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="46"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="48"/>
-      <c r="P66" s="30"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="30"/>
+      <c r="P66" s="14"/>
     </row>
     <row r="67" spans="5:16">
-      <c r="E67" s="18" t="str">
+      <c r="E67" s="9" t="str">
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="44"/>
-      <c r="P67" s="30"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="28"/>
+      <c r="P67" s="14"/>
     </row>
     <row r="68" spans="5:16">
-      <c r="E68" s="18" t="str">
+      <c r="E68" s="9" t="str">
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="46"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="48"/>
-      <c r="P68" s="30"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="30"/>
+      <c r="P68" s="14"/>
     </row>
     <row r="69" spans="5:16">
-      <c r="E69" s="18" t="str">
+      <c r="E69" s="9" t="str">
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="44"/>
-      <c r="P69" s="30"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="28"/>
+      <c r="P69" s="14"/>
     </row>
     <row r="70" spans="5:16">
-      <c r="E70" s="18" t="str">
+      <c r="E70" s="9" t="str">
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="46"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="48"/>
-      <c r="P70" s="30"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="30"/>
+      <c r="P70" s="14"/>
     </row>
     <row r="71" spans="5:16">
-      <c r="E71" s="18" t="str">
+      <c r="E71" s="9" t="str">
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="44"/>
-      <c r="P71" s="30"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="28"/>
+      <c r="P71" s="14"/>
     </row>
     <row r="72" spans="5:16">
-      <c r="E72" s="18" t="str">
+      <c r="E72" s="9" t="str">
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="46"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="48"/>
-      <c r="P72" s="30"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="30"/>
+      <c r="P72" s="14"/>
     </row>
     <row r="73" spans="5:16">
-      <c r="E73" s="18" t="str">
+      <c r="E73" s="9" t="str">
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="44"/>
-      <c r="P73" s="30"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="28"/>
+      <c r="P73" s="14"/>
     </row>
     <row r="74" spans="5:16">
-      <c r="E74" s="18" t="str">
+      <c r="E74" s="9" t="str">
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="46"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="48"/>
-      <c r="P74" s="30"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="30"/>
+      <c r="P74" s="14"/>
     </row>
     <row r="75" spans="5:16">
-      <c r="E75" s="18" t="str">
+      <c r="E75" s="9" t="str">
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="44"/>
-      <c r="P75" s="30"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="28"/>
+      <c r="P75" s="14"/>
     </row>
     <row r="76" spans="5:16">
-      <c r="E76" s="18" t="str">
+      <c r="E76" s="9" t="str">
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="46"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="48"/>
-      <c r="P76" s="30"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="30"/>
+      <c r="P76" s="14"/>
     </row>
     <row r="77" spans="5:16">
-      <c r="E77" s="18" t="str">
+      <c r="E77" s="9" t="str">
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="44"/>
-      <c r="P77" s="30"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="28"/>
+      <c r="P77" s="14"/>
     </row>
     <row r="78" spans="5:16">
-      <c r="E78" s="18" t="str">
+      <c r="E78" s="9" t="str">
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="46"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="48"/>
-      <c r="P78" s="30"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="30"/>
+      <c r="P78" s="14"/>
     </row>
     <row r="79" spans="5:16">
-      <c r="E79" s="18" t="str">
+      <c r="E79" s="9" t="str">
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="44"/>
-      <c r="P79" s="30"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="28"/>
+      <c r="P79" s="14"/>
     </row>
     <row r="80" spans="5:16">
-      <c r="E80" s="18" t="str">
+      <c r="E80" s="9" t="str">
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="46"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="48"/>
-      <c r="P80" s="30"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="30"/>
+      <c r="P80" s="14"/>
     </row>
     <row r="81" spans="2:16">
-      <c r="E81" s="18" t="str">
+      <c r="E81" s="9" t="str">
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="44"/>
-      <c r="P81" s="30"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="28"/>
+      <c r="P81" s="14"/>
     </row>
     <row r="82" spans="2:16">
-      <c r="E82" s="18" t="str">
+      <c r="E82" s="9" t="str">
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="48"/>
-      <c r="P82" s="30"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="30"/>
+      <c r="P82" s="14"/>
     </row>
     <row r="83" spans="2:16">
-      <c r="E83" s="18" t="str">
+      <c r="E83" s="9" t="str">
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="44"/>
-      <c r="P83" s="30"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="28"/>
+      <c r="P83" s="14"/>
     </row>
     <row r="84" spans="2:16">
-      <c r="E84" s="18" t="str">
+      <c r="E84" s="9" t="str">
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="46"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="47"/>
-      <c r="K84" s="48"/>
-      <c r="P84" s="30"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="30"/>
+      <c r="P84" s="14"/>
     </row>
     <row r="85" spans="2:16">
-      <c r="E85" s="18" t="str">
+      <c r="E85" s="9" t="str">
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="44"/>
-      <c r="P85" s="30"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="28"/>
+      <c r="P85" s="14"/>
     </row>
     <row r="86" spans="2:16">
-      <c r="E86" s="18" t="str">
+      <c r="E86" s="9" t="str">
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="46"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="48"/>
-      <c r="P86" s="30"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="30"/>
+      <c r="P86" s="14"/>
     </row>
     <row r="87" spans="2:16">
-      <c r="E87" s="18" t="str">
+      <c r="E87" s="9" t="str">
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="44"/>
-      <c r="P87" s="30"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="28"/>
+      <c r="P87" s="14"/>
     </row>
     <row r="88" spans="2:16">
-      <c r="E88" s="18" t="str">
+      <c r="E88" s="9" t="str">
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="46"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="48"/>
-      <c r="P88" s="30"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="30"/>
+      <c r="P88" s="14"/>
     </row>
     <row r="89" spans="2:16">
-      <c r="P89" s="30"/>
+      <c r="P89" s="14"/>
     </row>
     <row r="90" spans="2:16">
-      <c r="P90" s="30"/>
+      <c r="P90" s="14"/>
     </row>
     <row r="91" spans="2:16">
-      <c r="P91" s="30"/>
+      <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="13">
+      <c r="B92" s="57">
         <v>3</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="13"/>
-      <c r="C93" s="14" t="s">
+      <c r="B93" s="57"/>
+      <c r="C93" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="15" t="s">
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15.75">
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="50" t="s">
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="43" t="s">
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K95" s="42" t="s">
+      <c r="K95" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="96" spans="2:16">
-      <c r="E96" s="17" t="str">
+      <c r="E96" s="8" t="str">
         <f>IF(ISBLANK(E28),"",E28)</f>
         <v/>
       </c>
-      <c r="F96" s="51" t="str">
-        <f t="shared" ref="E96:G111" si="2">IF(ISBLANK(F28),"",F28)</f>
-        <v/>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="4"/>
+      <c r="F96" s="31" t="str">
+        <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
+        <v/>
+      </c>
+      <c r="G96" s="51"/>
+      <c r="H96" s="48"/>
       <c r="I96" s="52"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="54"/>
-      <c r="P96" s="31">
+      <c r="J96" s="32"/>
+      <c r="K96" s="33"/>
+      <c r="P96" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="5:16">
-      <c r="E97" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F97" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G97" s="46"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="57"/>
-      <c r="K97" s="58"/>
-      <c r="P97" s="31">
+      <c r="E97" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F97" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G97" s="49"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="36"/>
+      <c r="P97" s="15">
         <v>0.1</v>
       </c>
     </row>
     <row r="98" spans="5:16">
-      <c r="E98" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F98" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="4"/>
+      <c r="E98" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F98" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G98" s="51"/>
+      <c r="H98" s="48"/>
       <c r="I98" s="52"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="54"/>
-      <c r="P98" s="31">
+      <c r="J98" s="32"/>
+      <c r="K98" s="33"/>
+      <c r="P98" s="15">
         <v>0.2</v>
       </c>
     </row>
     <row r="99" spans="5:16">
-      <c r="E99" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F99" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G99" s="46"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="57"/>
-      <c r="K99" s="58"/>
-      <c r="P99" s="31">
+      <c r="E99" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F99" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G99" s="49"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="36"/>
+      <c r="P99" s="15">
         <v>0.3</v>
       </c>
     </row>
     <row r="100" spans="5:16">
-      <c r="E100" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F100" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="4"/>
+      <c r="E100" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F100" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G100" s="51"/>
+      <c r="H100" s="48"/>
       <c r="I100" s="52"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="54"/>
-      <c r="P100" s="31">
+      <c r="J100" s="32"/>
+      <c r="K100" s="33"/>
+      <c r="P100" s="15">
         <v>0.4</v>
       </c>
     </row>
     <row r="101" spans="5:16">
-      <c r="E101" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F101" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G101" s="46"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="57"/>
-      <c r="K101" s="58"/>
-      <c r="P101" s="31">
+      <c r="E101" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F101" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G101" s="49"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="36"/>
+      <c r="P101" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="5:16">
-      <c r="E102" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F102" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="4"/>
+      <c r="E102" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F102" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G102" s="51"/>
+      <c r="H102" s="48"/>
       <c r="I102" s="52"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="54"/>
-      <c r="P102" s="31">
+      <c r="J102" s="32"/>
+      <c r="K102" s="33"/>
+      <c r="P102" s="15">
         <v>0.6</v>
       </c>
     </row>
     <row r="103" spans="5:16">
-      <c r="E103" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F103" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G103" s="46"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="57"/>
-      <c r="K103" s="58"/>
-      <c r="P103" s="31">
+      <c r="E103" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F103" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G103" s="49"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="36"/>
+      <c r="P103" s="15">
         <v>0.7</v>
       </c>
     </row>
     <row r="104" spans="5:16">
-      <c r="E104" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F104" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="4"/>
+      <c r="E104" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F104" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G104" s="51"/>
+      <c r="H104" s="48"/>
       <c r="I104" s="52"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="54"/>
-      <c r="P104" s="31">
+      <c r="J104" s="32"/>
+      <c r="K104" s="33"/>
+      <c r="P104" s="15">
         <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="5:16">
-      <c r="E105" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F105" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G105" s="46"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="57"/>
-      <c r="K105" s="58"/>
-      <c r="P105" s="31">
+      <c r="E105" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F105" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G105" s="49"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="36"/>
+      <c r="P105" s="15">
         <v>0.9</v>
       </c>
     </row>
     <row r="106" spans="5:16">
-      <c r="E106" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F106" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="4"/>
+      <c r="E106" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F106" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G106" s="51"/>
+      <c r="H106" s="48"/>
       <c r="I106" s="52"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="54"/>
-      <c r="P106" s="31">
+      <c r="J106" s="32"/>
+      <c r="K106" s="33"/>
+      <c r="P106" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="5:16">
-      <c r="E107" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F107" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G107" s="46"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="58"/>
-      <c r="P107" s="31"/>
+      <c r="E107" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F107" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G107" s="49"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="36"/>
+      <c r="P107" s="15"/>
     </row>
     <row r="108" spans="5:16">
-      <c r="E108" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F108" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="4"/>
+      <c r="E108" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F108" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G108" s="51"/>
+      <c r="H108" s="48"/>
       <c r="I108" s="52"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="54"/>
-      <c r="P108" s="31"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="33"/>
+      <c r="P108" s="15"/>
     </row>
     <row r="109" spans="5:16">
-      <c r="E109" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F109" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G109" s="46"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="57"/>
-      <c r="K109" s="58"/>
+      <c r="E109" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F109" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G109" s="49"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="36"/>
     </row>
     <row r="110" spans="5:16">
-      <c r="E110" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F110" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="4"/>
+      <c r="E110" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F110" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G110" s="51"/>
+      <c r="H110" s="48"/>
       <c r="I110" s="52"/>
-      <c r="J110" s="53"/>
-      <c r="K110" s="54"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="33"/>
     </row>
     <row r="111" spans="5:16">
-      <c r="E111" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F111" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G111" s="46"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="57"/>
-      <c r="K111" s="58"/>
+      <c r="E111" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F111" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G111" s="49"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="36"/>
     </row>
     <row r="112" spans="5:16">
-      <c r="E112" s="17" t="str">
+      <c r="E112" s="8" t="str">
         <f t="shared" ref="E112:F113" si="3">IF(ISBLANK(E44),"",E44)</f>
         <v/>
       </c>
-      <c r="F112" s="51" t="str">
+      <c r="F112" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="4"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="48"/>
       <c r="I112" s="52"/>
-      <c r="J112" s="53"/>
-      <c r="K112" s="54"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="33"/>
     </row>
     <row r="113" spans="4:11">
-      <c r="E113" s="18" t="str">
+      <c r="E113" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F113" s="55" t="str">
+      <c r="F113" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="46"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="57"/>
-      <c r="K113" s="58"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="36"/>
     </row>
     <row r="114" spans="4:11">
-      <c r="K114" s="20"/>
+      <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="16"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="53"/>
+      <c r="I116" s="53"/>
+      <c r="J116" s="53"/>
+      <c r="K116" s="53"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="59"/>
-      <c r="K117" s="59"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="47"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
-      <c r="D120" s="21" t="s">
+      <c r="D120" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
-      <c r="J120" s="60"/>
-      <c r="K120" s="21"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="11"/>
     </row>
     <row r="121" spans="4:11">
-      <c r="E121" s="17" t="str">
+      <c r="E121" s="8" t="str">
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="48"/>
     </row>
     <row r="122" spans="4:11">
-      <c r="E122" s="18" t="str">
+      <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="46"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
     </row>
     <row r="123" spans="4:11">
-      <c r="E123" s="17" t="str">
+      <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
     </row>
     <row r="124" spans="4:11">
-      <c r="E124" s="18" t="str">
+      <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="46"/>
+      <c r="J124" s="46"/>
+      <c r="K124" s="46"/>
     </row>
     <row r="125" spans="4:11">
-      <c r="E125" s="17" t="str">
+      <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="48"/>
     </row>
     <row r="126" spans="4:11">
-      <c r="E126" s="18" t="str">
+      <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="46"/>
+      <c r="J126" s="46"/>
+      <c r="K126" s="46"/>
     </row>
     <row r="127" spans="4:11">
-      <c r="K127" s="20" t="str">
+      <c r="K127" s="10" t="str">
         <f>IF(COUNTA(F121:K126)&lt;2, "Attention, vous devez définir au moins deux éléments descriptifs.", COUNTA(F121:K126)&amp;IF(COUNTA(F121:K126)&gt;1," éléments ont été exprimés"," élément a été exprimé"))</f>
         <v>Attention, vous devez définir au moins deux éléments descriptifs.</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="J18:K18"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -3796,6 +3713,91 @@
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="26" priority="12">
@@ -3970,1728 +3972,1643 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5" style="7" customWidth="1"/>
-    <col min="3" max="5" width="3.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="7" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="9" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="9" customWidth="1"/>
-    <col min="12" max="14" width="9.28515625" style="7"/>
-    <col min="15" max="15" width="9.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="7"/>
+    <col min="1" max="1" width="1.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" style="3" customWidth="1"/>
+    <col min="3" max="5" width="3.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="4" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="3"/>
+    <col min="15" max="15" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="66" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 2   |   </v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="13">
+      <c r="B9" s="57">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="8" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="P13" s="7" t="str">
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
       </c>
-      <c r="Q13" s="7" t="e">
+      <c r="Q13" s="3" t="e">
         <f t="array" aca="1" ref="Q13" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="E14" s="18" t="str">
+      <c r="E14" s="9" t="str">
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="P14" s="7" t="str">
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="8" t="str">
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="P15" s="7" t="str">
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:17">
-      <c r="K16" s="20" t="str">
+      <c r="K16" s="10" t="str">
         <f>IF(COUNTA(F13:F15)=0, "Attention, vous devez définir au moins une orientation.", COUNTA(F13:F15)&amp;IF(COUNTA(F13:F15)&gt;1," orientations ont été déterminées"," orientation a été déterminée"))</f>
         <v>Attention, vous devez définir au moins une orientation.</v>
       </c>
     </row>
     <row r="18" spans="4:17" ht="15.75">
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="4:17">
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="8" t="str">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v/>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-      <c r="P19" s="7" t="str">
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
+      <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v/>
       </c>
-      <c r="Q19" s="7" t="e">
+      <c r="Q19" s="3" t="e">
         <f t="array" aca="1" ref="Q19" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="4:17">
-      <c r="E20" s="18" t="str">
+      <c r="E20" s="9" t="str">
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
-      <c r="P20" s="7" t="str">
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="4:17">
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="8" t="str">
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
-      <c r="P21" s="7" t="str">
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
+      <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="4:17">
-      <c r="E22" s="18" t="str">
+      <c r="E22" s="9" t="str">
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
-      <c r="P22" s="7" t="str">
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="4:17">
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="8" t="str">
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="P23" s="7" t="str">
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="4:17">
-      <c r="E24" s="18" t="str">
+      <c r="E24" s="9" t="str">
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
-      <c r="P24" s="7" t="str">
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+      <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="28" t="str">
+      <c r="J25" s="64" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="29" t="s">
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="29" t="s">
+      <c r="I27" s="65"/>
+      <c r="J27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="K27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="Q27" s="31" t="s">
+      <c r="Q27" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="4:17">
-      <c r="E28" s="17" t="str">
+      <c r="E28" s="8" t="str">
         <f>IF(ISBLANK(F28), "", 1)</f>
         <v/>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
-      <c r="P28" s="30">
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="P28" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="Q28" s="31" t="s">
+      <c r="Q28" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="4:17">
-      <c r="E29" s="18" t="str">
+      <c r="E29" s="9" t="str">
         <f>IF(ISBLANK(F29), "", MAX($E$28:E28)+1)</f>
         <v/>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="P29" s="30">
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="P29" s="14">
         <f>P28+$P$27</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="Q29" s="31" t="s">
+      <c r="Q29" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="4:17">
-      <c r="E30" s="17" t="str">
+      <c r="E30" s="8" t="str">
         <f>IF(ISBLANK(F30), "", MAX($E$28:E29)+1)</f>
         <v/>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
-      <c r="P30" s="30">
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
+      <c r="P30" s="14">
         <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
         <v>3.125E-2</v>
       </c>
-      <c r="Q30" s="31" t="s">
+      <c r="Q30" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="4:17">
-      <c r="E31" s="18" t="str">
+      <c r="E31" s="9" t="str">
         <f>IF(ISBLANK(F31), "", MAX($E$28:E30)+1)</f>
         <v/>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41"/>
-      <c r="P31" s="30">
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="P31" s="14">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="32" spans="4:17">
-      <c r="E32" s="17" t="str">
+      <c r="E32" s="8" t="str">
         <f>IF(ISBLANK(F32), "", MAX($E$28:E31)+1)</f>
         <v/>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="36"/>
-      <c r="P32" s="30">
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+      <c r="P32" s="14">
         <f t="shared" si="1"/>
         <v>5.2083333333333329E-2</v>
       </c>
     </row>
     <row r="33" spans="5:16">
-      <c r="E33" s="18" t="str">
+      <c r="E33" s="9" t="str">
         <f>IF(ISBLANK(F33), "", MAX($E$28:E32)+1)</f>
         <v/>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="41"/>
-      <c r="P33" s="30">
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="P33" s="14">
         <f t="shared" si="1"/>
         <v>6.2499999999999993E-2</v>
       </c>
     </row>
     <row r="34" spans="5:16">
-      <c r="E34" s="17" t="str">
+      <c r="E34" s="8" t="str">
         <f>IF(ISBLANK(F34), "", MAX($E$28:E33)+1)</f>
         <v/>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="36"/>
-      <c r="P34" s="30">
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
+      <c r="P34" s="14">
         <f t="shared" si="1"/>
         <v>7.2916666666666657E-2</v>
       </c>
     </row>
     <row r="35" spans="5:16">
-      <c r="E35" s="18" t="str">
+      <c r="E35" s="9" t="str">
         <f>IF(ISBLANK(F35), "", MAX($E$28:E34)+1)</f>
         <v/>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
-      <c r="P35" s="30">
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="P35" s="14">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="36" spans="5:16">
-      <c r="E36" s="17" t="str">
+      <c r="E36" s="8" t="str">
         <f>IF(ISBLANK(F36), "", MAX($E$28:E35)+1)</f>
         <v/>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="36"/>
-      <c r="P36" s="30">
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
+      <c r="P36" s="14">
         <f t="shared" si="1"/>
         <v>9.375E-2</v>
       </c>
     </row>
     <row r="37" spans="5:16">
-      <c r="E37" s="18" t="str">
+      <c r="E37" s="9" t="str">
         <f>IF(ISBLANK(F37), "", MAX($E$28:E36)+1)</f>
         <v/>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="41"/>
-      <c r="P37" s="30">
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="P37" s="14">
         <f t="shared" si="1"/>
         <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="38" spans="5:16">
-      <c r="E38" s="17" t="str">
+      <c r="E38" s="8" t="str">
         <f>IF(ISBLANK(F38), "", MAX($E$28:E37)+1)</f>
         <v/>
       </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="36"/>
-      <c r="P38" s="30">
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="20"/>
+      <c r="P38" s="14">
         <f t="shared" si="1"/>
         <v>0.11458333333333334</v>
       </c>
     </row>
     <row r="39" spans="5:16">
-      <c r="E39" s="18" t="str">
+      <c r="E39" s="9" t="str">
         <f>IF(ISBLANK(F39), "", MAX($E$28:E38)+1)</f>
         <v/>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="41"/>
-      <c r="P39" s="30">
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="P39" s="14">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="40" spans="5:16">
-      <c r="E40" s="17" t="str">
+      <c r="E40" s="8" t="str">
         <f>IF(ISBLANK(F40), "", MAX($E$28:E39)+1)</f>
         <v/>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="36"/>
-      <c r="P40" s="30">
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="20"/>
+      <c r="P40" s="14">
         <f t="shared" si="1"/>
         <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="41" spans="5:16">
-      <c r="E41" s="18" t="str">
+      <c r="E41" s="9" t="str">
         <f>IF(ISBLANK(F41), "", MAX($E$28:E40)+1)</f>
         <v/>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
-      <c r="P41" s="30">
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="25"/>
+      <c r="P41" s="14">
         <f t="shared" si="1"/>
         <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="42" spans="5:16">
-      <c r="E42" s="17" t="str">
+      <c r="E42" s="8" t="str">
         <f>IF(ISBLANK(F42), "", MAX($E$28:E41)+1)</f>
         <v/>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="36"/>
-      <c r="P42" s="30">
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="20"/>
+      <c r="P42" s="14">
         <f t="shared" si="1"/>
         <v>0.15624999999999997</v>
       </c>
     </row>
     <row r="43" spans="5:16">
-      <c r="E43" s="18" t="str">
+      <c r="E43" s="9" t="str">
         <f>IF(ISBLANK(F43), "", MAX($E$28:E42)+1)</f>
         <v/>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="41"/>
-      <c r="P43" s="30">
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="25"/>
+      <c r="P43" s="14">
         <f t="shared" si="1"/>
         <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="44" spans="5:16">
-      <c r="E44" s="17" t="str">
+      <c r="E44" s="8" t="str">
         <f>IF(ISBLANK(F44), "", MAX($E$28:E43)+1)</f>
         <v/>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="36"/>
-      <c r="P44" s="30">
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="20"/>
+      <c r="P44" s="14">
         <f t="shared" si="1"/>
         <v>0.17708333333333329</v>
       </c>
     </row>
     <row r="45" spans="5:16">
-      <c r="E45" s="18" t="str">
+      <c r="E45" s="9" t="str">
         <f>IF(ISBLANK(F45), "", MAX($E$28:E44)+1)</f>
         <v/>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="41"/>
-      <c r="P45" s="30">
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="25"/>
+      <c r="P45" s="14">
         <f t="shared" si="1"/>
         <v>0.18749999999999994</v>
       </c>
     </row>
     <row r="46" spans="5:16">
-      <c r="K46" s="20" t="str">
+      <c r="K46" s="10" t="str">
         <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins quatre tâches.</v>
       </c>
-      <c r="P46" s="30">
+      <c r="P46" s="14">
         <f t="shared" si="1"/>
         <v>0.1979166666666666</v>
       </c>
     </row>
     <row r="47" spans="5:16">
-      <c r="P47" s="30">
+      <c r="P47" s="14">
         <f>P46+$P$27</f>
         <v>0.20833333333333326</v>
       </c>
     </row>
     <row r="48" spans="5:16">
-      <c r="P48" s="30"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="13">
+      <c r="B49" s="57">
         <v>2</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="P49" s="30"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="13"/>
-      <c r="C50" s="14" t="s">
+      <c r="B50" s="57"/>
+      <c r="C50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P50" s="30"/>
+      <c r="P50" s="14"/>
     </row>
     <row r="51" spans="2:16">
-      <c r="P51" s="30"/>
+      <c r="P51" s="14"/>
     </row>
     <row r="52" spans="2:16" ht="15.75">
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="P52" s="30"/>
+      <c r="P52" s="14"/>
     </row>
     <row r="53" spans="2:16">
-      <c r="E53" s="17" t="str">
+      <c r="E53" s="8" t="str">
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="44"/>
-      <c r="P53" s="45"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="28"/>
+      <c r="P53" s="29"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="E54" s="18" t="str">
+      <c r="E54" s="9" t="str">
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="48"/>
-      <c r="P54" s="30"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="30"/>
+      <c r="P54" s="14"/>
     </row>
     <row r="55" spans="2:16">
-      <c r="E55" s="18" t="str">
+      <c r="E55" s="9" t="str">
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="44"/>
-      <c r="P55" s="30"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="28"/>
+      <c r="P55" s="14"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="E56" s="18" t="str">
+      <c r="E56" s="9" t="str">
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="48"/>
-      <c r="P56" s="30"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="30"/>
+      <c r="P56" s="14"/>
     </row>
     <row r="57" spans="2:16">
-      <c r="E57" s="18" t="str">
+      <c r="E57" s="9" t="str">
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="44"/>
-      <c r="P57" s="30"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="28"/>
+      <c r="P57" s="14"/>
     </row>
     <row r="58" spans="2:16">
-      <c r="E58" s="18" t="str">
+      <c r="E58" s="9" t="str">
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="48"/>
-      <c r="P58" s="30"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="30"/>
+      <c r="P58" s="14"/>
     </row>
     <row r="59" spans="2:16">
-      <c r="E59" s="18" t="str">
+      <c r="E59" s="9" t="str">
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="44"/>
-      <c r="P59" s="30"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="28"/>
+      <c r="P59" s="14"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="E60" s="18" t="str">
+      <c r="E60" s="9" t="str">
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="48"/>
-      <c r="P60" s="30"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="30"/>
+      <c r="P60" s="14"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="E61" s="18" t="str">
+      <c r="E61" s="9" t="str">
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="44"/>
-      <c r="P61" s="30"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="28"/>
+      <c r="P61" s="14"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="E62" s="18" t="str">
+      <c r="E62" s="9" t="str">
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="48"/>
-      <c r="P62" s="30"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="30"/>
+      <c r="P62" s="14"/>
     </row>
     <row r="63" spans="2:16">
-      <c r="E63" s="18" t="str">
+      <c r="E63" s="9" t="str">
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="44"/>
-      <c r="P63" s="30"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="28"/>
+      <c r="P63" s="14"/>
     </row>
     <row r="64" spans="2:16">
-      <c r="E64" s="18" t="str">
+      <c r="E64" s="9" t="str">
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="46"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="48"/>
-      <c r="P64" s="30"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="30"/>
+      <c r="P64" s="14"/>
     </row>
     <row r="65" spans="5:16">
-      <c r="E65" s="18" t="str">
+      <c r="E65" s="9" t="str">
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="44"/>
-      <c r="P65" s="30"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="28"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" spans="5:16">
-      <c r="E66" s="18" t="str">
+      <c r="E66" s="9" t="str">
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="46"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="48"/>
-      <c r="P66" s="30"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="30"/>
+      <c r="P66" s="14"/>
     </row>
     <row r="67" spans="5:16">
-      <c r="E67" s="18" t="str">
+      <c r="E67" s="9" t="str">
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="44"/>
-      <c r="P67" s="30"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="28"/>
+      <c r="P67" s="14"/>
     </row>
     <row r="68" spans="5:16">
-      <c r="E68" s="18" t="str">
+      <c r="E68" s="9" t="str">
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="46"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="48"/>
-      <c r="P68" s="30"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="30"/>
+      <c r="P68" s="14"/>
     </row>
     <row r="69" spans="5:16">
-      <c r="E69" s="18" t="str">
+      <c r="E69" s="9" t="str">
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="44"/>
-      <c r="P69" s="30"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="28"/>
+      <c r="P69" s="14"/>
     </row>
     <row r="70" spans="5:16">
-      <c r="E70" s="18" t="str">
+      <c r="E70" s="9" t="str">
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="46"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="48"/>
-      <c r="P70" s="30"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="30"/>
+      <c r="P70" s="14"/>
     </row>
     <row r="71" spans="5:16">
-      <c r="E71" s="18" t="str">
+      <c r="E71" s="9" t="str">
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="44"/>
-      <c r="P71" s="30"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="28"/>
+      <c r="P71" s="14"/>
     </row>
     <row r="72" spans="5:16">
-      <c r="E72" s="18" t="str">
+      <c r="E72" s="9" t="str">
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="46"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="48"/>
-      <c r="P72" s="30"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="30"/>
+      <c r="P72" s="14"/>
     </row>
     <row r="73" spans="5:16">
-      <c r="E73" s="18" t="str">
+      <c r="E73" s="9" t="str">
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="44"/>
-      <c r="P73" s="30"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="28"/>
+      <c r="P73" s="14"/>
     </row>
     <row r="74" spans="5:16">
-      <c r="E74" s="18" t="str">
+      <c r="E74" s="9" t="str">
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="46"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="48"/>
-      <c r="P74" s="30"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="30"/>
+      <c r="P74" s="14"/>
     </row>
     <row r="75" spans="5:16">
-      <c r="E75" s="18" t="str">
+      <c r="E75" s="9" t="str">
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="44"/>
-      <c r="P75" s="30"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="28"/>
+      <c r="P75" s="14"/>
     </row>
     <row r="76" spans="5:16">
-      <c r="E76" s="18" t="str">
+      <c r="E76" s="9" t="str">
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="46"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="48"/>
-      <c r="P76" s="30"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="30"/>
+      <c r="P76" s="14"/>
     </row>
     <row r="77" spans="5:16">
-      <c r="E77" s="18" t="str">
+      <c r="E77" s="9" t="str">
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="44"/>
-      <c r="P77" s="30"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="28"/>
+      <c r="P77" s="14"/>
     </row>
     <row r="78" spans="5:16">
-      <c r="E78" s="18" t="str">
+      <c r="E78" s="9" t="str">
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="46"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="48"/>
-      <c r="P78" s="30"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="30"/>
+      <c r="P78" s="14"/>
     </row>
     <row r="79" spans="5:16">
-      <c r="E79" s="18" t="str">
+      <c r="E79" s="9" t="str">
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="44"/>
-      <c r="P79" s="30"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="28"/>
+      <c r="P79" s="14"/>
     </row>
     <row r="80" spans="5:16">
-      <c r="E80" s="18" t="str">
+      <c r="E80" s="9" t="str">
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="46"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="48"/>
-      <c r="P80" s="30"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="30"/>
+      <c r="P80" s="14"/>
     </row>
     <row r="81" spans="2:16">
-      <c r="E81" s="18" t="str">
+      <c r="E81" s="9" t="str">
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="44"/>
-      <c r="P81" s="30"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="28"/>
+      <c r="P81" s="14"/>
     </row>
     <row r="82" spans="2:16">
-      <c r="E82" s="18" t="str">
+      <c r="E82" s="9" t="str">
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="48"/>
-      <c r="P82" s="30"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="30"/>
+      <c r="P82" s="14"/>
     </row>
     <row r="83" spans="2:16">
-      <c r="E83" s="18" t="str">
+      <c r="E83" s="9" t="str">
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="44"/>
-      <c r="P83" s="30"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="28"/>
+      <c r="P83" s="14"/>
     </row>
     <row r="84" spans="2:16">
-      <c r="E84" s="18" t="str">
+      <c r="E84" s="9" t="str">
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="46"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="47"/>
-      <c r="K84" s="48"/>
-      <c r="P84" s="30"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="30"/>
+      <c r="P84" s="14"/>
     </row>
     <row r="85" spans="2:16">
-      <c r="E85" s="18" t="str">
+      <c r="E85" s="9" t="str">
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="44"/>
-      <c r="P85" s="30"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="28"/>
+      <c r="P85" s="14"/>
     </row>
     <row r="86" spans="2:16">
-      <c r="E86" s="18" t="str">
+      <c r="E86" s="9" t="str">
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="46"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="48"/>
-      <c r="P86" s="30"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="30"/>
+      <c r="P86" s="14"/>
     </row>
     <row r="87" spans="2:16">
-      <c r="E87" s="18" t="str">
+      <c r="E87" s="9" t="str">
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="44"/>
-      <c r="P87" s="30"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="28"/>
+      <c r="P87" s="14"/>
     </row>
     <row r="88" spans="2:16">
-      <c r="E88" s="18" t="str">
+      <c r="E88" s="9" t="str">
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="46"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="48"/>
-      <c r="P88" s="30"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="30"/>
+      <c r="P88" s="14"/>
     </row>
     <row r="89" spans="2:16">
-      <c r="P89" s="30"/>
+      <c r="P89" s="14"/>
     </row>
     <row r="90" spans="2:16">
-      <c r="P90" s="30"/>
+      <c r="P90" s="14"/>
     </row>
     <row r="91" spans="2:16">
-      <c r="P91" s="30"/>
+      <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="13">
+      <c r="B92" s="57">
         <v>3</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="13"/>
-      <c r="C93" s="14" t="s">
+      <c r="B93" s="57"/>
+      <c r="C93" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="15" t="s">
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15.75">
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="50" t="s">
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="43" t="s">
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K95" s="42" t="s">
+      <c r="K95" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="96" spans="2:16">
-      <c r="E96" s="17" t="str">
+      <c r="E96" s="8" t="str">
         <f>IF(ISBLANK(E28),"",E28)</f>
         <v/>
       </c>
-      <c r="F96" s="51" t="str">
-        <f t="shared" ref="E96:G111" si="2">IF(ISBLANK(F28),"",F28)</f>
-        <v/>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="4"/>
+      <c r="F96" s="31" t="str">
+        <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
+        <v/>
+      </c>
+      <c r="G96" s="51"/>
+      <c r="H96" s="48"/>
       <c r="I96" s="52"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="54"/>
-      <c r="P96" s="31">
+      <c r="J96" s="32"/>
+      <c r="K96" s="33"/>
+      <c r="P96" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="5:16">
-      <c r="E97" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F97" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G97" s="46"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="57"/>
-      <c r="K97" s="58"/>
-      <c r="P97" s="31">
+      <c r="E97" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F97" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G97" s="49"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="36"/>
+      <c r="P97" s="15">
         <v>0.1</v>
       </c>
     </row>
     <row r="98" spans="5:16">
-      <c r="E98" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F98" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="4"/>
+      <c r="E98" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F98" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G98" s="51"/>
+      <c r="H98" s="48"/>
       <c r="I98" s="52"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="54"/>
-      <c r="P98" s="31">
+      <c r="J98" s="32"/>
+      <c r="K98" s="33"/>
+      <c r="P98" s="15">
         <v>0.2</v>
       </c>
     </row>
     <row r="99" spans="5:16">
-      <c r="E99" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F99" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G99" s="46"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="57"/>
-      <c r="K99" s="58"/>
-      <c r="P99" s="31">
+      <c r="E99" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F99" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G99" s="49"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="36"/>
+      <c r="P99" s="15">
         <v>0.3</v>
       </c>
     </row>
     <row r="100" spans="5:16">
-      <c r="E100" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F100" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="4"/>
+      <c r="E100" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F100" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G100" s="51"/>
+      <c r="H100" s="48"/>
       <c r="I100" s="52"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="54"/>
-      <c r="P100" s="31">
+      <c r="J100" s="32"/>
+      <c r="K100" s="33"/>
+      <c r="P100" s="15">
         <v>0.4</v>
       </c>
     </row>
     <row r="101" spans="5:16">
-      <c r="E101" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F101" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G101" s="46"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="57"/>
-      <c r="K101" s="58"/>
-      <c r="P101" s="31">
+      <c r="E101" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F101" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G101" s="49"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="36"/>
+      <c r="P101" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="5:16">
-      <c r="E102" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F102" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="4"/>
+      <c r="E102" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F102" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G102" s="51"/>
+      <c r="H102" s="48"/>
       <c r="I102" s="52"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="54"/>
-      <c r="P102" s="31">
+      <c r="J102" s="32"/>
+      <c r="K102" s="33"/>
+      <c r="P102" s="15">
         <v>0.6</v>
       </c>
     </row>
     <row r="103" spans="5:16">
-      <c r="E103" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F103" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G103" s="46"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="57"/>
-      <c r="K103" s="58"/>
-      <c r="P103" s="31">
+      <c r="E103" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F103" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G103" s="49"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="36"/>
+      <c r="P103" s="15">
         <v>0.7</v>
       </c>
     </row>
     <row r="104" spans="5:16">
-      <c r="E104" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F104" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="4"/>
+      <c r="E104" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F104" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G104" s="51"/>
+      <c r="H104" s="48"/>
       <c r="I104" s="52"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="54"/>
-      <c r="P104" s="31">
+      <c r="J104" s="32"/>
+      <c r="K104" s="33"/>
+      <c r="P104" s="15">
         <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="5:16">
-      <c r="E105" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F105" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G105" s="46"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="57"/>
-      <c r="K105" s="58"/>
-      <c r="P105" s="31">
+      <c r="E105" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F105" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G105" s="49"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="36"/>
+      <c r="P105" s="15">
         <v>0.9</v>
       </c>
     </row>
     <row r="106" spans="5:16">
-      <c r="E106" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F106" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="4"/>
+      <c r="E106" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F106" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G106" s="51"/>
+      <c r="H106" s="48"/>
       <c r="I106" s="52"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="54"/>
-      <c r="P106" s="31">
+      <c r="J106" s="32"/>
+      <c r="K106" s="33"/>
+      <c r="P106" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="5:16">
-      <c r="E107" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F107" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G107" s="46"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="58"/>
-      <c r="P107" s="31"/>
+      <c r="E107" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F107" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G107" s="49"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="36"/>
+      <c r="P107" s="15"/>
     </row>
     <row r="108" spans="5:16">
-      <c r="E108" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F108" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="4"/>
+      <c r="E108" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F108" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G108" s="51"/>
+      <c r="H108" s="48"/>
       <c r="I108" s="52"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="54"/>
-      <c r="P108" s="31"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="33"/>
+      <c r="P108" s="15"/>
     </row>
     <row r="109" spans="5:16">
-      <c r="E109" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F109" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G109" s="46"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="57"/>
-      <c r="K109" s="58"/>
+      <c r="E109" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F109" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G109" s="49"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="36"/>
     </row>
     <row r="110" spans="5:16">
-      <c r="E110" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F110" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="4"/>
+      <c r="E110" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F110" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G110" s="51"/>
+      <c r="H110" s="48"/>
       <c r="I110" s="52"/>
-      <c r="J110" s="53"/>
-      <c r="K110" s="54"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="33"/>
     </row>
     <row r="111" spans="5:16">
-      <c r="E111" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F111" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G111" s="46"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="57"/>
-      <c r="K111" s="58"/>
+      <c r="E111" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F111" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G111" s="49"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="36"/>
     </row>
     <row r="112" spans="5:16">
-      <c r="E112" s="17" t="str">
+      <c r="E112" s="8" t="str">
         <f t="shared" ref="E112:F113" si="3">IF(ISBLANK(E44),"",E44)</f>
         <v/>
       </c>
-      <c r="F112" s="51" t="str">
+      <c r="F112" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="4"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="48"/>
       <c r="I112" s="52"/>
-      <c r="J112" s="53"/>
-      <c r="K112" s="54"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="33"/>
     </row>
     <row r="113" spans="4:11">
-      <c r="E113" s="18" t="str">
+      <c r="E113" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F113" s="55" t="str">
+      <c r="F113" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="46"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="57"/>
-      <c r="K113" s="58"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="36"/>
     </row>
     <row r="114" spans="4:11">
-      <c r="K114" s="20"/>
+      <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="16"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="53"/>
+      <c r="I116" s="53"/>
+      <c r="J116" s="53"/>
+      <c r="K116" s="53"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="59"/>
-      <c r="K117" s="59"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="47"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
-      <c r="D120" s="21" t="s">
+      <c r="D120" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
-      <c r="J120" s="60"/>
-      <c r="K120" s="21"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="11"/>
     </row>
     <row r="121" spans="4:11">
-      <c r="E121" s="17" t="str">
+      <c r="E121" s="8" t="str">
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="48"/>
     </row>
     <row r="122" spans="4:11">
-      <c r="E122" s="18" t="str">
+      <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="46"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
     </row>
     <row r="123" spans="4:11">
-      <c r="E123" s="17" t="str">
+      <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
     </row>
     <row r="124" spans="4:11">
-      <c r="E124" s="18" t="str">
+      <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="46"/>
+      <c r="J124" s="46"/>
+      <c r="K124" s="46"/>
     </row>
     <row r="125" spans="4:11">
-      <c r="E125" s="17" t="str">
+      <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="48"/>
     </row>
     <row r="126" spans="4:11">
-      <c r="E126" s="18" t="str">
+      <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="46"/>
+      <c r="J126" s="46"/>
+      <c r="K126" s="46"/>
     </row>
     <row r="127" spans="4:11">
-      <c r="K127" s="20" t="str">
+      <c r="K127" s="10" t="str">
         <f>IF(COUNTA(F121:K126)&lt;2, "Attention, vous devez définir au moins deux éléments descriptifs.", COUNTA(F121:K126)&amp;IF(COUNTA(F121:K126)&gt;1," éléments ont été exprimés"," élément a été exprimé"))</f>
         <v>Attention, vous devez définir au moins deux éléments descriptifs.</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="J18:K18"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -5701,6 +5618,91 @@
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -5869,1734 +5871,1649 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736AB4E6-7F0E-4E0F-86D9-E515D490564F}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5" style="7" customWidth="1"/>
-    <col min="3" max="5" width="3.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="7" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="9" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="9" customWidth="1"/>
-    <col min="12" max="14" width="9.28515625" style="7"/>
-    <col min="15" max="15" width="9.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="7"/>
+    <col min="1" max="1" width="1.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" style="3" customWidth="1"/>
+    <col min="3" max="5" width="3.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="4" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="3"/>
+    <col min="15" max="15" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="66" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 3  |   </v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="13">
+      <c r="B9" s="57">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="8" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="P13" s="7" t="str">
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
       </c>
-      <c r="Q13" s="7" t="e">
+      <c r="Q13" s="3" t="e">
         <f t="array" aca="1" ref="Q13" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="E14" s="18" t="str">
+      <c r="E14" s="9" t="str">
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="P14" s="7" t="str">
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="8" t="str">
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="P15" s="7" t="str">
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:17">
-      <c r="K16" s="20" t="str">
+      <c r="K16" s="10" t="str">
         <f>IF(COUNTA(F13:F15)=0, "Attention, vous devez définir au moins une orientation.", COUNTA(F13:F15)&amp;IF(COUNTA(F13:F15)&gt;1," orientations ont été déterminées"," orientation a été déterminée"))</f>
         <v>Attention, vous devez définir au moins une orientation.</v>
       </c>
     </row>
     <row r="18" spans="4:17" ht="15.75">
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="4:17">
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="8" t="str">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v/>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-      <c r="P19" s="7" t="str">
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
+      <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v/>
       </c>
-      <c r="Q19" s="7" t="e">
+      <c r="Q19" s="3" t="e">
         <f t="array" aca="1" ref="Q19" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="4:17">
-      <c r="E20" s="18" t="str">
+      <c r="E20" s="9" t="str">
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
-      <c r="P20" s="7" t="str">
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="4:17">
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="8" t="str">
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="66"/>
-      <c r="P21" s="7" t="str">
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="4:17">
-      <c r="E22" s="18" t="str">
+      <c r="E22" s="9" t="str">
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
-      <c r="P22" s="7" t="str">
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="76"/>
+      <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="4:17">
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="8" t="str">
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66"/>
-      <c r="P23" s="7" t="str">
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="4:17">
-      <c r="E24" s="18" t="str">
+      <c r="E24" s="9" t="str">
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="68"/>
-      <c r="P24" s="7" t="str">
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="76"/>
+      <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="28" t="str">
+      <c r="J25" s="64" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="29" t="s">
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="29" t="s">
+      <c r="I27" s="65"/>
+      <c r="J27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="K27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="Q27" s="31" t="s">
+      <c r="Q27" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="4:17">
-      <c r="E28" s="17" t="str">
+      <c r="E28" s="8" t="str">
         <f>IF(ISBLANK(F28), "", 1)</f>
         <v/>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
-      <c r="P28" s="30">
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="P28" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="Q28" s="31" t="s">
+      <c r="Q28" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="4:17">
-      <c r="E29" s="18" t="str">
+      <c r="E29" s="9" t="str">
         <f>IF(ISBLANK(F29), "", MAX($E$28:E28)+1)</f>
         <v/>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="P29" s="30">
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="P29" s="14">
         <f>P28+$P$27</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="Q29" s="31" t="s">
+      <c r="Q29" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="4:17">
-      <c r="E30" s="17" t="str">
+      <c r="E30" s="8" t="str">
         <f>IF(ISBLANK(F30), "", MAX($E$28:E29)+1)</f>
         <v/>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
-      <c r="P30" s="30">
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
+      <c r="P30" s="14">
         <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
         <v>3.125E-2</v>
       </c>
-      <c r="Q30" s="31" t="s">
+      <c r="Q30" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="4:17">
-      <c r="E31" s="18" t="str">
+      <c r="E31" s="9" t="str">
         <f>IF(ISBLANK(F31), "", MAX($E$28:E30)+1)</f>
         <v/>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41"/>
-      <c r="P31" s="30">
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="P31" s="14">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="32" spans="4:17">
-      <c r="E32" s="17" t="str">
+      <c r="E32" s="8" t="str">
         <f>IF(ISBLANK(F32), "", MAX($E$28:E31)+1)</f>
         <v/>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="36"/>
-      <c r="P32" s="30">
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+      <c r="P32" s="14">
         <f t="shared" si="1"/>
         <v>5.2083333333333329E-2</v>
       </c>
     </row>
     <row r="33" spans="5:16">
-      <c r="E33" s="18" t="str">
+      <c r="E33" s="9" t="str">
         <f>IF(ISBLANK(F33), "", MAX($E$28:E32)+1)</f>
         <v/>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="41"/>
-      <c r="P33" s="30">
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="P33" s="14">
         <f t="shared" si="1"/>
         <v>6.2499999999999993E-2</v>
       </c>
     </row>
     <row r="34" spans="5:16">
-      <c r="E34" s="17" t="str">
+      <c r="E34" s="8" t="str">
         <f>IF(ISBLANK(F34), "", MAX($E$28:E33)+1)</f>
         <v/>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="36"/>
-      <c r="P34" s="30">
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
+      <c r="P34" s="14">
         <f t="shared" si="1"/>
         <v>7.2916666666666657E-2</v>
       </c>
     </row>
     <row r="35" spans="5:16">
-      <c r="E35" s="18" t="str">
+      <c r="E35" s="9" t="str">
         <f>IF(ISBLANK(F35), "", MAX($E$28:E34)+1)</f>
         <v/>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
-      <c r="P35" s="30">
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="P35" s="14">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="36" spans="5:16">
-      <c r="E36" s="17" t="str">
+      <c r="E36" s="8" t="str">
         <f>IF(ISBLANK(F36), "", MAX($E$28:E35)+1)</f>
         <v/>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="36"/>
-      <c r="P36" s="30">
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
+      <c r="P36" s="14">
         <f t="shared" si="1"/>
         <v>9.375E-2</v>
       </c>
     </row>
     <row r="37" spans="5:16">
-      <c r="E37" s="18" t="str">
+      <c r="E37" s="9" t="str">
         <f>IF(ISBLANK(F37), "", MAX($E$28:E36)+1)</f>
         <v/>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="41"/>
-      <c r="P37" s="30">
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="P37" s="14">
         <f t="shared" si="1"/>
         <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="38" spans="5:16">
-      <c r="E38" s="17" t="str">
+      <c r="E38" s="8" t="str">
         <f>IF(ISBLANK(F38), "", MAX($E$28:E37)+1)</f>
         <v/>
       </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="36"/>
-      <c r="P38" s="30">
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="20"/>
+      <c r="P38" s="14">
         <f t="shared" si="1"/>
         <v>0.11458333333333334</v>
       </c>
     </row>
     <row r="39" spans="5:16">
-      <c r="E39" s="18" t="str">
+      <c r="E39" s="9" t="str">
         <f>IF(ISBLANK(F39), "", MAX($E$28:E38)+1)</f>
         <v/>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="41"/>
-      <c r="P39" s="30">
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="P39" s="14">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="40" spans="5:16">
-      <c r="E40" s="17" t="str">
+      <c r="E40" s="8" t="str">
         <f>IF(ISBLANK(F40), "", MAX($E$28:E39)+1)</f>
         <v/>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="36"/>
-      <c r="P40" s="30">
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="20"/>
+      <c r="P40" s="14">
         <f t="shared" si="1"/>
         <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="41" spans="5:16">
-      <c r="E41" s="18" t="str">
+      <c r="E41" s="9" t="str">
         <f>IF(ISBLANK(F41), "", MAX($E$28:E40)+1)</f>
         <v/>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
-      <c r="P41" s="30">
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="25"/>
+      <c r="P41" s="14">
         <f t="shared" si="1"/>
         <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="42" spans="5:16">
-      <c r="E42" s="17" t="str">
+      <c r="E42" s="8" t="str">
         <f>IF(ISBLANK(F42), "", MAX($E$28:E41)+1)</f>
         <v/>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="36"/>
-      <c r="P42" s="30">
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="20"/>
+      <c r="P42" s="14">
         <f t="shared" si="1"/>
         <v>0.15624999999999997</v>
       </c>
     </row>
     <row r="43" spans="5:16">
-      <c r="E43" s="18" t="str">
+      <c r="E43" s="9" t="str">
         <f>IF(ISBLANK(F43), "", MAX($E$28:E42)+1)</f>
         <v/>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="41"/>
-      <c r="P43" s="30">
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="25"/>
+      <c r="P43" s="14">
         <f t="shared" si="1"/>
         <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="44" spans="5:16">
-      <c r="E44" s="17" t="str">
+      <c r="E44" s="8" t="str">
         <f>IF(ISBLANK(F44), "", MAX($E$28:E43)+1)</f>
         <v/>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="36"/>
-      <c r="P44" s="30">
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="20"/>
+      <c r="P44" s="14">
         <f t="shared" si="1"/>
         <v>0.17708333333333329</v>
       </c>
     </row>
     <row r="45" spans="5:16">
-      <c r="E45" s="18" t="str">
+      <c r="E45" s="9" t="str">
         <f>IF(ISBLANK(F45), "", MAX($E$28:E44)+1)</f>
         <v/>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="41"/>
-      <c r="P45" s="30">
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="25"/>
+      <c r="P45" s="14">
         <f t="shared" si="1"/>
         <v>0.18749999999999994</v>
       </c>
     </row>
     <row r="46" spans="5:16">
-      <c r="K46" s="20" t="str">
+      <c r="K46" s="10" t="str">
         <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins quatre tâches.</v>
       </c>
-      <c r="P46" s="30">
+      <c r="P46" s="14">
         <f t="shared" si="1"/>
         <v>0.1979166666666666</v>
       </c>
     </row>
     <row r="47" spans="5:16">
-      <c r="P47" s="30">
+      <c r="P47" s="14">
         <f>P46+$P$27</f>
         <v>0.20833333333333326</v>
       </c>
     </row>
     <row r="48" spans="5:16">
-      <c r="P48" s="30"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="13">
+      <c r="B49" s="57">
         <v>2</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="P49" s="30"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="13"/>
-      <c r="C50" s="14" t="s">
+      <c r="B50" s="57"/>
+      <c r="C50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P50" s="30"/>
+      <c r="P50" s="14"/>
     </row>
     <row r="51" spans="2:16">
-      <c r="P51" s="30"/>
+      <c r="P51" s="14"/>
     </row>
     <row r="52" spans="2:16" ht="15.75">
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="P52" s="30"/>
+      <c r="P52" s="14"/>
     </row>
     <row r="53" spans="2:16">
-      <c r="E53" s="17" t="str">
+      <c r="E53" s="8" t="str">
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="44"/>
-      <c r="P53" s="45"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="28"/>
+      <c r="P53" s="29"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="E54" s="18" t="str">
+      <c r="E54" s="9" t="str">
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="48"/>
-      <c r="P54" s="30"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="30"/>
+      <c r="P54" s="14"/>
     </row>
     <row r="55" spans="2:16">
-      <c r="E55" s="18" t="str">
+      <c r="E55" s="9" t="str">
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="44"/>
-      <c r="P55" s="30"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="28"/>
+      <c r="P55" s="14"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="E56" s="18" t="str">
+      <c r="E56" s="9" t="str">
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="48"/>
-      <c r="P56" s="30"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="30"/>
+      <c r="P56" s="14"/>
     </row>
     <row r="57" spans="2:16">
-      <c r="E57" s="18" t="str">
+      <c r="E57" s="9" t="str">
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="44"/>
-      <c r="P57" s="30"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="28"/>
+      <c r="P57" s="14"/>
     </row>
     <row r="58" spans="2:16">
-      <c r="E58" s="18" t="str">
+      <c r="E58" s="9" t="str">
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="48"/>
-      <c r="P58" s="30"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="30"/>
+      <c r="P58" s="14"/>
     </row>
     <row r="59" spans="2:16">
-      <c r="E59" s="18" t="str">
+      <c r="E59" s="9" t="str">
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="44"/>
-      <c r="P59" s="30"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="28"/>
+      <c r="P59" s="14"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="E60" s="18" t="str">
+      <c r="E60" s="9" t="str">
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="48"/>
-      <c r="P60" s="30"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="30"/>
+      <c r="P60" s="14"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="E61" s="18" t="str">
+      <c r="E61" s="9" t="str">
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="44"/>
-      <c r="P61" s="30"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="28"/>
+      <c r="P61" s="14"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="E62" s="18" t="str">
+      <c r="E62" s="9" t="str">
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="48"/>
-      <c r="P62" s="30"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="30"/>
+      <c r="P62" s="14"/>
     </row>
     <row r="63" spans="2:16">
-      <c r="E63" s="18" t="str">
+      <c r="E63" s="9" t="str">
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="44"/>
-      <c r="P63" s="30"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="28"/>
+      <c r="P63" s="14"/>
     </row>
     <row r="64" spans="2:16">
-      <c r="E64" s="18" t="str">
+      <c r="E64" s="9" t="str">
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="46"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="48"/>
-      <c r="P64" s="30"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="30"/>
+      <c r="P64" s="14"/>
     </row>
     <row r="65" spans="5:16">
-      <c r="E65" s="18" t="str">
+      <c r="E65" s="9" t="str">
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="44"/>
-      <c r="P65" s="30"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="28"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" spans="5:16">
-      <c r="E66" s="18" t="str">
+      <c r="E66" s="9" t="str">
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="46"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="48"/>
-      <c r="P66" s="30"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="30"/>
+      <c r="P66" s="14"/>
     </row>
     <row r="67" spans="5:16">
-      <c r="E67" s="18" t="str">
+      <c r="E67" s="9" t="str">
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="44"/>
-      <c r="P67" s="30"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="28"/>
+      <c r="P67" s="14"/>
     </row>
     <row r="68" spans="5:16">
-      <c r="E68" s="18" t="str">
+      <c r="E68" s="9" t="str">
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="46"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="48"/>
-      <c r="P68" s="30"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="30"/>
+      <c r="P68" s="14"/>
     </row>
     <row r="69" spans="5:16">
-      <c r="E69" s="18" t="str">
+      <c r="E69" s="9" t="str">
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="44"/>
-      <c r="P69" s="30"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="28"/>
+      <c r="P69" s="14"/>
     </row>
     <row r="70" spans="5:16">
-      <c r="E70" s="18" t="str">
+      <c r="E70" s="9" t="str">
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="46"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="48"/>
-      <c r="P70" s="30"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="30"/>
+      <c r="P70" s="14"/>
     </row>
     <row r="71" spans="5:16">
-      <c r="E71" s="18" t="str">
+      <c r="E71" s="9" t="str">
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="44"/>
-      <c r="P71" s="30"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="28"/>
+      <c r="P71" s="14"/>
     </row>
     <row r="72" spans="5:16">
-      <c r="E72" s="18" t="str">
+      <c r="E72" s="9" t="str">
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="46"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="48"/>
-      <c r="P72" s="30"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="30"/>
+      <c r="P72" s="14"/>
     </row>
     <row r="73" spans="5:16">
-      <c r="E73" s="18" t="str">
+      <c r="E73" s="9" t="str">
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="44"/>
-      <c r="P73" s="30"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="28"/>
+      <c r="P73" s="14"/>
     </row>
     <row r="74" spans="5:16">
-      <c r="E74" s="18" t="str">
+      <c r="E74" s="9" t="str">
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="46"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="48"/>
-      <c r="P74" s="30"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="30"/>
+      <c r="P74" s="14"/>
     </row>
     <row r="75" spans="5:16">
-      <c r="E75" s="18" t="str">
+      <c r="E75" s="9" t="str">
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="44"/>
-      <c r="P75" s="30"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="28"/>
+      <c r="P75" s="14"/>
     </row>
     <row r="76" spans="5:16">
-      <c r="E76" s="18" t="str">
+      <c r="E76" s="9" t="str">
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="46"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="48"/>
-      <c r="P76" s="30"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="30"/>
+      <c r="P76" s="14"/>
     </row>
     <row r="77" spans="5:16">
-      <c r="E77" s="18" t="str">
+      <c r="E77" s="9" t="str">
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="44"/>
-      <c r="P77" s="30"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="28"/>
+      <c r="P77" s="14"/>
     </row>
     <row r="78" spans="5:16">
-      <c r="E78" s="18" t="str">
+      <c r="E78" s="9" t="str">
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="46"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="48"/>
-      <c r="P78" s="30"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="30"/>
+      <c r="P78" s="14"/>
     </row>
     <row r="79" spans="5:16">
-      <c r="E79" s="18" t="str">
+      <c r="E79" s="9" t="str">
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="44"/>
-      <c r="P79" s="30"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="28"/>
+      <c r="P79" s="14"/>
     </row>
     <row r="80" spans="5:16">
-      <c r="E80" s="18" t="str">
+      <c r="E80" s="9" t="str">
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="46"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="48"/>
-      <c r="P80" s="30"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="30"/>
+      <c r="P80" s="14"/>
     </row>
     <row r="81" spans="2:16">
-      <c r="E81" s="18" t="str">
+      <c r="E81" s="9" t="str">
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="44"/>
-      <c r="P81" s="30"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="28"/>
+      <c r="P81" s="14"/>
     </row>
     <row r="82" spans="2:16">
-      <c r="E82" s="18" t="str">
+      <c r="E82" s="9" t="str">
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="48"/>
-      <c r="P82" s="30"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="30"/>
+      <c r="P82" s="14"/>
     </row>
     <row r="83" spans="2:16">
-      <c r="E83" s="18" t="str">
+      <c r="E83" s="9" t="str">
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="44"/>
-      <c r="P83" s="30"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="28"/>
+      <c r="P83" s="14"/>
     </row>
     <row r="84" spans="2:16">
-      <c r="E84" s="18" t="str">
+      <c r="E84" s="9" t="str">
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="46"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="47"/>
-      <c r="K84" s="48"/>
-      <c r="P84" s="30"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="30"/>
+      <c r="P84" s="14"/>
     </row>
     <row r="85" spans="2:16">
-      <c r="E85" s="18" t="str">
+      <c r="E85" s="9" t="str">
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="44"/>
-      <c r="P85" s="30"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="28"/>
+      <c r="P85" s="14"/>
     </row>
     <row r="86" spans="2:16">
-      <c r="E86" s="18" t="str">
+      <c r="E86" s="9" t="str">
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="46"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="48"/>
-      <c r="P86" s="30"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="30"/>
+      <c r="P86" s="14"/>
     </row>
     <row r="87" spans="2:16">
-      <c r="E87" s="18" t="str">
+      <c r="E87" s="9" t="str">
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="44"/>
-      <c r="P87" s="30"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="28"/>
+      <c r="P87" s="14"/>
     </row>
     <row r="88" spans="2:16">
-      <c r="E88" s="18" t="str">
+      <c r="E88" s="9" t="str">
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="46"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="48"/>
-      <c r="P88" s="30"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="30"/>
+      <c r="P88" s="14"/>
     </row>
     <row r="89" spans="2:16">
-      <c r="P89" s="30"/>
+      <c r="P89" s="14"/>
     </row>
     <row r="90" spans="2:16">
-      <c r="P90" s="30"/>
+      <c r="P90" s="14"/>
     </row>
     <row r="91" spans="2:16">
-      <c r="P91" s="30"/>
+      <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="13">
+      <c r="B92" s="57">
         <v>3</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="13"/>
-      <c r="C93" s="14" t="s">
+      <c r="B93" s="57"/>
+      <c r="C93" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="15" t="s">
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15.75">
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="50" t="s">
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="43" t="s">
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K95" s="42" t="s">
+      <c r="K95" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="96" spans="2:16">
-      <c r="E96" s="17" t="str">
+      <c r="E96" s="8" t="str">
         <f>IF(ISBLANK(E28),"",E28)</f>
         <v/>
       </c>
-      <c r="F96" s="51" t="str">
-        <f t="shared" ref="E96:G111" si="2">IF(ISBLANK(F28),"",F28)</f>
-        <v/>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="4"/>
+      <c r="F96" s="31" t="str">
+        <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
+        <v/>
+      </c>
+      <c r="G96" s="51"/>
+      <c r="H96" s="48"/>
       <c r="I96" s="52"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="54"/>
-      <c r="P96" s="31">
+      <c r="J96" s="32"/>
+      <c r="K96" s="33"/>
+      <c r="P96" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="5:16">
-      <c r="E97" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F97" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G97" s="46"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="57"/>
-      <c r="K97" s="58"/>
-      <c r="P97" s="31">
+      <c r="E97" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F97" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G97" s="49"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="36"/>
+      <c r="P97" s="15">
         <v>0.1</v>
       </c>
     </row>
     <row r="98" spans="5:16">
-      <c r="E98" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F98" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="4"/>
+      <c r="E98" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F98" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G98" s="51"/>
+      <c r="H98" s="48"/>
       <c r="I98" s="52"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="54"/>
-      <c r="P98" s="31">
+      <c r="J98" s="32"/>
+      <c r="K98" s="33"/>
+      <c r="P98" s="15">
         <v>0.2</v>
       </c>
     </row>
     <row r="99" spans="5:16">
-      <c r="E99" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F99" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G99" s="46"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="57"/>
-      <c r="K99" s="58"/>
-      <c r="P99" s="31">
+      <c r="E99" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F99" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G99" s="49"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="36"/>
+      <c r="P99" s="15">
         <v>0.3</v>
       </c>
     </row>
     <row r="100" spans="5:16">
-      <c r="E100" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F100" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="4"/>
+      <c r="E100" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F100" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G100" s="51"/>
+      <c r="H100" s="48"/>
       <c r="I100" s="52"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="54"/>
-      <c r="P100" s="31">
+      <c r="J100" s="32"/>
+      <c r="K100" s="33"/>
+      <c r="P100" s="15">
         <v>0.4</v>
       </c>
     </row>
     <row r="101" spans="5:16">
-      <c r="E101" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F101" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G101" s="46"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="57"/>
-      <c r="K101" s="58"/>
-      <c r="P101" s="31">
+      <c r="E101" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F101" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G101" s="49"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="36"/>
+      <c r="P101" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="5:16">
-      <c r="E102" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F102" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="4"/>
+      <c r="E102" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F102" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G102" s="51"/>
+      <c r="H102" s="48"/>
       <c r="I102" s="52"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="54"/>
-      <c r="P102" s="31">
+      <c r="J102" s="32"/>
+      <c r="K102" s="33"/>
+      <c r="P102" s="15">
         <v>0.6</v>
       </c>
     </row>
     <row r="103" spans="5:16">
-      <c r="E103" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F103" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G103" s="46"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="57"/>
-      <c r="K103" s="58"/>
-      <c r="P103" s="31">
+      <c r="E103" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F103" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G103" s="49"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="36"/>
+      <c r="P103" s="15">
         <v>0.7</v>
       </c>
     </row>
     <row r="104" spans="5:16">
-      <c r="E104" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F104" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="4"/>
+      <c r="E104" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F104" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G104" s="51"/>
+      <c r="H104" s="48"/>
       <c r="I104" s="52"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="54"/>
-      <c r="P104" s="31">
+      <c r="J104" s="32"/>
+      <c r="K104" s="33"/>
+      <c r="P104" s="15">
         <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="5:16">
-      <c r="E105" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F105" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G105" s="46"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="57"/>
-      <c r="K105" s="58"/>
-      <c r="P105" s="31">
+      <c r="E105" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F105" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G105" s="49"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="36"/>
+      <c r="P105" s="15">
         <v>0.9</v>
       </c>
     </row>
     <row r="106" spans="5:16">
-      <c r="E106" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F106" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="4"/>
+      <c r="E106" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F106" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G106" s="51"/>
+      <c r="H106" s="48"/>
       <c r="I106" s="52"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="54"/>
-      <c r="P106" s="31">
+      <c r="J106" s="32"/>
+      <c r="K106" s="33"/>
+      <c r="P106" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="5:16">
-      <c r="E107" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F107" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G107" s="46"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="58"/>
-      <c r="P107" s="31"/>
+      <c r="E107" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F107" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G107" s="49"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="36"/>
+      <c r="P107" s="15"/>
     </row>
     <row r="108" spans="5:16">
-      <c r="E108" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F108" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="4"/>
+      <c r="E108" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F108" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G108" s="51"/>
+      <c r="H108" s="48"/>
       <c r="I108" s="52"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="54"/>
-      <c r="P108" s="31"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="33"/>
+      <c r="P108" s="15"/>
     </row>
     <row r="109" spans="5:16">
-      <c r="E109" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F109" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G109" s="46"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="57"/>
-      <c r="K109" s="58"/>
+      <c r="E109" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F109" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G109" s="49"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="36"/>
     </row>
     <row r="110" spans="5:16">
-      <c r="E110" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F110" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="4"/>
+      <c r="E110" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F110" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G110" s="51"/>
+      <c r="H110" s="48"/>
       <c r="I110" s="52"/>
-      <c r="J110" s="53"/>
-      <c r="K110" s="54"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="33"/>
     </row>
     <row r="111" spans="5:16">
-      <c r="E111" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F111" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G111" s="46"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="57"/>
-      <c r="K111" s="58"/>
+      <c r="E111" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F111" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G111" s="49"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="36"/>
     </row>
     <row r="112" spans="5:16">
-      <c r="E112" s="17" t="str">
+      <c r="E112" s="8" t="str">
         <f t="shared" ref="E112:F113" si="3">IF(ISBLANK(E44),"",E44)</f>
         <v/>
       </c>
-      <c r="F112" s="51" t="str">
+      <c r="F112" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="4"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="48"/>
       <c r="I112" s="52"/>
-      <c r="J112" s="53"/>
-      <c r="K112" s="54"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="33"/>
     </row>
     <row r="113" spans="4:11">
-      <c r="E113" s="18" t="str">
+      <c r="E113" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F113" s="55" t="str">
+      <c r="F113" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="46"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="57"/>
-      <c r="K113" s="58"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="36"/>
     </row>
     <row r="114" spans="4:11">
-      <c r="K114" s="20"/>
+      <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="16"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="53"/>
+      <c r="I116" s="53"/>
+      <c r="J116" s="53"/>
+      <c r="K116" s="53"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="59"/>
-      <c r="K117" s="59"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="47"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
-      <c r="D120" s="21" t="s">
+      <c r="D120" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
-      <c r="J120" s="60"/>
-      <c r="K120" s="21"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="11"/>
     </row>
     <row r="121" spans="4:11">
-      <c r="E121" s="17" t="str">
+      <c r="E121" s="8" t="str">
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="48"/>
     </row>
     <row r="122" spans="4:11">
-      <c r="E122" s="18" t="str">
+      <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="46"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
     </row>
     <row r="123" spans="4:11">
-      <c r="E123" s="17" t="str">
+      <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
     </row>
     <row r="124" spans="4:11">
-      <c r="E124" s="18" t="str">
+      <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="46"/>
+      <c r="J124" s="46"/>
+      <c r="K124" s="46"/>
     </row>
     <row r="125" spans="4:11">
-      <c r="E125" s="17" t="str">
+      <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="48"/>
     </row>
     <row r="126" spans="4:11">
-      <c r="E126" s="18" t="str">
+      <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="46"/>
+      <c r="J126" s="46"/>
+      <c r="K126" s="46"/>
     </row>
     <row r="127" spans="4:11">
-      <c r="K127" s="20" t="str">
+      <c r="K127" s="10" t="str">
         <f>IF(COUNTA(F121:K126)&lt;2, "Attention, vous devez définir au moins deux éléments descriptifs.", COUNTA(F121:K126)&amp;IF(COUNTA(F121:K126)&gt;1," éléments ont été exprimés"," élément a été exprimé"))</f>
         <v>Attention, vous devez définir au moins deux éléments descriptifs.</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="J18:K18"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -7606,6 +7523,91 @@
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">

--- a/C61/sprint0/Plannification.xlsx
+++ b/C61/sprint0/Plannification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\Projet_Synthese\C61\sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF303E2-4275-4277-9CFF-177F0D0FEDD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B520175-ED97-4AD3-8383-360D3101347F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12195" activeTab="1" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12195" activeTab="3" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>Titre du projet</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Jessika Longtin</t>
-  </si>
-  <si>
-    <t>C’est un projet basé sur Notion s’appelant PlanMe qui consiste à construire son propre « planner » modulable. L’utilisateur peut ajouter et modifier des blocs, appelées modules, parmi un vaste choix disponible pour organiser tout aspect de sa vie et de partager avec ses contacts !</t>
   </si>
   <si>
     <t>C</t>
@@ -301,6 +298,99 @@
       <t>de 2 à 6</t>
     </r>
   </si>
+  <si>
+    <t>C’est un projet basé sur Notion s’appelant PlanMe. Il consiste à construire son propre « planner » modulable. L’utilisateur peut ajouter et modifier des blocs, appelées modules, parmi un vaste choix disponible pour organiser tout aspect de sa vie et de partager avec ses contacts !</t>
+  </si>
+  <si>
+    <t>6e semaine</t>
+  </si>
+  <si>
+    <t>8e semaine</t>
+  </si>
+  <si>
+    <t>9e semaine</t>
+  </si>
+  <si>
+    <t>11e semaine</t>
+  </si>
+  <si>
+    <t>12e semaine</t>
+  </si>
+  <si>
+    <t>15e semaine</t>
+  </si>
+  <si>
+    <t>créer page enregistrement | loggin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">créer et lier la base de donnée </t>
+  </si>
+  <si>
+    <t>créer page interface main</t>
+  </si>
+  <si>
+    <t>créer page modules plug-in ( calandar)</t>
+  </si>
+  <si>
+    <t>mis en place de l'interface et gestion d'utilisateur</t>
+  </si>
+  <si>
+    <t>mis en place de modules plug-in modifiable</t>
+  </si>
+  <si>
+    <t>mis en place d'un algorithme d'amitiée</t>
+  </si>
+  <si>
+    <t>créer un module liste :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option liste pointer, numeroté ou autre characteres separatifs </t>
+  </si>
+  <si>
+    <t>implémenter algorithme de recommendation amitié</t>
+  </si>
+  <si>
+    <t>implémenter ajout remove amis</t>
+  </si>
+  <si>
+    <t>implémenter fonction ajouter_module()</t>
+  </si>
+  <si>
+    <t>implémenter fonction enlever_module()</t>
+  </si>
+  <si>
+    <t>implémenter fonction modifier()</t>
+  </si>
+  <si>
+    <t>créer module texte vide</t>
+  </si>
+  <si>
+    <t>fonction creer_user()</t>
+  </si>
+  <si>
+    <t>fonction supprimer_user()</t>
+  </si>
+  <si>
+    <t>fonction modifier_user()</t>
+  </si>
+  <si>
+    <t>implementation knn similitude entre usagers</t>
+  </si>
+  <si>
+    <t>implementation module budget</t>
+  </si>
+  <si>
+    <t>implementation de projection depences futures</t>
+  </si>
+  <si>
+    <t>ajout themes differents</t>
+  </si>
+  <si>
+    <t>ajout banque d'icon profiles</t>
+  </si>
+  <si>
+    <t>ajout</t>
+  </si>
 </sst>
 </file>
 
@@ -440,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,6 +592,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAE6DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -774,61 +876,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -837,6 +887,37 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -850,20 +931,41 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -897,12 +999,27 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1045,13 +1162,6 @@
     <dxf>
       <font>
         <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -1944,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8FB06B-24CC-4E83-8696-39BA0BCB3539}">
   <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2002,7 +2112,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
@@ -2057,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB54021C-D73D-4DDD-9C45-FB24F7DA2170}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -2078,85 +2188,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="66" t="str">
+      <c r="B2" s="49" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 1   |   </v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="B3" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="67">
-        <v>44980</v>
-      </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="F5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="B7" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="57">
+      <c r="B9" s="53">
         <v>1</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="57"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2166,40 +2278,40 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="O11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="D12" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
@@ -2214,12 +2326,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -2230,12 +2342,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -2249,32 +2361,34 @@
     </row>
     <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="65"/>
+      <c r="J18" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="4:17">
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="8">
         <f>IF(ISBLANK(F19), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
-        <v/>
+        <v>1 - mis en place de l'…</v>
       </c>
       <c r="Q19" s="3" t="e">
         <f t="array" aca="1" ref="Q19" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
@@ -2286,12 +2400,12 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2302,12 +2416,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="61"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
       <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2318,12 +2432,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
       <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2334,12 +2448,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
       <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2350,56 +2464,58 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="64" t="str">
+      <c r="J25" s="59" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="64"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="13" t="s">
+      <c r="H27" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="I27" s="56"/>
+      <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="13" t="s">
+      <c r="K27" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="P27" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="4:17">
-      <c r="E28" s="8" t="str">
+      <c r="E28" s="8">
         <f>IF(ISBLANK(F28), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F28" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -2409,15 +2525,17 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="4:17">
-      <c r="E29" s="9" t="str">
-        <f>IF(ISBLANK(F29), "", MAX($E$28:E28)+1)</f>
-        <v/>
-      </c>
-      <c r="F29" s="21"/>
+      <c r="E29" s="9">
+        <f>IF(ISBLANK(F32), "", MAX($E$28:E28)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>60</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -2428,15 +2546,17 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="4:17">
-      <c r="E30" s="8" t="str">
-        <f>IF(ISBLANK(F30), "", MAX($E$28:E29)+1)</f>
-        <v/>
-      </c>
-      <c r="F30" s="16"/>
+      <c r="E30" s="8">
+        <f>IF(ISBLANK(F33), "", MAX($E$28:E29)+1)</f>
+        <v>3</v>
+      </c>
+      <c r="F30" s="77" t="s">
+        <v>61</v>
+      </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -2447,15 +2567,17 @@
         <v>3.125E-2</v>
       </c>
       <c r="Q30" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="4:17">
-      <c r="E31" s="9" t="str">
-        <f>IF(ISBLANK(F31), "", MAX($E$28:E30)+1)</f>
-        <v/>
-      </c>
-      <c r="F31" s="21"/>
+      <c r="E31" s="9">
+        <f>IF(ISBLANK(F34), "", MAX($E$28:E30)+1)</f>
+        <v>4</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>62</v>
+      </c>
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -2467,11 +2589,13 @@
       </c>
     </row>
     <row r="32" spans="4:17">
-      <c r="E32" s="8" t="str">
-        <f>IF(ISBLANK(F32), "", MAX($E$28:E31)+1)</f>
-        <v/>
-      </c>
-      <c r="F32" s="16"/>
+      <c r="E32" s="8">
+        <f>IF(ISBLANK(F35), "", MAX($E$28:E31)+1)</f>
+        <v>5</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -2483,11 +2607,13 @@
       </c>
     </row>
     <row r="33" spans="5:16">
-      <c r="E33" s="9" t="str">
-        <f>IF(ISBLANK(F33), "", MAX($E$28:E32)+1)</f>
-        <v/>
-      </c>
-      <c r="F33" s="21"/>
+      <c r="E33" s="9">
+        <f>IF(ISBLANK(F36), "", MAX($E$28:E32)+1)</f>
+        <v>6</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
@@ -2500,10 +2626,12 @@
     </row>
     <row r="34" spans="5:16">
       <c r="E34" s="8" t="str">
-        <f>IF(ISBLANK(F34), "", MAX($E$28:E33)+1)</f>
-        <v/>
-      </c>
-      <c r="F34" s="16"/>
+        <f>IF(ISBLANK(F38), "", MAX($E$28:E33)+1)</f>
+        <v/>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -2515,11 +2643,13 @@
       </c>
     </row>
     <row r="35" spans="5:16">
-      <c r="E35" s="9" t="str">
-        <f>IF(ISBLANK(F35), "", MAX($E$28:E34)+1)</f>
-        <v/>
-      </c>
-      <c r="F35" s="21"/>
+      <c r="E35" s="9">
+        <f>IF(ISBLANK(F37), "", MAX($E$28:E34)+1)</f>
+        <v>7</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -2531,11 +2661,13 @@
       </c>
     </row>
     <row r="36" spans="5:16">
-      <c r="E36" s="8" t="str">
-        <f>IF(ISBLANK(F36), "", MAX($E$28:E35)+1)</f>
-        <v/>
-      </c>
-      <c r="F36" s="16"/>
+      <c r="E36" s="8">
+        <f>IF(ISBLANK(#REF!), "", MAX($E$28:E35)+1)</f>
+        <v>8</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="G36" s="17"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -2547,11 +2679,13 @@
       </c>
     </row>
     <row r="37" spans="5:16">
-      <c r="E37" s="9" t="str">
-        <f>IF(ISBLANK(F37), "", MAX($E$28:E36)+1)</f>
-        <v/>
-      </c>
-      <c r="F37" s="21"/>
+      <c r="E37" s="9">
+        <f>IF(ISBLANK(#REF!), "", MAX($E$28:E36)+1)</f>
+        <v>9</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
@@ -2563,9 +2697,9 @@
       </c>
     </row>
     <row r="38" spans="5:16">
-      <c r="E38" s="8" t="str">
-        <f>IF(ISBLANK(F38), "", MAX($E$28:E37)+1)</f>
-        <v/>
+      <c r="E38" s="8">
+        <f>IF(ISBLANK(#REF!), "", MAX($E$28:E37)+1)</f>
+        <v>10</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
@@ -2579,9 +2713,9 @@
       </c>
     </row>
     <row r="39" spans="5:16">
-      <c r="E39" s="9" t="str">
-        <f>IF(ISBLANK(F39), "", MAX($E$28:E38)+1)</f>
-        <v/>
+      <c r="E39" s="9">
+        <f>IF(ISBLANK(#REF!), "", MAX($E$28:E38)+1)</f>
+        <v>11</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
@@ -2676,10 +2810,9 @@
     </row>
     <row r="45" spans="5:16">
       <c r="E45" s="9" t="str">
-        <f>IF(ISBLANK(F45), "", MAX($E$28:E44)+1)</f>
-        <v/>
-      </c>
-      <c r="F45" s="21"/>
+        <f>IF(ISBLANK(F39), "", MAX($E$28:E44)+1)</f>
+        <v/>
+      </c>
       <c r="G45" s="22"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
@@ -2692,8 +2825,8 @@
     </row>
     <row r="46" spans="5:16">
       <c r="K46" s="10" t="str">
-        <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins quatre tâches.</v>
+        <f>IF(COUNTA(F28:F38)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F38)&amp;IF(COUNTA(F28:F38)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
+        <v>10 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="14">
         <f t="shared" si="1"/>
@@ -2710,24 +2843,24 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="57">
+      <c r="B49" s="53">
         <v>2</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="57"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -2737,7 +2870,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P50" s="14"/>
     </row>
@@ -2746,7 +2879,7 @@
     </row>
     <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -2755,7 +2888,7 @@
       <c r="I52" s="26"/>
       <c r="J52" s="27"/>
       <c r="K52" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P52" s="14"/>
     </row>
@@ -2764,11 +2897,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="55"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="63"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -2777,11 +2910,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="56"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="61"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -2790,11 +2923,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="55"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="63"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -2803,11 +2936,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="56"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="61"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -2816,11 +2949,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="51"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="55"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="63"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -2829,11 +2962,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="56"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="61"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -2842,11 +2975,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="55"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="63"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -2855,11 +2988,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="56"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="61"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -2868,11 +3001,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="51"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="55"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="63"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -2881,11 +3014,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="56"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="61"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -2894,11 +3027,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="51"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="55"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="63"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -2907,11 +3040,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="56"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="61"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -2920,11 +3053,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="51"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="55"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="63"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -2933,11 +3066,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="49"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="56"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="61"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -2946,11 +3079,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="51"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="55"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="63"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -2959,11 +3092,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="56"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="61"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -2972,11 +3105,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="51"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="55"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="63"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -2985,11 +3118,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="49"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="56"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="61"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -2998,11 +3131,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="51"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="55"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="63"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -3011,11 +3144,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="49"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="56"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="61"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -3024,11 +3157,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="51"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="55"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="63"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -3037,11 +3170,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="49"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="56"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="61"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -3050,11 +3183,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="51"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="55"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="63"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -3063,11 +3196,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="49"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="56"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="61"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -3076,11 +3209,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="51"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="55"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="63"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -3089,11 +3222,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="56"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="61"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -3102,11 +3235,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="51"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="55"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="63"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -3115,11 +3248,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="49"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="56"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="61"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -3128,11 +3261,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="51"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="55"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="63"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -3141,11 +3274,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="49"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="56"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="61"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -3154,11 +3287,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="51"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="55"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="63"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -3167,11 +3300,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="49"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="56"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="61"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -3180,11 +3313,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="51"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="55"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="63"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -3193,11 +3326,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="49"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="56"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="61"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -3206,11 +3339,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="51"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="55"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="63"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -3219,11 +3352,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="56"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="61"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -3237,23 +3370,23 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="57">
+      <c r="B92" s="53">
         <v>3</v>
       </c>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="57"/>
+      <c r="B93" s="53"/>
       <c r="C93" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -3263,39 +3396,39 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="59" t="s">
+      <c r="G95" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="27" t="s">
+      <c r="K95" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="K95" s="26" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="96" spans="2:16">
-      <c r="E96" s="8" t="str">
+      <c r="E96" s="8">
         <f>IF(ISBLANK(E28),"",E28)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F96" s="31" t="str">
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
-        <v/>
-      </c>
-      <c r="G96" s="51"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="52"/>
+        <v>créer page enregistrement | loggin</v>
+      </c>
+      <c r="G96" s="62"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="65"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -3303,17 +3436,17 @@
       </c>
     </row>
     <row r="97" spans="5:16">
-      <c r="E97" s="9" t="str">
+      <c r="E97" s="9">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F97" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G97" s="49"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="50"/>
+        <f>IF(ISBLANK(F32),"",F32)</f>
+        <v xml:space="preserve">créer et lier la base de donnée </v>
+      </c>
+      <c r="G97" s="60"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="67"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -3321,17 +3454,17 @@
       </c>
     </row>
     <row r="98" spans="5:16">
-      <c r="E98" s="8" t="str">
+      <c r="E98" s="8">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F98" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G98" s="51"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="52"/>
+        <f>IF(ISBLANK(F33),"",F33)</f>
+        <v>créer page interface main</v>
+      </c>
+      <c r="G98" s="62"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="65"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -3339,17 +3472,17 @@
       </c>
     </row>
     <row r="99" spans="5:16">
-      <c r="E99" s="9" t="str">
+      <c r="E99" s="9">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F99" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G99" s="49"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="50"/>
+        <f>IF(ISBLANK(F34),"",F34)</f>
+        <v>implémenter fonction ajouter_module()</v>
+      </c>
+      <c r="G99" s="60"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="67"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -3357,17 +3490,17 @@
       </c>
     </row>
     <row r="100" spans="5:16">
-      <c r="E100" s="8" t="str">
+      <c r="E100" s="8">
         <f t="shared" si="2"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F100" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G100" s="51"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="52"/>
+        <f>IF(ISBLANK(F35),"",F35)</f>
+        <v>implémenter fonction enlever_module()</v>
+      </c>
+      <c r="G100" s="62"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="65"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -3375,17 +3508,17 @@
       </c>
     </row>
     <row r="101" spans="5:16">
-      <c r="E101" s="9" t="str">
+      <c r="E101" s="9">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="F101" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G101" s="49"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="50"/>
+        <f>IF(ISBLANK(F36),"",F36)</f>
+        <v>implémenter fonction modifier()</v>
+      </c>
+      <c r="G101" s="60"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="67"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -3398,12 +3531,12 @@
         <v/>
       </c>
       <c r="F102" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G102" s="51"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="52"/>
+        <f>IF(ISBLANK(F38),"",F38)</f>
+        <v/>
+      </c>
+      <c r="G102" s="62"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="65"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -3411,17 +3544,17 @@
       </c>
     </row>
     <row r="103" spans="5:16">
-      <c r="E103" s="9" t="str">
+      <c r="E103" s="9">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="F103" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G103" s="49"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="50"/>
+        <f>IF(ISBLANK(F37),"",F37)</f>
+        <v>créer module texte vide</v>
+      </c>
+      <c r="G103" s="60"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="67"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -3429,17 +3562,17 @@
       </c>
     </row>
     <row r="104" spans="5:16">
-      <c r="E104" s="8" t="str">
+      <c r="E104" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F104" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G104" s="51"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="52"/>
+        <v>8</v>
+      </c>
+      <c r="F104" s="31" t="e">
+        <f>IF(ISBLANK(#REF!),"",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G104" s="62"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="65"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -3447,17 +3580,17 @@
       </c>
     </row>
     <row r="105" spans="5:16">
-      <c r="E105" s="9" t="str">
+      <c r="E105" s="9">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F105" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G105" s="49"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="50"/>
+        <v>9</v>
+      </c>
+      <c r="F105" s="34" t="e">
+        <f>IF(ISBLANK(#REF!),"",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G105" s="60"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="67"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -3465,17 +3598,17 @@
       </c>
     </row>
     <row r="106" spans="5:16">
-      <c r="E106" s="8" t="str">
+      <c r="E106" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F106" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G106" s="51"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="52"/>
+        <v>10</v>
+      </c>
+      <c r="F106" s="31" t="e">
+        <f>IF(ISBLANK(#REF!),"",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G106" s="62"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="65"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -3483,17 +3616,17 @@
       </c>
     </row>
     <row r="107" spans="5:16">
-      <c r="E107" s="9" t="str">
+      <c r="E107" s="9">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F107" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G107" s="49"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="50"/>
+        <v>11</v>
+      </c>
+      <c r="F107" s="34" t="e">
+        <f>IF(ISBLANK(#REF!),"",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G107" s="60"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="67"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -3507,9 +3640,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="51"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="52"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="65"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -3523,9 +3656,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="49"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="50"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="67"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -3538,9 +3671,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="51"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="52"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="65"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -3553,9 +3686,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="49"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="50"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="67"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -3568,9 +3701,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="51"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="52"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="65"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -3580,12 +3713,12 @@
         <v/>
       </c>
       <c r="F113" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G113" s="49"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="50"/>
+        <f>IF(ISBLANK(F39),"",F39)</f>
+        <v/>
+      </c>
+      <c r="G113" s="60"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="67"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -3593,28 +3726,28 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F116" s="53"/>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
+      <c r="E116" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47"/>
-      <c r="J117" s="47"/>
-      <c r="K117" s="47"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="68"/>
+      <c r="I117" s="68"/>
+      <c r="J117" s="68"/>
+      <c r="K117" s="68"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
@@ -3629,72 +3762,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
-      <c r="K121" s="48"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="46"/>
+      <c r="J121" s="46"/>
+      <c r="K121" s="46"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="46"/>
-      <c r="I122" s="46"/>
-      <c r="J122" s="46"/>
-      <c r="K122" s="46"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="48"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="46"/>
+      <c r="J123" s="46"/>
+      <c r="K123" s="46"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="46"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="46"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="55"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
-      <c r="J125" s="48"/>
-      <c r="K125" s="48"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="46"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="46"/>
-      <c r="K126" s="46"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="55"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -3704,6 +3837,86 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -3718,86 +3931,6 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="26" priority="12">
@@ -3807,11 +3940,6 @@
   <conditionalFormatting sqref="J25">
     <cfRule type="expression" dxfId="25" priority="11">
       <formula>COUNTA($F$19:$F$24)&lt;2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="24" priority="10">
-      <formula>COUNTA($F$28:$F$39)&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J45">
@@ -3829,16 +3957,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K45">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>"incertain"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"difficile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>"facile"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3871,13 +3999,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>COUNTA(F111:F113)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>COUNTA(F121:F126)&lt;2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="expression" dxfId="18" priority="13">
+      <formula>COUNTA($F$28:$F$38)&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
@@ -3899,7 +4032,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Objectif lié" prompt="Veuillez sélectionner l'objectif auquel cette tâche est lié. S'il y a plusieurs objectifs concernés, prenez le plus représentatif." sqref="G28:G45" xr:uid="{0762E5BC-8A14-4CB6-9C81-0334AF0DCD15}">
       <formula1>_xlfn.ANCHORARRAY($Q$19)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Définition d'une tâche" prompt="Veuillez définir une tâche importante pour ce sprint. Soyez précis et concis." sqref="F28:F45" xr:uid="{27D2B11F-8469-4F09-8C3F-321E2C67DCCC}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Orientation liée" prompt="Veuillez sélectionner l'orientation à laquelle cette objectif est liée. S'il y a plusieurs orientations concernées, prenez la plus représentative." sqref="J19:K24" xr:uid="{911A852B-C19F-4731-802B-72C884C046CD}">
       <formula1>_xlfn.ANCHORARRAY($Q$13)</formula1>
     </dataValidation>
@@ -3913,9 +4045,11 @@
       <formula1>PrenomEtudiants</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Éléments d'orientation du Sprint" prompt="Veuillez saisir une orientation significative de ce sprint. Soyez précis et concis." sqref="F13:F15" xr:uid="{66AF3186-1A6B-45EC-A47B-B346795C47A2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Définition d'une tâche" prompt="Veuillez définir une tâche importante pour ce sprint. Soyez précis et concis." sqref="F28 F32:F44" xr:uid="{27D2B11F-8469-4F09-8C3F-321E2C67DCCC}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3966,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FAE16-9FF0-48E2-BC72-13CE201986D1}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -3987,81 +4121,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="66" t="str">
+      <c r="B2" s="49" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 2   |   </v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="F5" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="B7" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="57">
+      <c r="B9" s="53">
         <v>1</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="57"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4071,40 +4209,40 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="O11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="D12" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
@@ -4119,12 +4257,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -4135,12 +4273,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -4154,32 +4292,34 @@
     </row>
     <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="65"/>
+      <c r="J18" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="4:17">
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="8">
         <f>IF(ISBLANK(F19), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="69"/>
       <c r="K19" s="70"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
-        <v/>
+        <v>1 - mis en place de mo…</v>
       </c>
       <c r="Q19" s="3" t="e">
         <f t="array" aca="1" ref="Q19" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
@@ -4187,19 +4327,21 @@
       </c>
     </row>
     <row r="20" spans="4:17">
-      <c r="E20" s="9" t="str">
+      <c r="E20" s="9">
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
-        <v/>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="71"/>
       <c r="K20" s="72"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2 - mis en place d'un …</v>
       </c>
     </row>
     <row r="21" spans="4:17">
@@ -4207,10 +4349,10 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="69"/>
       <c r="K21" s="70"/>
       <c r="P21" s="3" t="str">
@@ -4223,10 +4365,10 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="71"/>
       <c r="K22" s="72"/>
       <c r="P22" s="3" t="str">
@@ -4239,10 +4381,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="69"/>
       <c r="K23" s="70"/>
       <c r="P23" s="3" t="str">
@@ -4255,10 +4397,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="71"/>
       <c r="K24" s="72"/>
       <c r="P24" s="3" t="str">
@@ -4267,44 +4409,46 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="64" t="str">
+      <c r="J25" s="59" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins deux objectifs.</v>
-      </c>
-      <c r="K25" s="64"/>
+        <v>2 objectifs ont été déterminées</v>
+      </c>
+      <c r="K25" s="59"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="13" t="s">
+      <c r="H27" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="I27" s="56"/>
+      <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="13" t="s">
+      <c r="K27" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="P27" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="4:17">
-      <c r="E28" s="8" t="str">
-        <f>IF(ISBLANK(F28), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F28" s="16"/>
+      <c r="E28" s="8">
+        <f>IF(ISBLANK(F33), "", 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -4314,15 +4458,17 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="4:17">
-      <c r="E29" s="9" t="str">
-        <f>IF(ISBLANK(F29), "", MAX($E$28:E28)+1)</f>
-        <v/>
-      </c>
-      <c r="F29" s="21"/>
+      <c r="E29" s="9">
+        <f>IF(ISBLANK(F34), "", MAX($E$28:E28)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -4333,15 +4479,17 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="4:17">
-      <c r="E30" s="8" t="str">
-        <f>IF(ISBLANK(F30), "", MAX($E$28:E29)+1)</f>
-        <v/>
-      </c>
-      <c r="F30" s="16"/>
+      <c r="E30" s="8">
+        <f>IF(ISBLANK(F28), "", MAX($E$28:E29)+1)</f>
+        <v>3</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>63</v>
+      </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -4352,15 +4500,15 @@
         <v>3.125E-2</v>
       </c>
       <c r="Q30" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="4:17">
-      <c r="E31" s="9" t="str">
-        <f>IF(ISBLANK(F31), "", MAX($E$28:E30)+1)</f>
-        <v/>
-      </c>
-      <c r="F31" s="21"/>
+      <c r="E31" s="9">
+        <f>IF(ISBLANK(F29), "", MAX($E$28:E30)+1)</f>
+        <v>4</v>
+      </c>
+      <c r="F31" s="34"/>
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -4372,11 +4520,13 @@
       </c>
     </row>
     <row r="32" spans="4:17">
-      <c r="E32" s="8" t="str">
+      <c r="E32" s="8">
         <f>IF(ISBLANK(F32), "", MAX($E$28:E31)+1)</f>
-        <v/>
-      </c>
-      <c r="F32" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -4388,11 +4538,13 @@
       </c>
     </row>
     <row r="33" spans="5:16">
-      <c r="E33" s="9" t="str">
-        <f>IF(ISBLANK(F33), "", MAX($E$28:E32)+1)</f>
-        <v/>
-      </c>
-      <c r="F33" s="21"/>
+      <c r="E33" s="9">
+        <f>IF(ISBLANK(#REF!), "", MAX($E$28:E32)+1)</f>
+        <v>6</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
@@ -4404,11 +4556,13 @@
       </c>
     </row>
     <row r="34" spans="5:16">
-      <c r="E34" s="8" t="str">
-        <f>IF(ISBLANK(F34), "", MAX($E$28:E33)+1)</f>
-        <v/>
-      </c>
-      <c r="F34" s="16"/>
+      <c r="E34" s="8">
+        <f>IF(ISBLANK(#REF!), "", MAX($E$28:E33)+1)</f>
+        <v>7</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -4598,7 +4752,7 @@
     <row r="46" spans="5:16">
       <c r="K46" s="10" t="str">
         <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins quatre tâches.</v>
+        <v>6 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="14">
         <f t="shared" si="1"/>
@@ -4615,24 +4769,24 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="57">
+      <c r="B49" s="53">
         <v>2</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="57"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -4642,7 +4796,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P50" s="14"/>
     </row>
@@ -4651,7 +4805,7 @@
     </row>
     <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -4660,7 +4814,7 @@
       <c r="I52" s="26"/>
       <c r="J52" s="27"/>
       <c r="K52" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P52" s="14"/>
     </row>
@@ -4669,11 +4823,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="55"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="63"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -4682,11 +4836,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="56"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="61"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -4695,11 +4849,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="55"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="63"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -4708,11 +4862,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="56"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="61"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -4721,11 +4875,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="51"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="55"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="63"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -4734,11 +4888,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="56"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="61"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -4747,11 +4901,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="55"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="63"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -4760,11 +4914,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="56"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="61"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -4773,11 +4927,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="51"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="55"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="63"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -4786,11 +4940,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="56"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="61"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -4799,11 +4953,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="51"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="55"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="63"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -4812,11 +4966,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="56"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="61"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -4825,11 +4979,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="51"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="55"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="63"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -4838,11 +4992,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="49"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="56"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="61"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -4851,11 +5005,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="51"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="55"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="63"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -4864,11 +5018,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="56"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="61"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -4877,11 +5031,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="51"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="55"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="63"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -4890,11 +5044,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="49"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="56"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="61"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -4903,11 +5057,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="51"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="55"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="63"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -4916,11 +5070,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="49"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="56"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="61"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -4929,11 +5083,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="51"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="55"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="63"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -4942,11 +5096,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="49"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="56"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="61"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -4955,11 +5109,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="51"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="55"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="63"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -4968,11 +5122,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="49"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="56"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="61"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -4981,11 +5135,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="51"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="55"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="63"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -4994,11 +5148,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="56"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="61"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -5007,11 +5161,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="51"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="55"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="63"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -5020,11 +5174,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="49"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="56"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="61"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -5033,11 +5187,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="51"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="55"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="63"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -5046,11 +5200,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="49"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="56"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="61"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -5059,11 +5213,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="51"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="55"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="63"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -5072,11 +5226,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="49"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="56"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="61"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -5085,11 +5239,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="51"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="55"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="63"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -5098,11 +5252,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="49"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="56"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="61"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -5111,11 +5265,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="51"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="55"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="63"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -5124,11 +5278,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="56"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="61"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -5142,23 +5296,23 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="57">
+      <c r="B92" s="53">
         <v>3</v>
       </c>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="57"/>
+      <c r="B93" s="53"/>
       <c r="C93" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -5168,39 +5322,39 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="59" t="s">
+      <c r="G95" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="27" t="s">
+      <c r="K95" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="K95" s="26" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="96" spans="2:16">
-      <c r="E96" s="8" t="str">
+      <c r="E96" s="8">
         <f>IF(ISBLANK(E28),"",E28)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F96" s="31" t="str">
-        <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
-        <v/>
-      </c>
-      <c r="G96" s="51"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="52"/>
+        <f>IF(ISBLANK(F33),"",F33)</f>
+        <v>créer un module liste :</v>
+      </c>
+      <c r="G96" s="62"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="65"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -5208,17 +5362,17 @@
       </c>
     </row>
     <row r="97" spans="5:16">
-      <c r="E97" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E97" s="9">
+        <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(E29),"",E29)</f>
+        <v>2</v>
       </c>
       <c r="F97" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G97" s="49"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="50"/>
+        <f>IF(ISBLANK(F34),"",F34)</f>
+        <v xml:space="preserve">option liste pointer, numeroté ou autre characteres separatifs </v>
+      </c>
+      <c r="G97" s="60"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="67"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -5226,17 +5380,17 @@
       </c>
     </row>
     <row r="98" spans="5:16">
-      <c r="E98" s="8" t="str">
+      <c r="E98" s="8">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F98" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G98" s="51"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="52"/>
+        <f>IF(ISBLANK(F28),"",F28)</f>
+        <v>implémenter ajout remove amis</v>
+      </c>
+      <c r="G98" s="62"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="65"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -5244,17 +5398,17 @@
       </c>
     </row>
     <row r="99" spans="5:16">
-      <c r="E99" s="9" t="str">
+      <c r="E99" s="9">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F99" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G99" s="49"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="50"/>
+        <f>IF(ISBLANK(F29),"",F29)</f>
+        <v>implémenter algorithme de recommendation amitié</v>
+      </c>
+      <c r="G99" s="60"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="67"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -5262,17 +5416,17 @@
       </c>
     </row>
     <row r="100" spans="5:16">
-      <c r="E100" s="8" t="str">
+      <c r="E100" s="8">
         <f t="shared" si="2"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F100" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G100" s="51"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="52"/>
+        <v>créer page modules plug-in ( calandar)</v>
+      </c>
+      <c r="G100" s="62"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="65"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -5280,17 +5434,17 @@
       </c>
     </row>
     <row r="101" spans="5:16">
-      <c r="E101" s="9" t="str">
+      <c r="E101" s="9">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F101" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G101" s="49"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="50"/>
+        <v>6</v>
+      </c>
+      <c r="F101" s="34" t="e">
+        <f>IF(ISBLANK(#REF!),"",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G101" s="60"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="67"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -5298,17 +5452,17 @@
       </c>
     </row>
     <row r="102" spans="5:16">
-      <c r="E102" s="8" t="str">
+      <c r="E102" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F102" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G102" s="51"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="52"/>
+        <v>7</v>
+      </c>
+      <c r="F102" s="31" t="e">
+        <f>IF(ISBLANK(#REF!),"",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G102" s="62"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="65"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -5324,9 +5478,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="49"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="50"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="67"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -5342,9 +5496,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="51"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="52"/>
+      <c r="G104" s="62"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="65"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -5360,9 +5514,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="49"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="50"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="67"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -5378,9 +5532,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="51"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="52"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="65"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -5396,9 +5550,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="49"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="50"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="67"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -5412,9 +5566,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="51"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="52"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="65"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -5428,9 +5582,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="49"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="50"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="67"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -5443,9 +5597,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="51"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="52"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="65"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -5458,9 +5612,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="49"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="50"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="67"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -5473,9 +5627,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="51"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="52"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="65"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -5488,9 +5642,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="49"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="50"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="67"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -5498,28 +5652,28 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F116" s="53"/>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
+      <c r="E116" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47"/>
-      <c r="J117" s="47"/>
-      <c r="K117" s="47"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="68"/>
+      <c r="I117" s="68"/>
+      <c r="J117" s="68"/>
+      <c r="K117" s="68"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
@@ -5534,72 +5688,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
-      <c r="K121" s="48"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="46"/>
+      <c r="J121" s="46"/>
+      <c r="K121" s="46"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="46"/>
-      <c r="I122" s="46"/>
-      <c r="J122" s="46"/>
-      <c r="K122" s="46"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="48"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="46"/>
+      <c r="J123" s="46"/>
+      <c r="K123" s="46"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="46"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="46"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="55"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
-      <c r="J125" s="48"/>
-      <c r="K125" s="48"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="46"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="46"/>
-      <c r="K126" s="46"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="55"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -5609,6 +5763,86 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -5623,86 +5857,6 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -5712,11 +5866,6 @@
   <conditionalFormatting sqref="J25">
     <cfRule type="expression" dxfId="16" priority="11">
       <formula>COUNTA($F$19:$F$24)&lt;2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="15" priority="10">
-      <formula>COUNTA($F$28:$F$39)&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J45">
@@ -5734,16 +5883,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K45">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"incertain"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"difficile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"facile"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5776,13 +5925,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>COUNTA(F111:F113)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>COUNTA(F121:F126)&lt;2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>COUNTA($F$28:$F$39)&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
@@ -5814,10 +5968,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Membres" prompt="Sélectionnez les membres de l'équipe qui travailleront en binôme pour réaliser cette tâche." sqref="H28:I45" xr:uid="{828405AE-6180-4542-9764-34F6596667B2}">
       <formula1>PrenomEtudiants</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Définition d'une tâche" prompt="Veuillez définir une tâche importante pour ce sprint. Soyez précis et concis." sqref="F28:F45" xr:uid="{5ACE8D9B-5F77-46EF-8941-A2F10E18F84C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Conclusion de l'examination" prompt="Veuillez faire un résumé des conclusions que l'examination du travail a permi de réaliser. _x000a__x000a_Vous pouvez utiliser ALT-ENTER pour entrer un saut de ligne dans une cellule multiligne." sqref="E117:K117" xr:uid="{49543B99-40E4-43CD-891D-145F06D6E6AC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Commentaire général sur la tâche" prompt="Veuillez saisir un très court texte représentant votre état d'esprit lié à cette tâche. Soyez court et concis." sqref="G96:I113" xr:uid="{AA88B303-6768-44D0-95F7-39C800590172}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Élément rétrospectif" prompt="Veuillez exprimer un élément clé issu de vos réflexion sur le déroulement de ce sprint, notamment, une façon d’améliorer la qualité ainsi que l’efficacité._x000a__x000a_Soyez concis et précis." sqref="F121:K126" xr:uid="{8B578F76-F0D4-42FE-BF35-7A762B63A268}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Définition d'une tâche" prompt="Veuillez définir une tâche importante pour ce sprint. Soyez précis et concis." sqref="F32:F45 F28:F29" xr:uid="{5ACE8D9B-5F77-46EF-8941-A2F10E18F84C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5871,8 +6025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736AB4E6-7F0E-4E0F-86D9-E515D490564F}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -5892,81 +6046,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="66" t="str">
+      <c r="B2" s="49" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 3  |   </v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="F5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="B7" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="57">
+      <c r="B9" s="53">
         <v>1</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="57"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5976,40 +6134,40 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="O11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="D12" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
@@ -6024,12 +6182,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -6040,12 +6198,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -6059,27 +6217,27 @@
     </row>
     <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="65"/>
+      <c r="J18" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8" t="str">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v/>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="69"/>
       <c r="K19" s="70"/>
       <c r="P19" s="3" t="str">
@@ -6096,10 +6254,10 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="71"/>
       <c r="K20" s="72"/>
       <c r="P20" s="3" t="str">
@@ -6112,10 +6270,10 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="73"/>
       <c r="K21" s="74"/>
       <c r="P21" s="3" t="str">
@@ -6128,10 +6286,10 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="75"/>
       <c r="K22" s="76"/>
       <c r="P22" s="3" t="str">
@@ -6144,10 +6302,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="73"/>
       <c r="K23" s="74"/>
       <c r="P23" s="3" t="str">
@@ -6160,10 +6318,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="75"/>
       <c r="K24" s="76"/>
       <c r="P24" s="3" t="str">
@@ -6172,44 +6330,46 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="64" t="str">
+      <c r="J25" s="59" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="64"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="13" t="s">
+      <c r="H27" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="I27" s="56"/>
+      <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="13" t="s">
+      <c r="K27" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="P27" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="4:17">
-      <c r="E28" s="8" t="str">
+      <c r="E28" s="8">
         <f>IF(ISBLANK(F28), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F28" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -6219,15 +6379,17 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="4:17">
-      <c r="E29" s="9" t="str">
+      <c r="E29" s="9">
         <f>IF(ISBLANK(F29), "", MAX($E$28:E28)+1)</f>
-        <v/>
-      </c>
-      <c r="F29" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -6238,15 +6400,17 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="4:17">
-      <c r="E30" s="8" t="str">
+      <c r="E30" s="8">
         <f>IF(ISBLANK(F30), "", MAX($E$28:E29)+1)</f>
-        <v/>
-      </c>
-      <c r="F30" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -6257,15 +6421,17 @@
         <v>3.125E-2</v>
       </c>
       <c r="Q30" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="4:17">
-      <c r="E31" s="9" t="str">
+      <c r="E31" s="9">
         <f>IF(ISBLANK(F31), "", MAX($E$28:E30)+1)</f>
-        <v/>
-      </c>
-      <c r="F31" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -6277,11 +6443,13 @@
       </c>
     </row>
     <row r="32" spans="4:17">
-      <c r="E32" s="8" t="str">
+      <c r="E32" s="8">
         <f>IF(ISBLANK(F32), "", MAX($E$28:E31)+1)</f>
-        <v/>
-      </c>
-      <c r="F32" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -6503,7 +6671,7 @@
     <row r="46" spans="5:16">
       <c r="K46" s="10" t="str">
         <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins quatre tâches.</v>
+        <v>5 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="14">
         <f t="shared" si="1"/>
@@ -6520,24 +6688,24 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="57">
+      <c r="B49" s="53">
         <v>2</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="57"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -6547,7 +6715,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P50" s="14"/>
     </row>
@@ -6556,7 +6724,7 @@
     </row>
     <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -6565,7 +6733,7 @@
       <c r="I52" s="26"/>
       <c r="J52" s="27"/>
       <c r="K52" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P52" s="14"/>
     </row>
@@ -6574,11 +6742,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="55"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="63"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -6587,11 +6755,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="56"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="61"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -6600,11 +6768,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="55"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="63"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -6613,11 +6781,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="56"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="61"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -6626,11 +6794,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="51"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="55"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="63"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -6639,11 +6807,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="56"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="61"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -6652,11 +6820,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="55"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="63"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -6665,11 +6833,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="56"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="61"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -6678,11 +6846,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="51"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="55"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="63"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -6691,11 +6859,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="56"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="61"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -6704,11 +6872,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="51"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="55"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="63"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -6717,11 +6885,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="56"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="61"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -6730,11 +6898,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="51"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="55"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="63"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -6743,11 +6911,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="49"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="56"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="61"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -6756,11 +6924,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="51"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="55"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="63"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -6769,11 +6937,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="56"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="61"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -6782,11 +6950,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="51"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="55"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="63"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -6795,11 +6963,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="49"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="56"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="61"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -6808,11 +6976,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="51"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="55"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="63"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -6821,11 +6989,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="49"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="56"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="61"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -6834,11 +7002,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="51"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="55"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="63"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -6847,11 +7015,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="49"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="56"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="61"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -6860,11 +7028,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="51"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="55"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="63"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -6873,11 +7041,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="49"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="56"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="61"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -6886,11 +7054,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="51"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="55"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="63"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -6899,11 +7067,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="56"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="61"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -6912,11 +7080,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="51"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="55"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="63"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -6925,11 +7093,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="49"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="56"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="61"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -6938,11 +7106,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="51"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="55"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="63"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -6951,11 +7119,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="49"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="56"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="61"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -6964,11 +7132,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="51"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="55"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="63"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -6977,11 +7145,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="49"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="56"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="61"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -6990,11 +7158,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="51"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="55"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="63"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -7003,11 +7171,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="49"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="56"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="61"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -7016,11 +7184,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="51"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="55"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="63"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -7029,11 +7197,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="56"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="61"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -7047,23 +7215,23 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="57">
+      <c r="B92" s="53">
         <v>3</v>
       </c>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="57"/>
+      <c r="B93" s="53"/>
       <c r="C93" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -7073,39 +7241,39 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="59" t="s">
+      <c r="G95" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="27" t="s">
+      <c r="K95" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="K95" s="26" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="96" spans="2:16">
-      <c r="E96" s="8" t="str">
+      <c r="E96" s="8">
         <f>IF(ISBLANK(E28),"",E28)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F96" s="31" t="str">
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
-        <v/>
-      </c>
-      <c r="G96" s="51"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="52"/>
+        <v>implementation module budget</v>
+      </c>
+      <c r="G96" s="62"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="65"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -7113,17 +7281,17 @@
       </c>
     </row>
     <row r="97" spans="5:16">
-      <c r="E97" s="9" t="str">
+      <c r="E97" s="9">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F97" s="34" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G97" s="49"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="50"/>
+        <v>implementation de projection depences futures</v>
+      </c>
+      <c r="G97" s="60"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="67"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -7131,17 +7299,17 @@
       </c>
     </row>
     <row r="98" spans="5:16">
-      <c r="E98" s="8" t="str">
+      <c r="E98" s="8">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F98" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G98" s="51"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="52"/>
+        <v>ajout themes differents</v>
+      </c>
+      <c r="G98" s="62"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="65"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -7149,17 +7317,17 @@
       </c>
     </row>
     <row r="99" spans="5:16">
-      <c r="E99" s="9" t="str">
+      <c r="E99" s="9">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F99" s="34" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G99" s="49"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="50"/>
+        <v>ajout banque d'icon profiles</v>
+      </c>
+      <c r="G99" s="60"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="67"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -7167,17 +7335,17 @@
       </c>
     </row>
     <row r="100" spans="5:16">
-      <c r="E100" s="8" t="str">
+      <c r="E100" s="8">
         <f t="shared" si="2"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F100" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G100" s="51"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="52"/>
+        <v>ajout</v>
+      </c>
+      <c r="G100" s="62"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="65"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -7193,9 +7361,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="49"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="50"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="67"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -7211,9 +7379,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="51"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="52"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="65"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -7229,9 +7397,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="49"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="50"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="67"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -7247,9 +7415,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="51"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="52"/>
+      <c r="G104" s="62"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="65"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -7265,9 +7433,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="49"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="50"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="67"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -7283,9 +7451,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="51"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="52"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="65"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -7301,9 +7469,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="49"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="50"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="67"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -7317,9 +7485,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="51"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="52"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="65"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -7333,9 +7501,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="49"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="50"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="67"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -7348,9 +7516,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="51"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="52"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="65"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -7363,9 +7531,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="49"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="50"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="67"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -7378,9 +7546,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="51"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="52"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="65"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -7393,9 +7561,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="49"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="50"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="67"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -7403,28 +7571,28 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F116" s="53"/>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
+      <c r="E116" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47"/>
-      <c r="J117" s="47"/>
-      <c r="K117" s="47"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="68"/>
+      <c r="I117" s="68"/>
+      <c r="J117" s="68"/>
+      <c r="K117" s="68"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
@@ -7439,72 +7607,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
-      <c r="K121" s="48"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="46"/>
+      <c r="J121" s="46"/>
+      <c r="K121" s="46"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="46"/>
-      <c r="I122" s="46"/>
-      <c r="J122" s="46"/>
-      <c r="K122" s="46"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="48"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="46"/>
+      <c r="J123" s="46"/>
+      <c r="K123" s="46"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="46"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="46"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="55"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
-      <c r="J125" s="48"/>
-      <c r="K125" s="48"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="46"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="46"/>
-      <c r="K126" s="46"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="55"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -7514,6 +7682,86 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -7528,99 +7776,19 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>COUNTA(F13:F15)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>COUNTA($F$19:$F$24)&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>COUNTA($F$28:$F$39)&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7639,16 +7807,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K45">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"incertain"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"difficile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"facile"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7681,12 +7849,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>COUNTA(F111:F113)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>COUNTA(F121:F126)&lt;2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/C61/sprint0/Plannification.xlsx
+++ b/C61/sprint0/Plannification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\Projet_Synthese\C61\sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B520175-ED97-4AD3-8383-360D3101347F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11B98A-6840-485E-8F0A-1F09E56FED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12195" activeTab="3" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>Titre du projet</t>
   </si>
@@ -332,9 +343,6 @@
     <t>créer page modules plug-in ( calandar)</t>
   </si>
   <si>
-    <t>mis en place de l'interface et gestion d'utilisateur</t>
-  </si>
-  <si>
     <t>mis en place de modules plug-in modifiable</t>
   </si>
   <si>
@@ -389,7 +397,28 @@
     <t>ajout banque d'icon profiles</t>
   </si>
   <si>
-    <t>ajout</t>
+    <t xml:space="preserve">mis en place de l'interface  </t>
+  </si>
+  <si>
+    <t>gestion d'utilisateur</t>
+  </si>
+  <si>
+    <t>debuter le code mis en place d'interfaces</t>
+  </si>
+  <si>
+    <t>implementation d'algorithmes et de modules</t>
+  </si>
+  <si>
+    <t>implementation de budget management</t>
+  </si>
+  <si>
+    <t>maths and budget</t>
+  </si>
+  <si>
+    <t>venir a bout du projet</t>
+  </si>
+  <si>
+    <t>installer node et react</t>
   </si>
 </sst>
 </file>
@@ -708,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -864,6 +893,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -876,44 +913,57 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,44 +977,35 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -972,14 +1013,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -999,18 +1032,10 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -1091,6 +1116,13 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9"/>
       </font>
     </dxf>
@@ -1107,13 +1139,6 @@
     <dxf>
       <font>
         <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -1756,7 +1781,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2058,7 +2083,7 @@
       <selection activeCell="B14" sqref="B14:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -2111,45 +2136,45 @@
       <c r="A14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="45" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="39"/>
-      <c r="B15" s="44"/>
+      <c r="B15" s="46"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="39"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="46"/>
     </row>
     <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="39"/>
-      <c r="B17" s="44"/>
+      <c r="B17" s="46"/>
     </row>
     <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="39"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="39"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="46"/>
     </row>
     <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="39"/>
-      <c r="B20" s="44"/>
+      <c r="B20" s="46"/>
     </row>
     <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="39"/>
-      <c r="B21" s="44"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="39"/>
-      <c r="B22" s="44"/>
+      <c r="B22" s="46"/>
     </row>
     <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="40"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2167,11 +2192,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB54021C-D73D-4DDD-9C45-FB24F7DA2170}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" customWidth="1"/>
@@ -2188,33 +2213,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="67" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 1   |   </v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -2224,49 +2249,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="53">
+      <c r="B9" s="58">
         <v>1</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="53"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2290,35 +2315,37 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="8">
         <f>IF(ISBLANK(F13), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
-        <v/>
-      </c>
-      <c r="Q13" s="3" t="e">
-        <f t="array" aca="1" ref="Q13" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
-        <v>#NAME?</v>
+        <v>1 - debuter le code mi…</v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <f t="array" ref="Q13">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
+        <v>1 - debuter le code mi…</v>
       </c>
     </row>
     <row r="14" spans="2:17">
@@ -2326,12 +2353,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -2342,12 +2369,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -2356,7 +2383,7 @@
     <row r="16" spans="2:17">
       <c r="K16" s="10" t="str">
         <f>IF(COUNTA(F13:F15)=0, "Attention, vous devez définir au moins une orientation.", COUNTA(F13:F15)&amp;IF(COUNTA(F13:F15)&gt;1," orientations ont été déterminées"," orientation a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins une orientation.</v>
+        <v>1 orientation a été déterminée</v>
       </c>
     </row>
     <row r="18" spans="4:17" ht="15.75">
@@ -2368,47 +2395,49 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="56"/>
+      <c r="K18" s="61"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
+      <c r="F19" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - mis en place de l'…</v>
       </c>
-      <c r="Q19" s="3" t="e">
-        <f t="array" aca="1" ref="Q19" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
-        <v>#NAME?</v>
+      <c r="Q19" s="3" t="str">
+        <f t="array" ref="Q19">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
+        <v>1 - mis en place de l'…</v>
       </c>
     </row>
     <row r="20" spans="4:17">
-      <c r="E20" s="9" t="str">
+      <c r="E20" s="9">
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
-        <v/>
-      </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2 - gestion d'utilisat…</v>
       </c>
     </row>
     <row r="21" spans="4:17">
@@ -2416,12 +2445,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
       <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2432,12 +2461,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
       <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2448,12 +2477,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
       <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2464,37 +2493,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="59" t="str">
+      <c r="J25" s="66" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins deux objectifs.</v>
-      </c>
-      <c r="K25" s="59"/>
+        <v>2 objectifs ont été déterminées</v>
+      </c>
+      <c r="K25" s="66"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="56"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -2510,11 +2539,11 @@
     </row>
     <row r="28" spans="4:17">
       <c r="E28" s="8">
-        <f>IF(ISBLANK(F28), "", 1)</f>
+        <f>IF(ISBLANK(F30), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>45</v>
+      <c r="F28" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -2530,11 +2559,8 @@
     </row>
     <row r="29" spans="4:17">
       <c r="E29" s="9">
-        <f>IF(ISBLANK(F32), "", MAX($E$28:E28)+1)</f>
+        <f>IF(ISBLANK(F34), "", MAX($E$28:E28)+1)</f>
         <v>2</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>60</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
@@ -2551,11 +2577,11 @@
     </row>
     <row r="30" spans="4:17">
       <c r="E30" s="8">
-        <f>IF(ISBLANK(F33), "", MAX($E$28:E29)+1)</f>
+        <f>IF(ISBLANK(F35), "", MAX($E$28:E29)+1)</f>
         <v>3</v>
       </c>
-      <c r="F30" s="77" t="s">
-        <v>61</v>
+      <c r="F30" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
@@ -2572,11 +2598,11 @@
     </row>
     <row r="31" spans="4:17">
       <c r="E31" s="9">
-        <f>IF(ISBLANK(F34), "", MAX($E$28:E30)+1)</f>
+        <f>IF(ISBLANK(F36), "", MAX($E$28:E30)+1)</f>
         <v>4</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
@@ -2590,11 +2616,11 @@
     </row>
     <row r="32" spans="4:17">
       <c r="E32" s="8">
-        <f>IF(ISBLANK(F35), "", MAX($E$28:E31)+1)</f>
+        <f>IF(ISBLANK(F37), "", MAX($E$28:E31)+1)</f>
         <v>5</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>46</v>
+      <c r="F32" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
@@ -2608,11 +2634,11 @@
     </row>
     <row r="33" spans="5:16">
       <c r="E33" s="9">
-        <f>IF(ISBLANK(F36), "", MAX($E$28:E32)+1)</f>
+        <f>IF(ISBLANK(F38), "", MAX($E$28:E32)+1)</f>
         <v>6</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>47</v>
+      <c r="F33" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
@@ -2625,12 +2651,12 @@
       </c>
     </row>
     <row r="34" spans="5:16">
-      <c r="E34" s="8" t="str">
-        <f>IF(ISBLANK(F38), "", MAX($E$28:E33)+1)</f>
-        <v/>
+      <c r="E34" s="8">
+        <f>IF(ISBLANK(#REF!), "", MAX($E$28:E33)+1)</f>
+        <v>7</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
@@ -2644,11 +2670,11 @@
     </row>
     <row r="35" spans="5:16">
       <c r="E35" s="9">
-        <f>IF(ISBLANK(F37), "", MAX($E$28:E34)+1)</f>
-        <v>7</v>
+        <f>IF(ISBLANK(F39), "", MAX($E$28:E34)+1)</f>
+        <v>8</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
@@ -2663,10 +2689,10 @@
     <row r="36" spans="5:16">
       <c r="E36" s="8">
         <f>IF(ISBLANK(#REF!), "", MAX($E$28:E35)+1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="18"/>
@@ -2681,10 +2707,10 @@
     <row r="37" spans="5:16">
       <c r="E37" s="9">
         <f>IF(ISBLANK(#REF!), "", MAX($E$28:E36)+1)</f>
-        <v>9</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
@@ -2699,9 +2725,11 @@
     <row r="38" spans="5:16">
       <c r="E38" s="8">
         <f>IF(ISBLANK(#REF!), "", MAX($E$28:E37)+1)</f>
-        <v>10</v>
-      </c>
-      <c r="F38" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="G38" s="17"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
@@ -2715,9 +2743,11 @@
     <row r="39" spans="5:16">
       <c r="E39" s="9">
         <f>IF(ISBLANK(#REF!), "", MAX($E$28:E38)+1)</f>
-        <v>11</v>
-      </c>
-      <c r="F39" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="G39" s="22"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -2809,9 +2839,9 @@
       </c>
     </row>
     <row r="45" spans="5:16">
-      <c r="E45" s="9" t="str">
-        <f>IF(ISBLANK(F39), "", MAX($E$28:E44)+1)</f>
-        <v/>
+      <c r="E45" s="9">
+        <f>IF(ISBLANK(#REF!), "", MAX($E$28:E44)+1)</f>
+        <v>13</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="23"/>
@@ -2825,7 +2855,7 @@
     </row>
     <row r="46" spans="5:16">
       <c r="K46" s="10" t="str">
-        <f>IF(COUNTA(F28:F38)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F38)&amp;IF(COUNTA(F28:F38)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
+        <f>IF(COUNTA(F30:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F30:F39)&amp;IF(COUNTA(F30:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>10 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="14">
@@ -2843,22 +2873,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="53">
+      <c r="B49" s="58">
         <v>2</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="53"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -2897,11 +2927,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="63"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="56"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -2910,11 +2940,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="61"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="57"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -2923,11 +2953,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="63"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="56"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -2936,11 +2966,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="60"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="61"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="57"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -2949,11 +2979,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="62"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="63"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="56"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -2962,11 +2992,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="60"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="61"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="57"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -2975,11 +3005,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="62"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="63"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="56"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -2988,11 +3018,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="60"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="61"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="57"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -3001,11 +3031,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="62"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="63"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="56"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -3014,11 +3044,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="60"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="61"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="57"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -3027,11 +3057,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="62"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="63"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="56"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -3040,11 +3070,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="60"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="61"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="57"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -3053,11 +3083,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="62"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="63"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="56"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -3066,11 +3096,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="60"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="61"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="57"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -3079,11 +3109,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="62"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="63"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -3092,11 +3122,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="61"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="57"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -3105,11 +3135,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="62"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="63"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -3118,11 +3148,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="60"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="61"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="57"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -3131,11 +3161,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="62"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="63"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="56"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -3144,11 +3174,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="61"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="57"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -3157,11 +3187,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="62"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="63"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="56"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -3170,11 +3200,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="60"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="61"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="57"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -3183,11 +3213,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="63"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="56"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -3196,11 +3226,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="60"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="61"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="57"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -3209,11 +3239,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="63"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="56"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -3222,11 +3252,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="60"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="61"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="57"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -3235,11 +3265,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="62"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="63"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="56"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -3248,11 +3278,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="60"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="61"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="57"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -3261,11 +3291,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="62"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="63"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="56"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -3274,11 +3304,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="60"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="61"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="57"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -3287,11 +3317,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="62"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="63"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="56"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -3300,11 +3330,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="60"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="61"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="57"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -3313,11 +3343,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="62"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="63"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="56"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -3326,11 +3356,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="60"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="61"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="57"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -3339,11 +3369,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="62"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="63"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="56"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -3352,11 +3382,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="60"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="61"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="57"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -3370,21 +3400,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="53">
+      <c r="B92" s="58">
         <v>3</v>
       </c>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="53"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -3405,11 +3435,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -3423,12 +3453,12 @@
         <v>1</v>
       </c>
       <c r="F96" s="31" t="str">
-        <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
+        <f>IF(ISBLANK(F30),"",F30)</f>
         <v>créer page enregistrement | loggin</v>
       </c>
-      <c r="G96" s="62"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="65"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="55"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -3437,16 +3467,16 @@
     </row>
     <row r="97" spans="5:16">
       <c r="E97" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(E29),"",E29)</f>
         <v>2</v>
       </c>
       <c r="F97" s="34" t="str">
-        <f>IF(ISBLANK(F32),"",F32)</f>
+        <f>IF(ISBLANK(F34),"",F34)</f>
         <v xml:space="preserve">créer et lier la base de donnée </v>
       </c>
-      <c r="G97" s="60"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="67"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="53"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -3459,12 +3489,12 @@
         <v>3</v>
       </c>
       <c r="F98" s="31" t="str">
-        <f>IF(ISBLANK(F33),"",F33)</f>
+        <f>IF(ISBLANK(F35),"",F35)</f>
         <v>créer page interface main</v>
       </c>
-      <c r="G98" s="62"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="65"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="55"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -3477,12 +3507,12 @@
         <v>4</v>
       </c>
       <c r="F99" s="34" t="str">
-        <f>IF(ISBLANK(F34),"",F34)</f>
+        <f>IF(ISBLANK(F36),"",F36)</f>
         <v>implémenter fonction ajouter_module()</v>
       </c>
-      <c r="G99" s="60"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="67"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="53"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -3495,12 +3525,12 @@
         <v>5</v>
       </c>
       <c r="F100" s="31" t="str">
-        <f>IF(ISBLANK(F35),"",F35)</f>
+        <f>IF(ISBLANK(F37),"",F37)</f>
         <v>implémenter fonction enlever_module()</v>
       </c>
-      <c r="G100" s="62"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="65"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="55"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -3513,12 +3543,12 @@
         <v>6</v>
       </c>
       <c r="F101" s="34" t="str">
-        <f>IF(ISBLANK(F36),"",F36)</f>
+        <f>IF(ISBLANK(F38),"",F38)</f>
         <v>implémenter fonction modifier()</v>
       </c>
-      <c r="G101" s="60"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="67"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="53"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -3526,17 +3556,17 @@
       </c>
     </row>
     <row r="102" spans="5:16">
-      <c r="E102" s="8" t="str">
+      <c r="E102" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F102" s="31" t="str">
-        <f>IF(ISBLANK(F38),"",F38)</f>
-        <v/>
-      </c>
-      <c r="G102" s="62"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="65"/>
+        <v>7</v>
+      </c>
+      <c r="F102" s="31" t="e">
+        <f>IF(ISBLANK(#REF!),"",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G102" s="54"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="55"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -3546,15 +3576,15 @@
     <row r="103" spans="5:16">
       <c r="E103" s="9">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F103" s="34" t="str">
-        <f>IF(ISBLANK(F37),"",F37)</f>
+        <f>IF(ISBLANK(F39),"",F39)</f>
         <v>créer module texte vide</v>
       </c>
-      <c r="G103" s="60"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="67"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="53"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -3564,15 +3594,15 @@
     <row r="104" spans="5:16">
       <c r="E104" s="8">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104" s="31" t="e">
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G104" s="62"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="65"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="55"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -3582,15 +3612,15 @@
     <row r="105" spans="5:16">
       <c r="E105" s="9">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F105" s="34" t="e">
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G105" s="60"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="67"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="53"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -3600,15 +3630,15 @@
     <row r="106" spans="5:16">
       <c r="E106" s="8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" s="31" t="e">
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G106" s="62"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="65"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="55"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -3618,15 +3648,15 @@
     <row r="107" spans="5:16">
       <c r="E107" s="9">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" s="34" t="e">
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G107" s="60"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="67"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="53"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -3640,9 +3670,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="62"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="65"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="55"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -3656,9 +3686,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="60"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="67"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="53"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -3671,9 +3701,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="62"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="65"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="55"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -3686,9 +3716,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="60"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="67"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="53"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -3701,24 +3731,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="62"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="65"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="55"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
     <row r="113" spans="4:11">
-      <c r="E113" s="9" t="str">
+      <c r="E113" s="9">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F113" s="34" t="str">
-        <f>IF(ISBLANK(F39),"",F39)</f>
-        <v/>
-      </c>
-      <c r="G113" s="60"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="67"/>
+        <v>13</v>
+      </c>
+      <c r="F113" s="34" t="e">
+        <f>IF(ISBLANK(#REF!),"",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G113" s="52"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="53"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -3726,24 +3756,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="54" t="s">
+      <c r="E116" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="68"/>
-      <c r="H117" s="68"/>
-      <c r="I117" s="68"/>
-      <c r="J117" s="68"/>
-      <c r="K117" s="68"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="49"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -3762,72 +3792,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="46"/>
-      <c r="J121" s="46"/>
-      <c r="K121" s="46"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="50"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="55"/>
-      <c r="K122" s="55"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="46"/>
-      <c r="J123" s="46"/>
-      <c r="K123" s="46"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="55"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="55"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="55"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="46"/>
-      <c r="J125" s="46"/>
-      <c r="K125" s="46"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="50"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="55"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="55"/>
-      <c r="J126" s="55"/>
-      <c r="K126" s="55"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="48"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -3837,86 +3867,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -3931,6 +3881,86 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="26" priority="12">
@@ -4009,8 +4039,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="18" priority="13">
-      <formula>COUNTA($F$28:$F$38)&lt;4</formula>
+    <cfRule type="expression" dxfId="0" priority="18">
+      <formula>COUNTA($F$30:$F$39)&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
@@ -4045,7 +4075,7 @@
       <formula1>PrenomEtudiants</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Éléments d'orientation du Sprint" prompt="Veuillez saisir une orientation significative de ce sprint. Soyez précis et concis." sqref="F13:F15" xr:uid="{66AF3186-1A6B-45EC-A47B-B346795C47A2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Définition d'une tâche" prompt="Veuillez définir une tâche importante pour ce sprint. Soyez précis et concis." sqref="F28 F32:F44" xr:uid="{27D2B11F-8469-4F09-8C3F-321E2C67DCCC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Définition d'une tâche" prompt="Veuillez définir une tâche importante pour ce sprint. Soyez précis et concis." sqref="F30 F34:F44" xr:uid="{27D2B11F-8469-4F09-8C3F-321E2C67DCCC}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4100,11 +4130,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FAE16-9FF0-48E2-BC72-13CE201986D1}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" customWidth="1"/>
@@ -4121,31 +4151,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="67" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 2   |   </v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -4155,49 +4185,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="53">
+      <c r="B9" s="58">
         <v>1</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="53"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -4221,35 +4251,37 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="8">
         <f>IF(ISBLANK(F13), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
-        <v/>
-      </c>
-      <c r="Q13" s="3" t="e">
-        <f t="array" aca="1" ref="Q13" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
-        <v>#NAME?</v>
+        <v>1 - implementation d'a…</v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <f t="array" ref="Q13">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
+        <v>1 - implementation d'a…</v>
       </c>
     </row>
     <row r="14" spans="2:17">
@@ -4257,12 +4289,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -4273,12 +4305,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -4287,7 +4319,7 @@
     <row r="16" spans="2:17">
       <c r="K16" s="10" t="str">
         <f>IF(COUNTA(F13:F15)=0, "Attention, vous devez définir au moins une orientation.", COUNTA(F13:F15)&amp;IF(COUNTA(F13:F15)&gt;1," orientations ont été déterminées"," orientation a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins une orientation.</v>
+        <v>1 orientation a été déterminée</v>
       </c>
     </row>
     <row r="18" spans="4:17" ht="15.75">
@@ -4299,31 +4331,31 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="56"/>
+      <c r="K18" s="61"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
+      <c r="F19" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - mis en place de mo…</v>
       </c>
-      <c r="Q19" s="3" t="e">
-        <f t="array" aca="1" ref="Q19" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
-        <v>#NAME?</v>
+      <c r="Q19" s="3" t="str">
+        <f t="array" ref="Q19">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
+        <v>1 - mis en place de mo…</v>
       </c>
     </row>
     <row r="20" spans="4:17">
@@ -4331,14 +4363,14 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
+      <c r="F20" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2 - mis en place d'un …</v>
@@ -4349,12 +4381,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="73"/>
       <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4365,12 +4397,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
       <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4381,12 +4413,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
       <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4397,37 +4429,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="59" t="str">
+      <c r="J25" s="66" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>2 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="59"/>
+      <c r="K25" s="66"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="56"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -4447,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -4467,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
@@ -4487,8 +4519,8 @@
         <f>IF(ISBLANK(F28), "", MAX($E$28:E29)+1)</f>
         <v>3</v>
       </c>
-      <c r="F30" s="78" t="s">
-        <v>63</v>
+      <c r="F30" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
@@ -4543,7 +4575,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
@@ -4561,7 +4593,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
@@ -4769,22 +4801,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="53">
+      <c r="B49" s="58">
         <v>2</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="53"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -4823,11 +4855,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="63"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="56"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -4836,11 +4868,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="61"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="57"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -4849,11 +4881,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="63"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="56"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -4862,11 +4894,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="60"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="61"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="57"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -4875,11 +4907,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="62"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="63"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="56"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -4888,11 +4920,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="60"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="61"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="57"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -4901,11 +4933,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="62"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="63"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="56"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -4914,11 +4946,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="60"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="61"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="57"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -4927,11 +4959,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="62"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="63"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="56"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -4940,11 +4972,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="60"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="61"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="57"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -4953,11 +4985,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="62"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="63"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="56"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -4966,11 +4998,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="60"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="61"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="57"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -4979,11 +5011,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="62"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="63"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="56"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -4992,11 +5024,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="60"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="61"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="57"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -5005,11 +5037,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="62"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="63"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -5018,11 +5050,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="61"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="57"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -5031,11 +5063,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="62"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="63"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -5044,11 +5076,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="60"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="61"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="57"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -5057,11 +5089,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="62"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="63"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="56"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -5070,11 +5102,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="61"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="57"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -5083,11 +5115,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="62"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="63"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="56"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -5096,11 +5128,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="60"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="61"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="57"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -5109,11 +5141,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="63"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="56"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -5122,11 +5154,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="60"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="61"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="57"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -5135,11 +5167,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="63"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="56"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -5148,11 +5180,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="60"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="61"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="57"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -5161,11 +5193,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="62"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="63"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="56"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -5174,11 +5206,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="60"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="61"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="57"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -5187,11 +5219,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="62"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="63"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="56"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -5200,11 +5232,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="60"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="61"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="57"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -5213,11 +5245,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="62"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="63"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="56"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -5226,11 +5258,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="60"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="61"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="57"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -5239,11 +5271,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="62"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="63"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="56"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -5252,11 +5284,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="60"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="61"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="57"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -5265,11 +5297,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="62"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="63"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="56"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -5278,11 +5310,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="60"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="61"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="57"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -5296,21 +5328,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="53">
+      <c r="B92" s="58">
         <v>3</v>
       </c>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="53"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -5331,11 +5363,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -5352,9 +5384,9 @@
         <f>IF(ISBLANK(F33),"",F33)</f>
         <v>créer un module liste :</v>
       </c>
-      <c r="G96" s="62"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="65"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="55"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -5363,16 +5395,16 @@
     </row>
     <row r="97" spans="5:16">
       <c r="E97" s="9">
-        <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(E29),"",E29)</f>
+        <f t="shared" ref="E97:F111" si="2">IF(ISBLANK(E29),"",E29)</f>
         <v>2</v>
       </c>
       <c r="F97" s="34" t="str">
         <f>IF(ISBLANK(F34),"",F34)</f>
         <v xml:space="preserve">option liste pointer, numeroté ou autre characteres separatifs </v>
       </c>
-      <c r="G97" s="60"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="67"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="53"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -5388,9 +5420,9 @@
         <f>IF(ISBLANK(F28),"",F28)</f>
         <v>implémenter ajout remove amis</v>
       </c>
-      <c r="G98" s="62"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="65"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="55"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -5406,9 +5438,9 @@
         <f>IF(ISBLANK(F29),"",F29)</f>
         <v>implémenter algorithme de recommendation amitié</v>
       </c>
-      <c r="G99" s="60"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="67"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="53"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -5424,9 +5456,9 @@
         <f t="shared" si="2"/>
         <v>créer page modules plug-in ( calandar)</v>
       </c>
-      <c r="G100" s="62"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="65"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="55"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -5442,9 +5474,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G101" s="60"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="67"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="53"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -5460,9 +5492,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G102" s="62"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="65"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="55"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -5478,9 +5510,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="60"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="67"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="53"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -5496,9 +5528,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="62"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="65"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="55"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -5514,9 +5546,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="60"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="67"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="53"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -5532,9 +5564,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="62"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="65"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="55"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -5550,9 +5582,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="60"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="67"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="53"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -5566,9 +5598,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="62"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="65"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="55"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -5582,9 +5614,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="60"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="67"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="53"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -5597,9 +5629,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="62"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="65"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="55"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -5612,9 +5644,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="60"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="67"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="53"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -5627,9 +5659,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="62"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="65"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="55"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -5642,9 +5674,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="60"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="67"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="53"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -5652,24 +5684,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="54" t="s">
+      <c r="E116" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="68"/>
-      <c r="H117" s="68"/>
-      <c r="I117" s="68"/>
-      <c r="J117" s="68"/>
-      <c r="K117" s="68"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="49"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -5688,72 +5720,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="46"/>
-      <c r="J121" s="46"/>
-      <c r="K121" s="46"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="50"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="55"/>
-      <c r="K122" s="55"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="46"/>
-      <c r="J123" s="46"/>
-      <c r="K123" s="46"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="55"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="55"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="55"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="46"/>
-      <c r="J125" s="46"/>
-      <c r="K125" s="46"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="50"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="55"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="55"/>
-      <c r="J126" s="55"/>
-      <c r="K126" s="55"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="48"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -5763,86 +5795,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -5857,14 +5809,94 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>COUNTA(F13:F15)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>COUNTA($F$19:$F$24)&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5883,16 +5915,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K45">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"incertain"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"difficile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"facile"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5925,17 +5957,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>COUNTA(F111:F113)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>COUNTA(F121:F126)&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="0" priority="17">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>COUNTA($F$28:$F$39)&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6025,11 +6057,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736AB4E6-7F0E-4E0F-86D9-E515D490564F}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" customWidth="1"/>
@@ -6046,31 +6078,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="67" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 3  |   </v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -6080,49 +6112,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="53">
+      <c r="B9" s="58">
         <v>1</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="53"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -6146,35 +6178,37 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="8">
         <f>IF(ISBLANK(F13), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
-        <v/>
-      </c>
-      <c r="Q13" s="3" t="e">
-        <f t="array" aca="1" ref="Q13" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
-        <v>#NAME?</v>
+        <v>1 - maths and budget</v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <f t="array" ref="Q13">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
+        <v>1 - maths and budget</v>
       </c>
     </row>
     <row r="14" spans="2:17">
@@ -6182,12 +6216,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -6198,12 +6232,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -6212,7 +6246,7 @@
     <row r="16" spans="2:17">
       <c r="K16" s="10" t="str">
         <f>IF(COUNTA(F13:F15)=0, "Attention, vous devez définir au moins une orientation.", COUNTA(F13:F15)&amp;IF(COUNTA(F13:F15)&gt;1," orientations ont été déterminées"," orientation a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins une orientation.</v>
+        <v>1 orientation a été déterminée</v>
       </c>
     </row>
     <row r="18" spans="4:17" ht="15.75">
@@ -6224,45 +6258,49 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="56"/>
+      <c r="K18" s="61"/>
     </row>
     <row r="19" spans="4:17">
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="8">
         <f>IF(ISBLANK(F19), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
-        <v/>
-      </c>
-      <c r="Q19" s="3" t="e">
-        <f t="array" aca="1" ref="Q19" ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
-        <v>#NAME?</v>
+        <v>1 - implementation de …</v>
+      </c>
+      <c r="Q19" s="3" t="str">
+        <f t="array" ref="Q19">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
+        <v>1 - implementation de …</v>
       </c>
     </row>
     <row r="20" spans="4:17">
-      <c r="E20" s="9" t="str">
+      <c r="E20" s="9">
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
-        <v/>
-      </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2 - venir a bout du pr…</v>
       </c>
     </row>
     <row r="21" spans="4:17">
@@ -6270,12 +6308,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="75"/>
       <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6286,12 +6324,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="76"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
       <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6302,12 +6340,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
       <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6318,37 +6356,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="76"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="59" t="str">
+      <c r="J25" s="66" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins deux objectifs.</v>
-      </c>
-      <c r="K25" s="59"/>
+        <v>2 objectifs ont été déterminées</v>
+      </c>
+      <c r="K25" s="66"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="56"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -6368,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -6388,7 +6426,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
@@ -6409,7 +6447,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
@@ -6430,7 +6468,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
@@ -6443,13 +6481,11 @@
       </c>
     </row>
     <row r="32" spans="4:17">
-      <c r="E32" s="8">
+      <c r="E32" s="8" t="str">
         <f>IF(ISBLANK(F32), "", MAX($E$28:E31)+1)</f>
-        <v>5</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>68</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F32" s="16"/>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -6671,7 +6707,7 @@
     <row r="46" spans="5:16">
       <c r="K46" s="10" t="str">
         <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>5 objectifs ont été déterminées</v>
+        <v>4 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="14">
         <f t="shared" si="1"/>
@@ -6688,22 +6724,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="53">
+      <c r="B49" s="58">
         <v>2</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="53"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -6742,11 +6778,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="63"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="56"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -6755,11 +6791,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="61"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="57"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -6768,11 +6804,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="63"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="56"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -6781,11 +6817,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="60"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="61"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="57"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -6794,11 +6830,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="62"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="63"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="56"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -6807,11 +6843,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="60"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="61"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="57"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -6820,11 +6856,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="62"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="63"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="56"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -6833,11 +6869,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="60"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="61"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="57"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -6846,11 +6882,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="62"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="63"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="56"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -6859,11 +6895,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="60"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="61"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="57"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -6872,11 +6908,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="62"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="63"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="56"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -6885,11 +6921,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="60"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="61"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="57"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -6898,11 +6934,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="62"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="63"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="56"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -6911,11 +6947,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="60"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="61"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="57"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -6924,11 +6960,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="62"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="63"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -6937,11 +6973,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="61"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="57"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -6950,11 +6986,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="62"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="63"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -6963,11 +6999,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="60"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="61"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="57"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -6976,11 +7012,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="62"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="63"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="56"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -6989,11 +7025,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="61"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="57"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -7002,11 +7038,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="62"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="63"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="56"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -7015,11 +7051,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="60"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="61"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="57"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -7028,11 +7064,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="63"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="56"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -7041,11 +7077,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="60"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="61"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="57"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -7054,11 +7090,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="63"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="56"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -7067,11 +7103,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="60"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="61"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="57"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -7080,11 +7116,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="62"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="63"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="56"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -7093,11 +7129,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="60"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="61"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="57"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -7106,11 +7142,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="62"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="63"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="56"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -7119,11 +7155,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="60"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="61"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="57"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -7132,11 +7168,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="62"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="63"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="56"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -7145,11 +7181,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="60"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="61"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="57"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -7158,11 +7194,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="62"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="63"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="56"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -7171,11 +7207,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="60"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="61"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="57"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -7184,11 +7220,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="62"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="63"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="56"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -7197,11 +7233,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="60"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="61"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="57"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -7215,21 +7251,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="53">
+      <c r="B92" s="58">
         <v>3</v>
       </c>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="53"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -7250,11 +7286,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -7271,9 +7307,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>implementation module budget</v>
       </c>
-      <c r="G96" s="62"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="65"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="55"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -7289,9 +7325,9 @@
         <f t="shared" si="2"/>
         <v>implementation de projection depences futures</v>
       </c>
-      <c r="G97" s="60"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="67"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="53"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -7307,9 +7343,9 @@
         <f t="shared" si="2"/>
         <v>ajout themes differents</v>
       </c>
-      <c r="G98" s="62"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="65"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="55"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -7325,9 +7361,9 @@
         <f t="shared" si="2"/>
         <v>ajout banque d'icon profiles</v>
       </c>
-      <c r="G99" s="60"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="67"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="53"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -7335,17 +7371,14 @@
       </c>
     </row>
     <row r="100" spans="5:16">
-      <c r="E100" s="8">
+      <c r="E100" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F100" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v>ajout</v>
-      </c>
-      <c r="G100" s="62"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="65"/>
+        <v/>
+      </c>
+      <c r="F100" s="31"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="55"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -7358,12 +7391,12 @@
         <v/>
       </c>
       <c r="F101" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G101" s="60"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="67"/>
+        <f>IF(ISBLANK(F33),"",F33)</f>
+        <v/>
+      </c>
+      <c r="G101" s="52"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="53"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -7379,9 +7412,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="62"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="65"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="55"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -7397,9 +7430,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="60"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="67"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="53"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -7415,9 +7448,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="62"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="65"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="55"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -7433,9 +7466,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="60"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="67"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="53"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -7451,9 +7484,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="62"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="65"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="55"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -7469,9 +7502,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="60"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="67"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="53"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -7485,9 +7518,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="62"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="65"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="55"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -7501,9 +7534,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="60"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="67"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="53"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -7516,9 +7549,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="62"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="65"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="55"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -7531,9 +7564,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="60"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="67"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="53"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -7546,9 +7579,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="62"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="65"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="55"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -7561,9 +7594,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="60"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="67"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="53"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -7571,24 +7604,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="54" t="s">
+      <c r="E116" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="68"/>
-      <c r="H117" s="68"/>
-      <c r="I117" s="68"/>
-      <c r="J117" s="68"/>
-      <c r="K117" s="68"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="49"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -7607,72 +7640,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="46"/>
-      <c r="J121" s="46"/>
-      <c r="K121" s="46"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="50"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="55"/>
-      <c r="K122" s="55"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="46"/>
-      <c r="J123" s="46"/>
-      <c r="K123" s="46"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="55"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="55"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="55"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="46"/>
-      <c r="J125" s="46"/>
-      <c r="K125" s="46"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="50"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="55"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="55"/>
-      <c r="J126" s="55"/>
-      <c r="K126" s="55"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="48"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -7682,86 +7715,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -7776,6 +7729,86 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="9" priority="12">

--- a/C61/sprint0/Plannification.xlsx
+++ b/C61/sprint0/Plannification.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\Projet_Synthese\C61\sprint0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jess\Documents\Cegep - CVM\Hiver 2023\Projet_Synthese\C61\sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11B98A-6840-485E-8F0A-1F09E56FED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F873C720-DDCD-4BAC-825F-30A83EB73FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sprint 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sommaire" sheetId="5" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sprint 3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="PrenomEtudiants">'Description du projet'!$N$36:$N$48</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
   <si>
     <t>Titre du projet</t>
   </si>
@@ -913,57 +914,44 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,35 +965,40 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1013,6 +1006,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1035,16 +1036,9 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1139,6 +1133,13 @@
     <dxf>
       <font>
         <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -1781,7 +1782,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2083,7 +2084,7 @@
       <selection activeCell="B14" sqref="B14:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -2192,11 +2193,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB54021C-D73D-4DDD-9C45-FB24F7DA2170}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" customWidth="1"/>
@@ -2213,33 +2214,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="67" t="str">
+      <c r="B2" s="51" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 1   |   </v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -2249,49 +2250,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="68" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="58">
+      <c r="B9" s="55">
         <v>1</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="58"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2315,30 +2316,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - debuter le code mi…</v>
@@ -2353,12 +2354,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -2369,12 +2370,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -2395,24 +2396,24 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="61"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - mis en place de l'…</v>
@@ -2427,14 +2428,14 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2 - gestion d'utilisat…</v>
@@ -2445,12 +2446,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
       <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2461,12 +2462,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
       <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2477,12 +2478,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
       <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2493,37 +2494,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="66" t="str">
+      <c r="J25" s="61" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>2 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="66"/>
+      <c r="K25" s="61"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="61"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -2548,8 +2549,12 @@
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
+      <c r="J28" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="P28" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -2586,8 +2591,12 @@
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
+      <c r="J30" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="P30" s="14">
         <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
         <v>3.125E-2</v>
@@ -2607,8 +2616,12 @@
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="25"/>
+      <c r="J31" s="24">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="P31" s="14">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
@@ -2625,8 +2638,12 @@
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
+      <c r="J32" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="P32" s="14">
         <f t="shared" si="1"/>
         <v>5.2083333333333329E-2</v>
@@ -2643,8 +2660,12 @@
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="25"/>
+      <c r="J33" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="P33" s="14">
         <f t="shared" si="1"/>
         <v>6.2499999999999993E-2</v>
@@ -2661,8 +2682,12 @@
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
+      <c r="J34" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="P34" s="14">
         <f t="shared" si="1"/>
         <v>7.2916666666666657E-2</v>
@@ -2679,8 +2704,12 @@
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="25"/>
+      <c r="J35" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="P35" s="14">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
@@ -2697,8 +2726,12 @@
       <c r="G36" s="17"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
+      <c r="J36" s="19">
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="P36" s="14">
         <f t="shared" si="1"/>
         <v>9.375E-2</v>
@@ -2715,8 +2748,12 @@
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="25"/>
+      <c r="J37" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="P37" s="14">
         <f t="shared" si="1"/>
         <v>0.10416666666666667</v>
@@ -2733,8 +2770,12 @@
       <c r="G38" s="17"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="20"/>
+      <c r="J38" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="P38" s="14">
         <f t="shared" si="1"/>
         <v>0.11458333333333334</v>
@@ -2751,8 +2792,12 @@
       <c r="G39" s="22"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25"/>
+      <c r="J39" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="P39" s="14">
         <f t="shared" si="1"/>
         <v>0.125</v>
@@ -2873,22 +2918,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="58">
+      <c r="B49" s="55">
         <v>2</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="58"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -2927,11 +2972,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="56"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="65"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -2940,11 +2985,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="57"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="63"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -2953,11 +2998,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="56"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="65"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -2966,11 +3011,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="57"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="63"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -2979,11 +3024,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="54"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="56"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="65"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -2992,11 +3037,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="57"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="63"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -3005,11 +3050,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="54"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="56"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="65"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -3018,11 +3063,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="57"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="63"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -3031,11 +3076,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="54"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="56"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="65"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -3044,11 +3089,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="57"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="63"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -3057,11 +3102,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="56"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="65"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -3070,11 +3115,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="57"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="63"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -3083,11 +3128,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="54"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="56"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="65"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -3096,11 +3141,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="57"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="63"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -3109,11 +3154,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="56"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="65"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -3122,11 +3167,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="57"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="63"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -3135,11 +3180,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="54"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="56"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="65"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -3148,11 +3193,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="57"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="63"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -3161,11 +3206,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="54"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="56"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="65"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -3174,11 +3219,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="57"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="63"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -3187,11 +3232,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="54"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="56"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="65"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -3200,11 +3245,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="57"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="63"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -3213,11 +3258,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="56"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="65"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -3226,11 +3271,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="57"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="63"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -3239,11 +3284,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="54"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="56"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="65"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -3252,11 +3297,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="57"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="63"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -3265,11 +3310,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="54"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="56"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="65"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -3278,11 +3323,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="57"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="63"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -3291,11 +3336,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="54"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="56"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="65"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -3304,11 +3349,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="57"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="63"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -3317,11 +3362,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="54"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="56"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="65"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -3330,11 +3375,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="57"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="63"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -3343,11 +3388,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="54"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="56"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="65"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -3356,11 +3401,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="57"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="63"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -3369,11 +3414,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="54"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="56"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="65"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -3382,11 +3427,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="57"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="63"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -3400,21 +3445,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="58">
+      <c r="B92" s="55">
         <v>3</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="58"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -3435,11 +3480,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="60" t="s">
+      <c r="G95" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -3456,9 +3501,9 @@
         <f>IF(ISBLANK(F30),"",F30)</f>
         <v>créer page enregistrement | loggin</v>
       </c>
-      <c r="G96" s="54"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="55"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="66"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -3467,16 +3512,16 @@
     </row>
     <row r="97" spans="5:16">
       <c r="E97" s="9">
-        <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(E29),"",E29)</f>
+        <f t="shared" ref="E97:F111" si="2">IF(ISBLANK(E29),"",E29)</f>
         <v>2</v>
       </c>
       <c r="F97" s="34" t="str">
         <f>IF(ISBLANK(F34),"",F34)</f>
         <v xml:space="preserve">créer et lier la base de donnée </v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="53"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="68"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -3492,9 +3537,9 @@
         <f>IF(ISBLANK(F35),"",F35)</f>
         <v>créer page interface main</v>
       </c>
-      <c r="G98" s="54"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="55"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="66"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -3510,9 +3555,9 @@
         <f>IF(ISBLANK(F36),"",F36)</f>
         <v>implémenter fonction ajouter_module()</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="53"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="68"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -3528,9 +3573,9 @@
         <f>IF(ISBLANK(F37),"",F37)</f>
         <v>implémenter fonction enlever_module()</v>
       </c>
-      <c r="G100" s="54"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="55"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="66"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -3546,9 +3591,9 @@
         <f>IF(ISBLANK(F38),"",F38)</f>
         <v>implémenter fonction modifier()</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="53"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="68"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -3564,9 +3609,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G102" s="54"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="55"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="66"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -3582,9 +3627,9 @@
         <f>IF(ISBLANK(F39),"",F39)</f>
         <v>créer module texte vide</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="53"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="68"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -3600,9 +3645,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G104" s="54"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="55"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="66"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -3618,9 +3663,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="53"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="68"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -3636,9 +3681,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G106" s="54"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="55"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="66"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -3654,9 +3699,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="53"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="68"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -3670,9 +3715,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="54"/>
-      <c r="H108" s="50"/>
-      <c r="I108" s="55"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="66"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -3686,9 +3731,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="53"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="68"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -3701,9 +3746,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="54"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="55"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="66"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -3716,9 +3761,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="53"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="68"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -3731,9 +3776,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="54"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="55"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="66"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -3746,9 +3791,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="53"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="68"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -3756,24 +3801,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="51" t="s">
+      <c r="E116" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-      <c r="J116" s="51"/>
-      <c r="K116" s="51"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="49"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
+      <c r="J117" s="69"/>
+      <c r="K117" s="69"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -3792,72 +3837,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="50"/>
-      <c r="I121" s="50"/>
-      <c r="J121" s="50"/>
-      <c r="K121" s="50"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="48"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="48"/>
+      <c r="F122" s="57"/>
+      <c r="G122" s="57"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="57"/>
+      <c r="J122" s="57"/>
+      <c r="K122" s="57"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="50"/>
-      <c r="I123" s="50"/>
-      <c r="J123" s="50"/>
-      <c r="K123" s="50"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="57"/>
+      <c r="I124" s="57"/>
+      <c r="J124" s="57"/>
+      <c r="K124" s="57"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="50"/>
-      <c r="I125" s="50"/>
-      <c r="J125" s="50"/>
-      <c r="K125" s="50"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="48"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="48"/>
-      <c r="J126" s="48"/>
-      <c r="K126" s="48"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="57"/>
+      <c r="J126" s="57"/>
+      <c r="K126" s="57"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -3867,6 +3912,86 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -3881,86 +4006,6 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="26" priority="12">
@@ -4039,7 +4084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="0" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>COUNTA($F$30:$F$39)&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4127,14 +4172,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53037780-01CF-4E93-877F-FE606727D12F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FAE16-9FF0-48E2-BC72-13CE201986D1}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:K13"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" customWidth="1"/>
@@ -4151,31 +4208,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="67" t="str">
+      <c r="B2" s="51" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 2   |   </v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -4185,49 +4242,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="68" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="58">
+      <c r="B9" s="55">
         <v>1</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="58"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -4251,30 +4308,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - implementation d'a…</v>
@@ -4289,12 +4346,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -4305,12 +4362,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -4331,24 +4388,24 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="61"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - mis en place de mo…</v>
@@ -4363,14 +4420,14 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="71"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2 - mis en place d'un …</v>
@@ -4381,12 +4438,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="73"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
       <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4397,12 +4454,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="71"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
       <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4413,12 +4470,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="73"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
       <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4429,37 +4486,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="66" t="str">
+      <c r="J25" s="61" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>2 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="66"/>
+      <c r="K25" s="61"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="61"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -4484,8 +4541,12 @@
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
+      <c r="J28" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="P28" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -4504,8 +4565,12 @@
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
+      <c r="J29" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="P29" s="14">
         <f>P28+$P$27</f>
         <v>2.0833333333333332E-2</v>
@@ -4525,8 +4590,12 @@
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
+      <c r="J30" s="19">
+        <v>0.125</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="P30" s="14">
         <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
         <v>3.125E-2</v>
@@ -4562,8 +4631,12 @@
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
+      <c r="J32" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="P32" s="14">
         <f t="shared" si="1"/>
         <v>5.2083333333333329E-2</v>
@@ -4580,8 +4653,12 @@
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="25"/>
+      <c r="J33" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="P33" s="14">
         <f t="shared" si="1"/>
         <v>6.2499999999999993E-2</v>
@@ -4598,8 +4675,12 @@
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
+      <c r="J34" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="14">
         <f t="shared" si="1"/>
         <v>7.2916666666666657E-2</v>
@@ -4801,22 +4882,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="58">
+      <c r="B49" s="55">
         <v>2</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="58"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -4855,11 +4936,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="56"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="65"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -4868,11 +4949,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="57"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="63"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -4881,11 +4962,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="56"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="65"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -4894,11 +4975,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="57"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="63"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -4907,11 +4988,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="54"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="56"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="65"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -4920,11 +5001,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="57"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="63"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -4933,11 +5014,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="54"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="56"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="65"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -4946,11 +5027,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="57"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="63"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -4959,11 +5040,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="54"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="56"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="65"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -4972,11 +5053,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="57"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="63"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -4985,11 +5066,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="56"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="65"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -4998,11 +5079,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="57"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="63"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -5011,11 +5092,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="54"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="56"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="65"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -5024,11 +5105,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="57"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="63"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -5037,11 +5118,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="56"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="65"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -5050,11 +5131,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="57"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="63"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -5063,11 +5144,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="54"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="56"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="65"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -5076,11 +5157,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="57"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="63"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -5089,11 +5170,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="54"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="56"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="65"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -5102,11 +5183,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="57"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="63"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -5115,11 +5196,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="54"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="56"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="65"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -5128,11 +5209,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="57"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="63"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -5141,11 +5222,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="56"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="65"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -5154,11 +5235,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="57"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="63"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -5167,11 +5248,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="54"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="56"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="65"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -5180,11 +5261,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="57"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="63"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -5193,11 +5274,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="54"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="56"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="65"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -5206,11 +5287,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="57"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="63"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -5219,11 +5300,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="54"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="56"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="65"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -5232,11 +5313,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="57"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="63"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -5245,11 +5326,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="54"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="56"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="65"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -5258,11 +5339,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="57"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="63"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -5271,11 +5352,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="54"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="56"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="65"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -5284,11 +5365,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="57"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="63"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -5297,11 +5378,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="54"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="56"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="65"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -5310,11 +5391,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="57"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="63"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -5328,21 +5409,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="58">
+      <c r="B92" s="55">
         <v>3</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="58"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -5363,11 +5444,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="60" t="s">
+      <c r="G95" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -5384,9 +5465,9 @@
         <f>IF(ISBLANK(F33),"",F33)</f>
         <v>créer un module liste :</v>
       </c>
-      <c r="G96" s="54"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="55"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="66"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -5402,9 +5483,9 @@
         <f>IF(ISBLANK(F34),"",F34)</f>
         <v xml:space="preserve">option liste pointer, numeroté ou autre characteres separatifs </v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="53"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="68"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -5420,9 +5501,9 @@
         <f>IF(ISBLANK(F28),"",F28)</f>
         <v>implémenter ajout remove amis</v>
       </c>
-      <c r="G98" s="54"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="55"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="66"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -5438,9 +5519,9 @@
         <f>IF(ISBLANK(F29),"",F29)</f>
         <v>implémenter algorithme de recommendation amitié</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="53"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="68"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -5456,9 +5537,9 @@
         <f t="shared" si="2"/>
         <v>créer page modules plug-in ( calandar)</v>
       </c>
-      <c r="G100" s="54"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="55"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="66"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -5474,9 +5555,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="53"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="68"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -5492,9 +5573,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G102" s="54"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="55"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="66"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -5510,9 +5591,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="53"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="68"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -5528,9 +5609,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="54"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="55"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="66"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -5546,9 +5627,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="53"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="68"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -5564,9 +5645,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="54"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="55"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="66"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -5582,9 +5663,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="53"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="68"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -5598,9 +5679,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="54"/>
-      <c r="H108" s="50"/>
-      <c r="I108" s="55"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="66"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -5614,9 +5695,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="53"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="68"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -5629,9 +5710,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="54"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="55"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="66"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -5644,9 +5725,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="53"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="68"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -5659,9 +5740,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="54"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="55"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="66"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -5674,9 +5755,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="53"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="68"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -5684,24 +5765,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="51" t="s">
+      <c r="E116" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-      <c r="J116" s="51"/>
-      <c r="K116" s="51"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="49"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
+      <c r="J117" s="69"/>
+      <c r="K117" s="69"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -5720,72 +5801,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="50"/>
-      <c r="I121" s="50"/>
-      <c r="J121" s="50"/>
-      <c r="K121" s="50"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="48"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="48"/>
+      <c r="F122" s="57"/>
+      <c r="G122" s="57"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="57"/>
+      <c r="J122" s="57"/>
+      <c r="K122" s="57"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="50"/>
-      <c r="I123" s="50"/>
-      <c r="J123" s="50"/>
-      <c r="K123" s="50"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="57"/>
+      <c r="I124" s="57"/>
+      <c r="J124" s="57"/>
+      <c r="K124" s="57"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="50"/>
-      <c r="I125" s="50"/>
-      <c r="J125" s="50"/>
-      <c r="K125" s="50"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="48"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="48"/>
-      <c r="J126" s="48"/>
-      <c r="K126" s="48"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="57"/>
+      <c r="J126" s="57"/>
+      <c r="K126" s="57"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -5795,6 +5876,86 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -5809,94 +5970,14 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>COUNTA(F13:F15)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>COUNTA($F$19:$F$24)&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5915,16 +5996,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K45">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"incertain"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"difficile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"facile"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5957,17 +6038,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>COUNTA(F111:F113)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>COUNTA(F121:F126)&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>COUNTA($F$28:$F$39)&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6053,15 +6134,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736AB4E6-7F0E-4E0F-86D9-E515D490564F}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" customWidth="1"/>
@@ -6078,31 +6159,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="67" t="str">
+      <c r="B2" s="51" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 3  |   </v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -6112,49 +6193,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="68" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="58">
+      <c r="B9" s="55">
         <v>1</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="58"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -6178,30 +6259,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - maths and budget</v>
@@ -6216,12 +6297,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -6232,12 +6313,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -6258,24 +6339,24 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="61"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - implementation de …</v>
@@ -6290,14 +6371,14 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="71"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2 - venir a bout du pr…</v>
@@ -6308,10 +6389,10 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="74"/>
       <c r="K21" s="75"/>
       <c r="P21" s="3" t="str">
@@ -6324,10 +6405,10 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="76"/>
       <c r="K22" s="77"/>
       <c r="P22" s="3" t="str">
@@ -6340,10 +6421,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="74"/>
       <c r="K23" s="75"/>
       <c r="P23" s="3" t="str">
@@ -6356,10 +6437,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
       <c r="J24" s="76"/>
       <c r="K24" s="77"/>
       <c r="P24" s="3" t="str">
@@ -6368,25 +6449,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="66" t="str">
+      <c r="J25" s="61" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>2 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="66"/>
+      <c r="K25" s="61"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="61"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -6411,8 +6492,12 @@
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
+      <c r="J28" s="19">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="P28" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -6431,8 +6516,12 @@
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
+      <c r="J29" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="P29" s="14">
         <f>P28+$P$27</f>
         <v>2.0833333333333332E-2</v>
@@ -6452,8 +6541,12 @@
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
+      <c r="J30" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="P30" s="14">
         <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
         <v>3.125E-2</v>
@@ -6473,8 +6566,12 @@
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="25"/>
+      <c r="J31" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="P31" s="14">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
@@ -6724,22 +6821,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="58">
+      <c r="B49" s="55">
         <v>2</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="58"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -6778,11 +6875,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="56"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="65"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -6791,11 +6888,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="57"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="63"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -6804,11 +6901,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="56"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="65"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -6817,11 +6914,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="57"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="63"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -6830,11 +6927,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="54"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="56"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="65"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -6843,11 +6940,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="57"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="63"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -6856,11 +6953,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="54"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="56"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="65"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -6869,11 +6966,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="57"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="63"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -6882,11 +6979,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="54"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="56"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="65"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -6895,11 +6992,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="57"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="63"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -6908,11 +7005,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="56"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="65"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -6921,11 +7018,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="57"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="63"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -6934,11 +7031,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="54"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="56"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="65"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -6947,11 +7044,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="57"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="63"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -6960,11 +7057,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="56"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="65"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -6973,11 +7070,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="57"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="63"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -6986,11 +7083,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="54"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="56"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="65"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -6999,11 +7096,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="57"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="63"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -7012,11 +7109,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="54"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="56"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="65"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -7025,11 +7122,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="57"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="63"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -7038,11 +7135,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="54"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="56"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="65"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -7051,11 +7148,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="57"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="63"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -7064,11 +7161,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="56"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="65"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -7077,11 +7174,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="57"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="63"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -7090,11 +7187,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="54"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="56"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="65"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -7103,11 +7200,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="57"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="63"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -7116,11 +7213,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="54"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="56"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="65"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -7129,11 +7226,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="57"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="63"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -7142,11 +7239,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="54"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="56"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="65"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -7155,11 +7252,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="57"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="63"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -7168,11 +7265,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="54"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="56"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="65"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -7181,11 +7278,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="57"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="63"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -7194,11 +7291,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="54"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="56"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="65"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -7207,11 +7304,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="57"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="63"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -7220,11 +7317,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="54"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="56"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="65"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -7233,11 +7330,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="57"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="63"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -7251,21 +7348,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="58">
+      <c r="B92" s="55">
         <v>3</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="58"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -7286,11 +7383,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="60" t="s">
+      <c r="G95" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -7307,9 +7404,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>implementation module budget</v>
       </c>
-      <c r="G96" s="54"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="55"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="66"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -7325,9 +7422,9 @@
         <f t="shared" si="2"/>
         <v>implementation de projection depences futures</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="53"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="68"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -7343,9 +7440,9 @@
         <f t="shared" si="2"/>
         <v>ajout themes differents</v>
       </c>
-      <c r="G98" s="54"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="55"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="66"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -7361,9 +7458,9 @@
         <f t="shared" si="2"/>
         <v>ajout banque d'icon profiles</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="53"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="68"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -7376,9 +7473,9 @@
         <v/>
       </c>
       <c r="F100" s="31"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="55"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="66"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -7394,9 +7491,9 @@
         <f>IF(ISBLANK(F33),"",F33)</f>
         <v/>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="53"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="68"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -7412,9 +7509,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="54"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="55"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="66"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -7430,9 +7527,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="53"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="68"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -7448,9 +7545,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="54"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="55"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="66"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -7466,9 +7563,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="53"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="68"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -7484,9 +7581,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="54"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="55"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="66"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -7502,9 +7599,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="53"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="68"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -7518,9 +7615,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="54"/>
-      <c r="H108" s="50"/>
-      <c r="I108" s="55"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="66"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -7534,9 +7631,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="53"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="68"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -7549,9 +7646,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="54"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="55"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="66"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -7564,9 +7661,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="53"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="68"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -7579,9 +7676,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="54"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="55"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="66"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -7594,9 +7691,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="53"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="68"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -7604,24 +7701,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="51" t="s">
+      <c r="E116" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-      <c r="J116" s="51"/>
-      <c r="K116" s="51"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="49"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
+      <c r="J117" s="69"/>
+      <c r="K117" s="69"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -7640,72 +7737,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="50"/>
-      <c r="I121" s="50"/>
-      <c r="J121" s="50"/>
-      <c r="K121" s="50"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="48"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="48"/>
+      <c r="F122" s="57"/>
+      <c r="G122" s="57"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="57"/>
+      <c r="J122" s="57"/>
+      <c r="K122" s="57"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="50"/>
-      <c r="I123" s="50"/>
-      <c r="J123" s="50"/>
-      <c r="K123" s="50"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="57"/>
+      <c r="I124" s="57"/>
+      <c r="J124" s="57"/>
+      <c r="K124" s="57"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="50"/>
-      <c r="I125" s="50"/>
-      <c r="J125" s="50"/>
-      <c r="K125" s="50"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="48"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="48"/>
-      <c r="J126" s="48"/>
-      <c r="K126" s="48"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="57"/>
+      <c r="J126" s="57"/>
+      <c r="K126" s="57"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -7715,6 +7812,86 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -7729,99 +7906,19 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>COUNTA(F13:F15)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>COUNTA($F$19:$F$24)&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>COUNTA($F$28:$F$39)&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7840,16 +7937,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K45">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"incertain"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"difficile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"facile"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7882,12 +7979,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>COUNTA(F111:F113)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTA(F121:F126)&lt;2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/C61/sprint0/Plannification.xlsx
+++ b/C61/sprint0/Plannification.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jess\Documents\Cegep - CVM\Hiver 2023\Projet_Synthese\C61\sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F873C720-DDCD-4BAC-825F-30A83EB73FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525D20B7-FEBF-4EE5-9B23-B13535A0973F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sommaire" sheetId="5" r:id="rId3"/>
-    <sheet name="Sprint 2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sprint 3" sheetId="4" r:id="rId5"/>
+    <sheet name="Sprint 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Somaire" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="PrenomEtudiants">'Description du projet'!$N$36:$N$48</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
   <si>
     <t>Titre du projet</t>
   </si>
@@ -421,6 +421,30 @@
   <si>
     <t>installer node et react</t>
   </si>
+  <si>
+    <t>Nombre de taches</t>
+  </si>
+  <si>
+    <t>Temps total</t>
+  </si>
+  <si>
+    <t>Difficultée moyenne</t>
+  </si>
+  <si>
+    <t>sprint 1</t>
+  </si>
+  <si>
+    <t>sprint2</t>
+  </si>
+  <si>
+    <t>sprint3</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>33h</t>
+  </si>
 </sst>
 </file>
 
@@ -638,7 +662,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -733,12 +757,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -914,44 +953,57 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,40 +1017,35 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1006,14 +1053,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1033,6 +1072,10 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2194,7 +2237,7 @@
   <dimension ref="B2:Q127"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -2214,33 +2257,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="67" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 1   |   </v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -2250,49 +2293,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="55">
+      <c r="B9" s="58">
         <v>1</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="55"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2316,30 +2359,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - debuter le code mi…</v>
@@ -2354,12 +2397,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -2370,12 +2413,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -2396,24 +2439,24 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="61"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - mis en place de l'…</v>
@@ -2428,14 +2471,14 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="60"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2 - gestion d'utilisat…</v>
@@ -2446,12 +2489,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
       <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2462,12 +2505,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
       <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2478,12 +2521,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
       <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2494,37 +2537,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="61" t="str">
+      <c r="J25" s="66" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>2 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="61"/>
+      <c r="K25" s="66"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -2683,7 +2726,7 @@
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="19">
-        <v>2.0833333333333332E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K34" s="20" t="s">
         <v>25</v>
@@ -2793,7 +2836,7 @@
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
       <c r="J39" s="24">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K39" s="25" t="s">
         <v>22</v>
@@ -2918,22 +2961,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="55">
+      <c r="B49" s="58">
         <v>2</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="55"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -2972,11 +3015,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="64"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="65"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="56"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -2985,11 +3028,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="62"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="63"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="57"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -2998,11 +3041,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="65"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="56"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -3011,11 +3054,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="63"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="57"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -3024,11 +3067,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="65"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="56"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -3037,11 +3080,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="62"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="63"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="57"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -3050,11 +3093,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="65"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="56"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -3063,11 +3106,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="63"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="57"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -3076,11 +3119,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="65"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="56"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -3089,11 +3132,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="63"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="57"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -3102,11 +3145,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="65"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="56"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -3115,11 +3158,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="63"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="57"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -3128,11 +3171,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="65"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="56"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -3141,11 +3184,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="63"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="57"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -3154,11 +3197,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="65"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -3167,11 +3210,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
-      <c r="J68" s="63"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="57"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -3180,11 +3223,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="65"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -3193,11 +3236,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="63"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="57"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -3206,11 +3249,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="65"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="56"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -3219,11 +3262,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="63"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="57"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -3232,11 +3275,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="65"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="56"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -3245,11 +3288,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="63"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="57"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -3258,11 +3301,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="65"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="56"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -3271,11 +3314,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="63"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="57"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -3284,11 +3327,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="65"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="56"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -3297,11 +3340,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="63"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="57"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -3310,11 +3353,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="64"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="65"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="56"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -3323,11 +3366,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="63"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="57"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -3336,11 +3379,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="64"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="65"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="56"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -3349,11 +3392,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="57"/>
-      <c r="J82" s="63"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="57"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -3362,11 +3405,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="65"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="56"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -3375,11 +3418,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="63"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="57"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -3388,11 +3431,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="64"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="65"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="56"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -3401,11 +3444,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="63"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="57"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -3414,11 +3457,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="64"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="65"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="56"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -3427,11 +3470,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="63"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="57"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -3445,21 +3488,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="55">
+      <c r="B92" s="58">
         <v>3</v>
       </c>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
-      <c r="K92" s="52"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="55"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -3480,11 +3523,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="67" t="s">
+      <c r="G95" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -3501,9 +3544,9 @@
         <f>IF(ISBLANK(F30),"",F30)</f>
         <v>créer page enregistrement | loggin</v>
       </c>
-      <c r="G96" s="64"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="66"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="55"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -3519,9 +3562,9 @@
         <f>IF(ISBLANK(F34),"",F34)</f>
         <v xml:space="preserve">créer et lier la base de donnée </v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="57"/>
-      <c r="I97" s="68"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="53"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -3537,9 +3580,9 @@
         <f>IF(ISBLANK(F35),"",F35)</f>
         <v>créer page interface main</v>
       </c>
-      <c r="G98" s="64"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="66"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="55"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -3555,9 +3598,9 @@
         <f>IF(ISBLANK(F36),"",F36)</f>
         <v>implémenter fonction ajouter_module()</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="68"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="53"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -3573,9 +3616,9 @@
         <f>IF(ISBLANK(F37),"",F37)</f>
         <v>implémenter fonction enlever_module()</v>
       </c>
-      <c r="G100" s="64"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="66"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="55"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -3591,9 +3634,9 @@
         <f>IF(ISBLANK(F38),"",F38)</f>
         <v>implémenter fonction modifier()</v>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="68"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="53"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -3609,9 +3652,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G102" s="64"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="66"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="55"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -3627,9 +3670,9 @@
         <f>IF(ISBLANK(F39),"",F39)</f>
         <v>créer module texte vide</v>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="68"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="53"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -3645,9 +3688,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G104" s="64"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="66"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="55"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -3663,9 +3706,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="68"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="53"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -3681,9 +3724,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G106" s="64"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="66"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="55"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -3699,9 +3742,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="68"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="53"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -3715,9 +3758,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="64"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="66"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="55"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -3731,9 +3774,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="57"/>
-      <c r="I109" s="68"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="53"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -3746,9 +3789,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="64"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="66"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="55"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -3761,9 +3804,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="68"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="53"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -3776,9 +3819,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="64"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="66"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="55"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -3791,9 +3834,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="68"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="53"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -3801,24 +3844,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="56" t="s">
+      <c r="E116" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="56"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="69"/>
-      <c r="J117" s="69"/>
-      <c r="K117" s="69"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="49"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -3837,72 +3880,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
-      <c r="K121" s="48"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="50"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="57"/>
-      <c r="G122" s="57"/>
-      <c r="H122" s="57"/>
-      <c r="I122" s="57"/>
-      <c r="J122" s="57"/>
-      <c r="K122" s="57"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="48"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="57"/>
-      <c r="I124" s="57"/>
-      <c r="J124" s="57"/>
-      <c r="K124" s="57"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
-      <c r="J125" s="48"/>
-      <c r="K125" s="48"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="50"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
-      <c r="I126" s="57"/>
-      <c r="J126" s="57"/>
-      <c r="K126" s="57"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="48"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -3912,86 +3955,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -4006,6 +3969,86 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="26" priority="12">
@@ -4172,23 +4215,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53037780-01CF-4E93-877F-FE606727D12F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FAE16-9FF0-48E2-BC72-13CE201986D1}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -4208,31 +4239,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="67" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 2   |   </v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -4242,49 +4273,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="55">
+      <c r="B9" s="58">
         <v>1</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="55"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -4308,30 +4339,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - implementation d'a…</v>
@@ -4346,12 +4377,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -4362,12 +4393,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -4388,24 +4419,24 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="61"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="71"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - mis en place de mo…</v>
@@ -4420,14 +4451,14 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2 - mis en place d'un …</v>
@@ -4438,12 +4469,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="71"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="73"/>
       <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4454,12 +4485,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
       <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4470,12 +4501,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
       <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4486,37 +4517,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="61" t="str">
+      <c r="J25" s="66" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>2 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="61"/>
+      <c r="K25" s="66"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -4632,7 +4663,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="19">
-        <v>4.1666666666666664E-2</v>
+        <v>6.2499999999999993E-2</v>
       </c>
       <c r="K32" s="20" t="s">
         <v>23</v>
@@ -4654,7 +4685,7 @@
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="24">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K33" s="25" t="s">
         <v>22</v>
@@ -4676,7 +4707,7 @@
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="19">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K34" s="20" t="s">
         <v>22</v>
@@ -4882,22 +4913,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="55">
+      <c r="B49" s="58">
         <v>2</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="55"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -4936,11 +4967,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="64"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="65"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="56"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -4949,11 +4980,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="62"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="63"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="57"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -4962,11 +4993,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="65"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="56"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -4975,11 +5006,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="63"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="57"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -4988,11 +5019,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="65"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="56"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -5001,11 +5032,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="62"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="63"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="57"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -5014,11 +5045,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="65"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="56"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -5027,11 +5058,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="63"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="57"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -5040,11 +5071,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="65"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="56"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -5053,11 +5084,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="63"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="57"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -5066,11 +5097,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="65"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="56"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -5079,11 +5110,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="63"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="57"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -5092,11 +5123,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="65"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="56"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -5105,11 +5136,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="63"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="57"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -5118,11 +5149,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="65"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -5131,11 +5162,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
-      <c r="J68" s="63"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="57"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -5144,11 +5175,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="65"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -5157,11 +5188,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="63"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="57"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -5170,11 +5201,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="65"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="56"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -5183,11 +5214,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="63"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="57"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -5196,11 +5227,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="65"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="56"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -5209,11 +5240,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="63"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="57"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -5222,11 +5253,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="65"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="56"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -5235,11 +5266,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="63"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="57"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -5248,11 +5279,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="65"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="56"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -5261,11 +5292,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="63"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="57"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -5274,11 +5305,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="64"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="65"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="56"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -5287,11 +5318,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="63"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="57"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -5300,11 +5331,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="64"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="65"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="56"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -5313,11 +5344,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="57"/>
-      <c r="J82" s="63"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="57"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -5326,11 +5357,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="65"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="56"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -5339,11 +5370,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="63"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="57"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -5352,11 +5383,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="64"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="65"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="56"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -5365,11 +5396,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="63"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="57"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -5378,11 +5409,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="64"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="65"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="56"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -5391,11 +5422,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="63"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="57"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -5409,21 +5440,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="55">
+      <c r="B92" s="58">
         <v>3</v>
       </c>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
-      <c r="K92" s="52"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="55"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -5444,11 +5475,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="67" t="s">
+      <c r="G95" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -5465,9 +5496,9 @@
         <f>IF(ISBLANK(F33),"",F33)</f>
         <v>créer un module liste :</v>
       </c>
-      <c r="G96" s="64"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="66"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="55"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -5483,9 +5514,9 @@
         <f>IF(ISBLANK(F34),"",F34)</f>
         <v xml:space="preserve">option liste pointer, numeroté ou autre characteres separatifs </v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="57"/>
-      <c r="I97" s="68"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="53"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -5501,9 +5532,9 @@
         <f>IF(ISBLANK(F28),"",F28)</f>
         <v>implémenter ajout remove amis</v>
       </c>
-      <c r="G98" s="64"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="66"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="55"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -5519,9 +5550,9 @@
         <f>IF(ISBLANK(F29),"",F29)</f>
         <v>implémenter algorithme de recommendation amitié</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="68"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="53"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -5537,9 +5568,9 @@
         <f t="shared" si="2"/>
         <v>créer page modules plug-in ( calandar)</v>
       </c>
-      <c r="G100" s="64"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="66"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="55"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -5555,9 +5586,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="68"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="53"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -5573,9 +5604,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G102" s="64"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="66"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="55"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -5591,9 +5622,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="68"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="53"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -5609,9 +5640,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="64"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="66"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="55"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -5627,9 +5658,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="68"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="53"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -5645,9 +5676,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="64"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="66"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="55"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -5663,9 +5694,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="68"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="53"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -5679,9 +5710,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="64"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="66"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="55"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -5695,9 +5726,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="57"/>
-      <c r="I109" s="68"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="53"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -5710,9 +5741,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="64"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="66"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="55"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -5725,9 +5756,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="68"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="53"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -5740,9 +5771,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="64"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="66"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="55"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -5755,9 +5786,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="68"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="53"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -5765,24 +5796,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="56" t="s">
+      <c r="E116" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="56"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="69"/>
-      <c r="J117" s="69"/>
-      <c r="K117" s="69"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="49"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -5801,72 +5832,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
-      <c r="K121" s="48"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="50"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="57"/>
-      <c r="G122" s="57"/>
-      <c r="H122" s="57"/>
-      <c r="I122" s="57"/>
-      <c r="J122" s="57"/>
-      <c r="K122" s="57"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="48"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="57"/>
-      <c r="I124" s="57"/>
-      <c r="J124" s="57"/>
-      <c r="K124" s="57"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
-      <c r="J125" s="48"/>
-      <c r="K125" s="48"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="50"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
-      <c r="I126" s="57"/>
-      <c r="J126" s="57"/>
-      <c r="K126" s="57"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="48"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -5876,86 +5907,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -5970,6 +5921,86 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -6134,7 +6165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736AB4E6-7F0E-4E0F-86D9-E515D490564F}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
@@ -6159,31 +6190,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="67" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 3  |   </v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -6193,49 +6224,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="55">
+      <c r="B9" s="58">
         <v>1</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="55"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -6259,30 +6290,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
       <c r="P13" s="3" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - maths and budget</v>
@@ -6297,12 +6328,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -6313,12 +6344,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="P15" s="3" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -6339,24 +6370,24 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="61"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="71"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - implementation de …</v>
@@ -6371,14 +6402,14 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2 - venir a bout du pr…</v>
@@ -6389,10 +6420,10 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
       <c r="J21" s="74"/>
       <c r="K21" s="75"/>
       <c r="P21" s="3" t="str">
@@ -6405,10 +6436,10 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="76"/>
       <c r="K22" s="77"/>
       <c r="P22" s="3" t="str">
@@ -6421,10 +6452,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
       <c r="J23" s="74"/>
       <c r="K23" s="75"/>
       <c r="P23" s="3" t="str">
@@ -6437,10 +6468,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
       <c r="J24" s="76"/>
       <c r="K24" s="77"/>
       <c r="P24" s="3" t="str">
@@ -6449,25 +6480,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="61" t="str">
+      <c r="J25" s="66" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>2 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="61"/>
+      <c r="K25" s="66"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -6821,22 +6852,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="55">
+      <c r="B49" s="58">
         <v>2</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="55"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -6875,11 +6906,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="64"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="65"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="56"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -6888,11 +6919,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="62"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="63"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="57"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -6901,11 +6932,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="65"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="56"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -6914,11 +6945,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="63"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="57"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -6927,11 +6958,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="65"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="56"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -6940,11 +6971,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="62"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="63"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="57"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -6953,11 +6984,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="65"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="56"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -6966,11 +6997,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="63"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="57"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -6979,11 +7010,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="65"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="56"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -6992,11 +7023,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="63"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="57"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -7005,11 +7036,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="65"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="56"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -7018,11 +7049,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="63"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="57"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -7031,11 +7062,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="65"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="56"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -7044,11 +7075,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="63"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="57"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -7057,11 +7088,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="65"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -7070,11 +7101,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
-      <c r="J68" s="63"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="57"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -7083,11 +7114,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="65"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -7096,11 +7127,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="63"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="57"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -7109,11 +7140,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="65"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="56"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -7122,11 +7153,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="63"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="57"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -7135,11 +7166,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="65"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="56"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -7148,11 +7179,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="63"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="57"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -7161,11 +7192,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="65"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="56"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -7174,11 +7205,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="63"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="57"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -7187,11 +7218,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="65"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="56"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -7200,11 +7231,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="63"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="57"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -7213,11 +7244,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="64"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="65"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="56"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -7226,11 +7257,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="63"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="57"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -7239,11 +7270,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="64"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="65"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="56"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -7252,11 +7283,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="57"/>
-      <c r="J82" s="63"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="57"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -7265,11 +7296,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="65"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="56"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -7278,11 +7309,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="63"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="57"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -7291,11 +7322,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="64"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="65"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="56"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -7304,11 +7335,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="63"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="57"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -7317,11 +7348,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="64"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="65"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="56"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -7330,11 +7361,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="63"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="57"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -7348,21 +7379,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="55">
+      <c r="B92" s="58">
         <v>3</v>
       </c>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
-      <c r="K92" s="52"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="55"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -7383,11 +7414,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="67" t="s">
+      <c r="G95" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -7404,9 +7435,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>implementation module budget</v>
       </c>
-      <c r="G96" s="64"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="66"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="55"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -7422,9 +7453,9 @@
         <f t="shared" si="2"/>
         <v>implementation de projection depences futures</v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="57"/>
-      <c r="I97" s="68"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="53"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -7440,9 +7471,9 @@
         <f t="shared" si="2"/>
         <v>ajout themes differents</v>
       </c>
-      <c r="G98" s="64"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="66"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="55"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -7458,9 +7489,9 @@
         <f t="shared" si="2"/>
         <v>ajout banque d'icon profiles</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="68"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="53"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -7473,9 +7504,9 @@
         <v/>
       </c>
       <c r="F100" s="31"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="66"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="55"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -7491,9 +7522,9 @@
         <f>IF(ISBLANK(F33),"",F33)</f>
         <v/>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="68"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="53"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -7509,9 +7540,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="64"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="66"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="55"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -7527,9 +7558,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="68"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="53"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -7545,9 +7576,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="64"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="66"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="55"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -7563,9 +7594,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="68"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="53"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -7581,9 +7612,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="64"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="66"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="55"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -7599,9 +7630,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="68"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="53"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -7615,9 +7646,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="64"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="66"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="55"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -7631,9 +7662,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="57"/>
-      <c r="I109" s="68"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="53"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -7646,9 +7677,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="64"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="66"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="55"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -7661,9 +7692,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="68"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="53"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -7676,9 +7707,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="64"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="66"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="55"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -7691,9 +7722,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="68"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="53"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -7701,24 +7732,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="56" t="s">
+      <c r="E116" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="56"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="69"/>
-      <c r="J117" s="69"/>
-      <c r="K117" s="69"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="49"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -7737,72 +7768,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
-      <c r="K121" s="48"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="50"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="57"/>
-      <c r="G122" s="57"/>
-      <c r="H122" s="57"/>
-      <c r="I122" s="57"/>
-      <c r="J122" s="57"/>
-      <c r="K122" s="57"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="48"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="57"/>
-      <c r="I124" s="57"/>
-      <c r="J124" s="57"/>
-      <c r="K124" s="57"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
-      <c r="J125" s="48"/>
-      <c r="K125" s="48"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="50"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
-      <c r="I126" s="57"/>
-      <c r="J126" s="57"/>
-      <c r="K126" s="57"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="48"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -7812,86 +7843,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -7906,6 +7857,86 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -8068,4 +8099,108 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BCB64F-E39C-495F-A4DA-B9EE4DC4AE4D}">
+  <dimension ref="E12:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="5:12">
+      <c r="E12" s="79"/>
+      <c r="F12" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12">
+      <c r="E13" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="79">
+        <v>11</v>
+      </c>
+      <c r="G13" s="80">
+        <f>SUM('Sprint 1'!J28:J39)</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="H13" s="79"/>
+      <c r="I13">
+        <f ca="1">SUMIF('Sprint 1'!K28:K39,'Sprint 1'!K28,L13:L16)</f>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f ca="1">SUMIF('Sprint 1'!K28:K39,"moyenne",L13:L16)</f>
+        <v>7.5</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12">
+      <c r="E14" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="79">
+        <v>7</v>
+      </c>
+      <c r="G14" s="80">
+        <f>SUM('Sprint 2'!J28:J34)</f>
+        <v>0.39583333333333337</v>
+      </c>
+      <c r="H14" s="79"/>
+      <c r="L14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12">
+      <c r="E15" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="79">
+        <v>4</v>
+      </c>
+      <c r="G15" s="80">
+        <f>SUM('Sprint 3'!J28:J31)</f>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="H15" s="79"/>
+      <c r="L15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12">
+      <c r="E16" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="81">
+        <f>SUM(F13:F15)</f>
+        <v>22</v>
+      </c>
+      <c r="G16" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16">
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/C61/sprint0/Plannification.xlsx
+++ b/C61/sprint0/Plannification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jess\Documents\Cegep - CVM\Hiver 2023\Projet_Synthese\C61\sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525D20B7-FEBF-4EE5-9B23-B13535A0973F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A299C-F3E3-437B-9B19-540A0CFDB171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
   <si>
     <t>Titre du projet</t>
   </si>
@@ -445,11 +445,27 @@
   <si>
     <t>33h</t>
   </si>
+  <si>
+    <t>Nb Facile</t>
+  </si>
+  <si>
+    <t>nb moyenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nb difficile </t>
+  </si>
+  <si>
+    <t>nb incertain</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -662,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -772,12 +788,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1072,12 +1098,18 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2237,7 +2269,7 @@
   <dimension ref="B2:Q127"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -4219,7 +4251,7 @@
   <dimension ref="B2:Q127"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -8103,10 +8135,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BCB64F-E39C-495F-A4DA-B9EE4DC4AE4D}">
-  <dimension ref="E12:L16"/>
+  <dimension ref="C12:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8114,90 +8146,162 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="5:12">
-      <c r="E12" s="79"/>
-      <c r="F12" s="79" t="s">
+    <row r="12" spans="3:14">
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="I12" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="C13" s="81"/>
+      <c r="D13" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="E13" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="F13" s="81" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="5:12">
-      <c r="E13" s="79" t="s">
+      <c r="I13">
+        <f>COUNTIF('Sprint 1'!K28:K39,"facile")</f>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f>COUNTIF('Sprint 1'!K28:K39,"moyenne")</f>
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <f>COUNTIF('Sprint 1'!K28:K39,"difficile")</f>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f>COUNTIF('Sprint 1'!K28:K39,"incertain")</f>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14">
+      <c r="C14" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="79">
+      <c r="D14" s="81">
         <v>11</v>
       </c>
-      <c r="G13" s="80">
+      <c r="E14" s="82">
         <f>SUM('Sprint 1'!J28:J39)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13">
-        <f ca="1">SUMIF('Sprint 1'!K28:K39,'Sprint 1'!K28,L13:L16)</f>
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <f ca="1">SUMIF('Sprint 1'!K28:K39,"moyenne",L13:L16)</f>
-        <v>7.5</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="5:12">
-      <c r="E14" s="79" t="s">
+      <c r="F14" s="83">
+        <f>(I13 * N13 + J13*N14+K13*N15+L13*N16)/ 20</f>
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="I14">
+        <f>COUNTIF('Sprint 2'!K28:K34,"facile")</f>
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f>COUNTIF('Sprint 2'!K28:K34,"moyenne")</f>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f>COUNTIF('Sprint 2'!K28:K34,"difficile")</f>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f>COUNTIF('Sprint 2'!K28:K34,"incertain")</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14">
+      <c r="C15" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="79">
+      <c r="D15" s="81">
         <v>7</v>
       </c>
-      <c r="G14" s="80">
+      <c r="E15" s="84">
         <f>SUM('Sprint 2'!J28:J34)</f>
         <v>0.39583333333333337</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="L14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12">
-      <c r="E15" s="79" t="s">
+      <c r="F15" s="83">
+        <f>(I14 * N13 + J14*N14+K14*N15+L14*N16)/ 9.5</f>
+        <v>3.3684210526315788</v>
+      </c>
+      <c r="I15">
+        <f>COUNTIF('Sprint 3'!K28:K31,"facile")</f>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f>COUNTIF('Sprint 3'!K28:K31,"moyenne")</f>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f>COUNTIF('Sprint 3'!K28:K31,"difficile")</f>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f>COUNTIF('Sprint 3'!K28:K31,"incertain")</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14">
+      <c r="C16" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="79">
+      <c r="D16" s="81">
         <v>4</v>
       </c>
-      <c r="G15" s="80">
+      <c r="E16" s="84">
         <f>SUM('Sprint 3'!J28:J31)</f>
         <v>0.14583333333333331</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="L15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="5:12">
-      <c r="E16" s="81" t="s">
+      <c r="F16" s="83">
+        <f>(I15 * N13 + J15*N14+K15*N15+L15*N16)/ 9.5</f>
+        <v>1.7894736842105263</v>
+      </c>
+      <c r="N16">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="81">
-        <f>SUM(F13:F15)</f>
+      <c r="D17" s="78">
+        <f>SUM(D14:D16)</f>
         <v>22</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="E17" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="L16">
-        <v>7.5</v>
+      <c r="F17" s="86">
+        <f>AVERAGE(F14:F16)</f>
+        <v>2.8776315789473679</v>
       </c>
     </row>
   </sheetData>

--- a/C61/sprint0/Plannification.xlsx
+++ b/C61/sprint0/Plannification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jess\Documents\Cegep - CVM\Hiver 2023\Projet_Synthese\C61\sprint0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\Projet_Synthese\C61\sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A299C-F3E3-437B-9B19-540A0CFDB171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC252290-11A9-4157-A6E4-93AE3E71897D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{6D9C193E-B1F6-44A4-8A63-4956A2B5AECA}"/>
   </bookViews>
@@ -27,23 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>Titre du projet</t>
   </si>
@@ -457,6 +446,12 @@
   <si>
     <t>nb incertain</t>
   </si>
+  <si>
+    <t>valeur difficultees</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -464,9 +459,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +594,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -678,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -789,12 +791,123 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -803,7 +916,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -967,6 +1080,8 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -979,57 +1094,44 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,35 +1145,40 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1079,6 +1186,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1098,15 +1213,20 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
@@ -2212,45 +2332,45 @@
       <c r="A14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="39"/>
-      <c r="B15" s="46"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="39"/>
-      <c r="B16" s="46"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="39"/>
-      <c r="B17" s="46"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="39"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="48"/>
     </row>
     <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="39"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
     </row>
     <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="39"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="39"/>
-      <c r="B21" s="46"/>
+      <c r="B21" s="48"/>
     </row>
     <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="39"/>
-      <c r="B22" s="46"/>
+      <c r="B22" s="48"/>
     </row>
     <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="40"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2268,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB54021C-D73D-4DDD-9C45-FB24F7DA2170}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -2289,33 +2409,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="67" t="str">
+      <c r="B2" s="53" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 1   |   </v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -2325,49 +2445,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="68" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="58">
+      <c r="B9" s="57">
         <v>1</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="58"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2391,16 +2511,16 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8">
@@ -2429,12 +2549,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -2471,10 +2591,10 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="61"/>
+      <c r="K18" s="60"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8">
@@ -2487,8 +2607,8 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
       <c r="P19" s="3" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - mis en place de l'…</v>
@@ -2503,14 +2623,14 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2 - gestion d'utilisat…</v>
@@ -2525,8 +2645,8 @@
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
       <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2537,12 +2657,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
       <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2557,8 +2677,8 @@
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
       <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2569,37 +2689,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="66" t="str">
+      <c r="J25" s="63" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>2 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="66"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="61"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -2993,22 +3113,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="58">
+      <c r="B49" s="57">
         <v>2</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -3047,11 +3167,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="54"/>
+      <c r="F53" s="66"/>
       <c r="G53" s="50"/>
       <c r="H53" s="50"/>
       <c r="I53" s="50"/>
-      <c r="J53" s="56"/>
+      <c r="J53" s="67"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -3060,11 +3180,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="57"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="65"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -3073,11 +3193,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="54"/>
+      <c r="F55" s="66"/>
       <c r="G55" s="50"/>
       <c r="H55" s="50"/>
       <c r="I55" s="50"/>
-      <c r="J55" s="56"/>
+      <c r="J55" s="67"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -3086,11 +3206,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="57"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="65"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -3099,11 +3219,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="54"/>
+      <c r="F57" s="66"/>
       <c r="G57" s="50"/>
       <c r="H57" s="50"/>
       <c r="I57" s="50"/>
-      <c r="J57" s="56"/>
+      <c r="J57" s="67"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -3112,11 +3232,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="57"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="65"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -3125,11 +3245,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="54"/>
+      <c r="F59" s="66"/>
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
       <c r="I59" s="50"/>
-      <c r="J59" s="56"/>
+      <c r="J59" s="67"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -3138,11 +3258,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="57"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="65"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -3151,11 +3271,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="54"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="50"/>
       <c r="H61" s="50"/>
       <c r="I61" s="50"/>
-      <c r="J61" s="56"/>
+      <c r="J61" s="67"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -3164,11 +3284,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="57"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -3177,11 +3297,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="54"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="50"/>
       <c r="H63" s="50"/>
       <c r="I63" s="50"/>
-      <c r="J63" s="56"/>
+      <c r="J63" s="67"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -3190,11 +3310,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="57"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="65"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -3203,11 +3323,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="54"/>
+      <c r="F65" s="66"/>
       <c r="G65" s="50"/>
       <c r="H65" s="50"/>
       <c r="I65" s="50"/>
-      <c r="J65" s="56"/>
+      <c r="J65" s="67"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -3216,11 +3336,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="57"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="65"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -3229,11 +3349,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="54"/>
+      <c r="F67" s="66"/>
       <c r="G67" s="50"/>
       <c r="H67" s="50"/>
       <c r="I67" s="50"/>
-      <c r="J67" s="56"/>
+      <c r="J67" s="67"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -3242,11 +3362,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="57"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="65"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -3255,11 +3375,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="54"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="50"/>
       <c r="H69" s="50"/>
       <c r="I69" s="50"/>
-      <c r="J69" s="56"/>
+      <c r="J69" s="67"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -3268,11 +3388,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="57"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="65"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -3281,11 +3401,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="54"/>
+      <c r="F71" s="66"/>
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
       <c r="I71" s="50"/>
-      <c r="J71" s="56"/>
+      <c r="J71" s="67"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -3294,11 +3414,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="57"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="65"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -3307,11 +3427,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="54"/>
+      <c r="F73" s="66"/>
       <c r="G73" s="50"/>
       <c r="H73" s="50"/>
       <c r="I73" s="50"/>
-      <c r="J73" s="56"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -3320,11 +3440,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="57"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="65"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -3333,11 +3453,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="54"/>
+      <c r="F75" s="66"/>
       <c r="G75" s="50"/>
       <c r="H75" s="50"/>
       <c r="I75" s="50"/>
-      <c r="J75" s="56"/>
+      <c r="J75" s="67"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -3346,11 +3466,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="57"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="65"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -3359,11 +3479,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="54"/>
+      <c r="F77" s="66"/>
       <c r="G77" s="50"/>
       <c r="H77" s="50"/>
       <c r="I77" s="50"/>
-      <c r="J77" s="56"/>
+      <c r="J77" s="67"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -3372,11 +3492,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="57"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="65"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -3385,11 +3505,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="54"/>
+      <c r="F79" s="66"/>
       <c r="G79" s="50"/>
       <c r="H79" s="50"/>
       <c r="I79" s="50"/>
-      <c r="J79" s="56"/>
+      <c r="J79" s="67"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -3398,11 +3518,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="57"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="65"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -3411,11 +3531,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="54"/>
+      <c r="F81" s="66"/>
       <c r="G81" s="50"/>
       <c r="H81" s="50"/>
       <c r="I81" s="50"/>
-      <c r="J81" s="56"/>
+      <c r="J81" s="67"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -3424,11 +3544,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="57"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="65"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -3437,11 +3557,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="54"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="50"/>
       <c r="H83" s="50"/>
       <c r="I83" s="50"/>
-      <c r="J83" s="56"/>
+      <c r="J83" s="67"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -3450,11 +3570,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="57"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="65"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -3463,11 +3583,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="54"/>
+      <c r="F85" s="66"/>
       <c r="G85" s="50"/>
       <c r="H85" s="50"/>
       <c r="I85" s="50"/>
-      <c r="J85" s="56"/>
+      <c r="J85" s="67"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -3476,11 +3596,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="57"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="65"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -3489,11 +3609,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="54"/>
+      <c r="F87" s="66"/>
       <c r="G87" s="50"/>
       <c r="H87" s="50"/>
       <c r="I87" s="50"/>
-      <c r="J87" s="56"/>
+      <c r="J87" s="67"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -3502,11 +3622,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="57"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="65"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -3520,21 +3640,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="58">
+      <c r="B92" s="57">
         <v>3</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="58"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -3555,11 +3675,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="60" t="s">
+      <c r="G95" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="69"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -3576,9 +3696,9 @@
         <f>IF(ISBLANK(F30),"",F30)</f>
         <v>créer page enregistrement | loggin</v>
       </c>
-      <c r="G96" s="54"/>
+      <c r="G96" s="66"/>
       <c r="H96" s="50"/>
-      <c r="I96" s="55"/>
+      <c r="I96" s="68"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -3594,9 +3714,9 @@
         <f>IF(ISBLANK(F34),"",F34)</f>
         <v xml:space="preserve">créer et lier la base de donnée </v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="53"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="70"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -3612,9 +3732,9 @@
         <f>IF(ISBLANK(F35),"",F35)</f>
         <v>créer page interface main</v>
       </c>
-      <c r="G98" s="54"/>
+      <c r="G98" s="66"/>
       <c r="H98" s="50"/>
-      <c r="I98" s="55"/>
+      <c r="I98" s="68"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -3630,9 +3750,9 @@
         <f>IF(ISBLANK(F36),"",F36)</f>
         <v>implémenter fonction ajouter_module()</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="53"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="70"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -3648,9 +3768,9 @@
         <f>IF(ISBLANK(F37),"",F37)</f>
         <v>implémenter fonction enlever_module()</v>
       </c>
-      <c r="G100" s="54"/>
+      <c r="G100" s="66"/>
       <c r="H100" s="50"/>
-      <c r="I100" s="55"/>
+      <c r="I100" s="68"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -3666,9 +3786,9 @@
         <f>IF(ISBLANK(F38),"",F38)</f>
         <v>implémenter fonction modifier()</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="53"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="70"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -3684,9 +3804,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G102" s="54"/>
+      <c r="G102" s="66"/>
       <c r="H102" s="50"/>
-      <c r="I102" s="55"/>
+      <c r="I102" s="68"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -3702,9 +3822,9 @@
         <f>IF(ISBLANK(F39),"",F39)</f>
         <v>créer module texte vide</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="53"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="70"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -3720,9 +3840,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G104" s="54"/>
+      <c r="G104" s="66"/>
       <c r="H104" s="50"/>
-      <c r="I104" s="55"/>
+      <c r="I104" s="68"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -3738,9 +3858,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="53"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="70"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -3756,9 +3876,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G106" s="54"/>
+      <c r="G106" s="66"/>
       <c r="H106" s="50"/>
-      <c r="I106" s="55"/>
+      <c r="I106" s="68"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -3774,9 +3894,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="53"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="70"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -3790,9 +3910,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="54"/>
+      <c r="G108" s="66"/>
       <c r="H108" s="50"/>
-      <c r="I108" s="55"/>
+      <c r="I108" s="68"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -3806,9 +3926,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="53"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="70"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -3821,9 +3941,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="54"/>
+      <c r="G110" s="66"/>
       <c r="H110" s="50"/>
-      <c r="I110" s="55"/>
+      <c r="I110" s="68"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -3836,9 +3956,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="53"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="70"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -3851,9 +3971,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="54"/>
+      <c r="G112" s="66"/>
       <c r="H112" s="50"/>
-      <c r="I112" s="55"/>
+      <c r="I112" s="68"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -3866,9 +3986,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="53"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -3876,24 +3996,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="51" t="s">
+      <c r="E116" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-      <c r="J116" s="51"/>
-      <c r="K116" s="51"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="49"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -3924,12 +4044,12 @@
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="48"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="59"/>
+      <c r="I122" s="59"/>
+      <c r="J122" s="59"/>
+      <c r="K122" s="59"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
@@ -3948,12 +4068,12 @@
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="59"/>
+      <c r="I124" s="59"/>
+      <c r="J124" s="59"/>
+      <c r="K124" s="59"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
@@ -3972,12 +4092,12 @@
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="48"/>
-      <c r="J126" s="48"/>
-      <c r="K126" s="48"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="59"/>
+      <c r="I126" s="59"/>
+      <c r="J126" s="59"/>
+      <c r="K126" s="59"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -3987,6 +4107,86 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -4001,86 +4201,6 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="26" priority="12">
@@ -4250,8 +4370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FAE16-9FF0-48E2-BC72-13CE201986D1}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -4271,31 +4391,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="67" t="str">
+      <c r="B2" s="53" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 2   |   </v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -4305,49 +4425,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="68" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="58">
+      <c r="B9" s="57">
         <v>1</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="58"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -4371,16 +4491,16 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8">
@@ -4409,12 +4529,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -4451,10 +4571,10 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="61"/>
+      <c r="K18" s="60"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8">
@@ -4483,14 +4603,14 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="71"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="75"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2 - mis en place d'un …</v>
@@ -4517,12 +4637,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="71"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="75"/>
       <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4549,37 +4669,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75"/>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="66" t="str">
+      <c r="J25" s="63" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>2 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="66"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="61"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -4945,22 +5065,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="58">
+      <c r="B49" s="57">
         <v>2</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -4999,11 +5119,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="54"/>
+      <c r="F53" s="66"/>
       <c r="G53" s="50"/>
       <c r="H53" s="50"/>
       <c r="I53" s="50"/>
-      <c r="J53" s="56"/>
+      <c r="J53" s="67"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -5012,11 +5132,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="57"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="65"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -5025,11 +5145,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="54"/>
+      <c r="F55" s="66"/>
       <c r="G55" s="50"/>
       <c r="H55" s="50"/>
       <c r="I55" s="50"/>
-      <c r="J55" s="56"/>
+      <c r="J55" s="67"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -5038,11 +5158,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="57"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="65"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -5051,11 +5171,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="54"/>
+      <c r="F57" s="66"/>
       <c r="G57" s="50"/>
       <c r="H57" s="50"/>
       <c r="I57" s="50"/>
-      <c r="J57" s="56"/>
+      <c r="J57" s="67"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -5064,11 +5184,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="57"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="65"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -5077,11 +5197,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="54"/>
+      <c r="F59" s="66"/>
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
       <c r="I59" s="50"/>
-      <c r="J59" s="56"/>
+      <c r="J59" s="67"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -5090,11 +5210,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="57"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="65"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -5103,11 +5223,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="54"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="50"/>
       <c r="H61" s="50"/>
       <c r="I61" s="50"/>
-      <c r="J61" s="56"/>
+      <c r="J61" s="67"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -5116,11 +5236,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="57"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -5129,11 +5249,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="54"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="50"/>
       <c r="H63" s="50"/>
       <c r="I63" s="50"/>
-      <c r="J63" s="56"/>
+      <c r="J63" s="67"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -5142,11 +5262,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="57"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="65"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -5155,11 +5275,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="54"/>
+      <c r="F65" s="66"/>
       <c r="G65" s="50"/>
       <c r="H65" s="50"/>
       <c r="I65" s="50"/>
-      <c r="J65" s="56"/>
+      <c r="J65" s="67"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -5168,11 +5288,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="57"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="65"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -5181,11 +5301,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="54"/>
+      <c r="F67" s="66"/>
       <c r="G67" s="50"/>
       <c r="H67" s="50"/>
       <c r="I67" s="50"/>
-      <c r="J67" s="56"/>
+      <c r="J67" s="67"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -5194,11 +5314,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="57"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="65"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -5207,11 +5327,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="54"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="50"/>
       <c r="H69" s="50"/>
       <c r="I69" s="50"/>
-      <c r="J69" s="56"/>
+      <c r="J69" s="67"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -5220,11 +5340,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="57"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="65"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -5233,11 +5353,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="54"/>
+      <c r="F71" s="66"/>
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
       <c r="I71" s="50"/>
-      <c r="J71" s="56"/>
+      <c r="J71" s="67"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -5246,11 +5366,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="57"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="65"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -5259,11 +5379,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="54"/>
+      <c r="F73" s="66"/>
       <c r="G73" s="50"/>
       <c r="H73" s="50"/>
       <c r="I73" s="50"/>
-      <c r="J73" s="56"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -5272,11 +5392,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="57"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="65"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -5285,11 +5405,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="54"/>
+      <c r="F75" s="66"/>
       <c r="G75" s="50"/>
       <c r="H75" s="50"/>
       <c r="I75" s="50"/>
-      <c r="J75" s="56"/>
+      <c r="J75" s="67"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -5298,11 +5418,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="57"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="65"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -5311,11 +5431,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="54"/>
+      <c r="F77" s="66"/>
       <c r="G77" s="50"/>
       <c r="H77" s="50"/>
       <c r="I77" s="50"/>
-      <c r="J77" s="56"/>
+      <c r="J77" s="67"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -5324,11 +5444,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="57"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="65"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -5337,11 +5457,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="54"/>
+      <c r="F79" s="66"/>
       <c r="G79" s="50"/>
       <c r="H79" s="50"/>
       <c r="I79" s="50"/>
-      <c r="J79" s="56"/>
+      <c r="J79" s="67"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -5350,11 +5470,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="57"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="65"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -5363,11 +5483,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="54"/>
+      <c r="F81" s="66"/>
       <c r="G81" s="50"/>
       <c r="H81" s="50"/>
       <c r="I81" s="50"/>
-      <c r="J81" s="56"/>
+      <c r="J81" s="67"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -5376,11 +5496,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="57"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="65"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -5389,11 +5509,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="54"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="50"/>
       <c r="H83" s="50"/>
       <c r="I83" s="50"/>
-      <c r="J83" s="56"/>
+      <c r="J83" s="67"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -5402,11 +5522,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="57"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="65"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -5415,11 +5535,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="54"/>
+      <c r="F85" s="66"/>
       <c r="G85" s="50"/>
       <c r="H85" s="50"/>
       <c r="I85" s="50"/>
-      <c r="J85" s="56"/>
+      <c r="J85" s="67"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -5428,11 +5548,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="57"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="65"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -5441,11 +5561,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="54"/>
+      <c r="F87" s="66"/>
       <c r="G87" s="50"/>
       <c r="H87" s="50"/>
       <c r="I87" s="50"/>
-      <c r="J87" s="56"/>
+      <c r="J87" s="67"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -5454,11 +5574,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="57"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="65"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -5472,21 +5592,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="58">
+      <c r="B92" s="57">
         <v>3</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="58"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -5507,11 +5627,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="60" t="s">
+      <c r="G95" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="69"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -5528,9 +5648,9 @@
         <f>IF(ISBLANK(F33),"",F33)</f>
         <v>créer un module liste :</v>
       </c>
-      <c r="G96" s="54"/>
+      <c r="G96" s="66"/>
       <c r="H96" s="50"/>
-      <c r="I96" s="55"/>
+      <c r="I96" s="68"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -5546,9 +5666,9 @@
         <f>IF(ISBLANK(F34),"",F34)</f>
         <v xml:space="preserve">option liste pointer, numeroté ou autre characteres separatifs </v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="53"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="70"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -5564,9 +5684,9 @@
         <f>IF(ISBLANK(F28),"",F28)</f>
         <v>implémenter ajout remove amis</v>
       </c>
-      <c r="G98" s="54"/>
+      <c r="G98" s="66"/>
       <c r="H98" s="50"/>
-      <c r="I98" s="55"/>
+      <c r="I98" s="68"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -5582,9 +5702,9 @@
         <f>IF(ISBLANK(F29),"",F29)</f>
         <v>implémenter algorithme de recommendation amitié</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="53"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="70"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -5600,9 +5720,9 @@
         <f t="shared" si="2"/>
         <v>créer page modules plug-in ( calandar)</v>
       </c>
-      <c r="G100" s="54"/>
+      <c r="G100" s="66"/>
       <c r="H100" s="50"/>
-      <c r="I100" s="55"/>
+      <c r="I100" s="68"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -5618,9 +5738,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="53"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="70"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -5636,9 +5756,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G102" s="54"/>
+      <c r="G102" s="66"/>
       <c r="H102" s="50"/>
-      <c r="I102" s="55"/>
+      <c r="I102" s="68"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -5654,9 +5774,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="53"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="70"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -5672,9 +5792,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="54"/>
+      <c r="G104" s="66"/>
       <c r="H104" s="50"/>
-      <c r="I104" s="55"/>
+      <c r="I104" s="68"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -5690,9 +5810,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="53"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="70"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -5708,9 +5828,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="54"/>
+      <c r="G106" s="66"/>
       <c r="H106" s="50"/>
-      <c r="I106" s="55"/>
+      <c r="I106" s="68"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -5726,9 +5846,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="53"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="70"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -5742,9 +5862,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="54"/>
+      <c r="G108" s="66"/>
       <c r="H108" s="50"/>
-      <c r="I108" s="55"/>
+      <c r="I108" s="68"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -5758,9 +5878,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="53"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="70"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -5773,9 +5893,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="54"/>
+      <c r="G110" s="66"/>
       <c r="H110" s="50"/>
-      <c r="I110" s="55"/>
+      <c r="I110" s="68"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -5788,9 +5908,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="53"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="70"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -5803,9 +5923,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="54"/>
+      <c r="G112" s="66"/>
       <c r="H112" s="50"/>
-      <c r="I112" s="55"/>
+      <c r="I112" s="68"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -5818,9 +5938,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="53"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -5828,24 +5948,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="51" t="s">
+      <c r="E116" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-      <c r="J116" s="51"/>
-      <c r="K116" s="51"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="49"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -5876,12 +5996,12 @@
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="48"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="59"/>
+      <c r="I122" s="59"/>
+      <c r="J122" s="59"/>
+      <c r="K122" s="59"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
@@ -5900,12 +6020,12 @@
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="59"/>
+      <c r="I124" s="59"/>
+      <c r="J124" s="59"/>
+      <c r="K124" s="59"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
@@ -5924,12 +6044,12 @@
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="48"/>
-      <c r="J126" s="48"/>
-      <c r="K126" s="48"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="59"/>
+      <c r="I126" s="59"/>
+      <c r="J126" s="59"/>
+      <c r="K126" s="59"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -5939,6 +6059,86 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -5953,86 +6153,6 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -6222,31 +6342,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="67" t="str">
+      <c r="B2" s="53" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v xml:space="preserve">Sprint 3  |   </v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -6256,49 +6376,49 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="2:17" ht="7.7" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="68" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="58">
+      <c r="B9" s="57">
         <v>1</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="58"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -6322,16 +6442,16 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="8">
@@ -6360,12 +6480,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="P14" s="3" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -6402,10 +6522,10 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="61"/>
+      <c r="K18" s="60"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="8">
@@ -6434,14 +6554,14 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="71"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="75"/>
       <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2 - venir a bout du pr…</v>
@@ -6456,8 +6576,8 @@
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
       <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6468,12 +6588,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
       <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6488,8 +6608,8 @@
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
       <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6500,37 +6620,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="79"/>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="66" t="str">
+      <c r="J25" s="63" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>2 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="66"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="61"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
@@ -6884,22 +7004,22 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="58">
+      <c r="B49" s="57">
         <v>2</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
@@ -6938,11 +7058,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="54"/>
+      <c r="F53" s="66"/>
       <c r="G53" s="50"/>
       <c r="H53" s="50"/>
       <c r="I53" s="50"/>
-      <c r="J53" s="56"/>
+      <c r="J53" s="67"/>
       <c r="K53" s="28"/>
       <c r="P53" s="29"/>
     </row>
@@ -6951,11 +7071,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="57"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="65"/>
       <c r="K54" s="30"/>
       <c r="P54" s="14"/>
     </row>
@@ -6964,11 +7084,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="54"/>
+      <c r="F55" s="66"/>
       <c r="G55" s="50"/>
       <c r="H55" s="50"/>
       <c r="I55" s="50"/>
-      <c r="J55" s="56"/>
+      <c r="J55" s="67"/>
       <c r="K55" s="28"/>
       <c r="P55" s="14"/>
     </row>
@@ -6977,11 +7097,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="57"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="65"/>
       <c r="K56" s="30"/>
       <c r="P56" s="14"/>
     </row>
@@ -6990,11 +7110,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="54"/>
+      <c r="F57" s="66"/>
       <c r="G57" s="50"/>
       <c r="H57" s="50"/>
       <c r="I57" s="50"/>
-      <c r="J57" s="56"/>
+      <c r="J57" s="67"/>
       <c r="K57" s="28"/>
       <c r="P57" s="14"/>
     </row>
@@ -7003,11 +7123,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="57"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="65"/>
       <c r="K58" s="30"/>
       <c r="P58" s="14"/>
     </row>
@@ -7016,11 +7136,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="54"/>
+      <c r="F59" s="66"/>
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
       <c r="I59" s="50"/>
-      <c r="J59" s="56"/>
+      <c r="J59" s="67"/>
       <c r="K59" s="28"/>
       <c r="P59" s="14"/>
     </row>
@@ -7029,11 +7149,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="57"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="65"/>
       <c r="K60" s="30"/>
       <c r="P60" s="14"/>
     </row>
@@ -7042,11 +7162,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="54"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="50"/>
       <c r="H61" s="50"/>
       <c r="I61" s="50"/>
-      <c r="J61" s="56"/>
+      <c r="J61" s="67"/>
       <c r="K61" s="28"/>
       <c r="P61" s="14"/>
     </row>
@@ -7055,11 +7175,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="57"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="30"/>
       <c r="P62" s="14"/>
     </row>
@@ -7068,11 +7188,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="54"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="50"/>
       <c r="H63" s="50"/>
       <c r="I63" s="50"/>
-      <c r="J63" s="56"/>
+      <c r="J63" s="67"/>
       <c r="K63" s="28"/>
       <c r="P63" s="14"/>
     </row>
@@ -7081,11 +7201,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="57"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="65"/>
       <c r="K64" s="30"/>
       <c r="P64" s="14"/>
     </row>
@@ -7094,11 +7214,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="54"/>
+      <c r="F65" s="66"/>
       <c r="G65" s="50"/>
       <c r="H65" s="50"/>
       <c r="I65" s="50"/>
-      <c r="J65" s="56"/>
+      <c r="J65" s="67"/>
       <c r="K65" s="28"/>
       <c r="P65" s="14"/>
     </row>
@@ -7107,11 +7227,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="57"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="65"/>
       <c r="K66" s="30"/>
       <c r="P66" s="14"/>
     </row>
@@ -7120,11 +7240,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="54"/>
+      <c r="F67" s="66"/>
       <c r="G67" s="50"/>
       <c r="H67" s="50"/>
       <c r="I67" s="50"/>
-      <c r="J67" s="56"/>
+      <c r="J67" s="67"/>
       <c r="K67" s="28"/>
       <c r="P67" s="14"/>
     </row>
@@ -7133,11 +7253,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="57"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="65"/>
       <c r="K68" s="30"/>
       <c r="P68" s="14"/>
     </row>
@@ -7146,11 +7266,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="54"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="50"/>
       <c r="H69" s="50"/>
       <c r="I69" s="50"/>
-      <c r="J69" s="56"/>
+      <c r="J69" s="67"/>
       <c r="K69" s="28"/>
       <c r="P69" s="14"/>
     </row>
@@ -7159,11 +7279,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="57"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="65"/>
       <c r="K70" s="30"/>
       <c r="P70" s="14"/>
     </row>
@@ -7172,11 +7292,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="54"/>
+      <c r="F71" s="66"/>
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
       <c r="I71" s="50"/>
-      <c r="J71" s="56"/>
+      <c r="J71" s="67"/>
       <c r="K71" s="28"/>
       <c r="P71" s="14"/>
     </row>
@@ -7185,11 +7305,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="57"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="65"/>
       <c r="K72" s="30"/>
       <c r="P72" s="14"/>
     </row>
@@ -7198,11 +7318,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="54"/>
+      <c r="F73" s="66"/>
       <c r="G73" s="50"/>
       <c r="H73" s="50"/>
       <c r="I73" s="50"/>
-      <c r="J73" s="56"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="28"/>
       <c r="P73" s="14"/>
     </row>
@@ -7211,11 +7331,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="57"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="65"/>
       <c r="K74" s="30"/>
       <c r="P74" s="14"/>
     </row>
@@ -7224,11 +7344,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="54"/>
+      <c r="F75" s="66"/>
       <c r="G75" s="50"/>
       <c r="H75" s="50"/>
       <c r="I75" s="50"/>
-      <c r="J75" s="56"/>
+      <c r="J75" s="67"/>
       <c r="K75" s="28"/>
       <c r="P75" s="14"/>
     </row>
@@ -7237,11 +7357,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="57"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="65"/>
       <c r="K76" s="30"/>
       <c r="P76" s="14"/>
     </row>
@@ -7250,11 +7370,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="54"/>
+      <c r="F77" s="66"/>
       <c r="G77" s="50"/>
       <c r="H77" s="50"/>
       <c r="I77" s="50"/>
-      <c r="J77" s="56"/>
+      <c r="J77" s="67"/>
       <c r="K77" s="28"/>
       <c r="P77" s="14"/>
     </row>
@@ -7263,11 +7383,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="57"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="65"/>
       <c r="K78" s="30"/>
       <c r="P78" s="14"/>
     </row>
@@ -7276,11 +7396,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="54"/>
+      <c r="F79" s="66"/>
       <c r="G79" s="50"/>
       <c r="H79" s="50"/>
       <c r="I79" s="50"/>
-      <c r="J79" s="56"/>
+      <c r="J79" s="67"/>
       <c r="K79" s="28"/>
       <c r="P79" s="14"/>
     </row>
@@ -7289,11 +7409,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="57"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="65"/>
       <c r="K80" s="30"/>
       <c r="P80" s="14"/>
     </row>
@@ -7302,11 +7422,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="54"/>
+      <c r="F81" s="66"/>
       <c r="G81" s="50"/>
       <c r="H81" s="50"/>
       <c r="I81" s="50"/>
-      <c r="J81" s="56"/>
+      <c r="J81" s="67"/>
       <c r="K81" s="28"/>
       <c r="P81" s="14"/>
     </row>
@@ -7315,11 +7435,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="57"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="65"/>
       <c r="K82" s="30"/>
       <c r="P82" s="14"/>
     </row>
@@ -7328,11 +7448,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="54"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="50"/>
       <c r="H83" s="50"/>
       <c r="I83" s="50"/>
-      <c r="J83" s="56"/>
+      <c r="J83" s="67"/>
       <c r="K83" s="28"/>
       <c r="P83" s="14"/>
     </row>
@@ -7341,11 +7461,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="57"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="65"/>
       <c r="K84" s="30"/>
       <c r="P84" s="14"/>
     </row>
@@ -7354,11 +7474,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="54"/>
+      <c r="F85" s="66"/>
       <c r="G85" s="50"/>
       <c r="H85" s="50"/>
       <c r="I85" s="50"/>
-      <c r="J85" s="56"/>
+      <c r="J85" s="67"/>
       <c r="K85" s="28"/>
       <c r="P85" s="14"/>
     </row>
@@ -7367,11 +7487,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="57"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="65"/>
       <c r="K86" s="30"/>
       <c r="P86" s="14"/>
     </row>
@@ -7380,11 +7500,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="54"/>
+      <c r="F87" s="66"/>
       <c r="G87" s="50"/>
       <c r="H87" s="50"/>
       <c r="I87" s="50"/>
-      <c r="J87" s="56"/>
+      <c r="J87" s="67"/>
       <c r="K87" s="28"/>
       <c r="P87" s="14"/>
     </row>
@@ -7393,11 +7513,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="57"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="65"/>
       <c r="K88" s="30"/>
       <c r="P88" s="14"/>
     </row>
@@ -7411,21 +7531,21 @@
       <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="58">
+      <c r="B92" s="57">
         <v>3</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="58"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="6" t="s">
         <v>30</v>
       </c>
@@ -7446,11 +7566,11 @@
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="60" t="s">
+      <c r="G95" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="69"/>
       <c r="J95" s="27" t="s">
         <v>34</v>
       </c>
@@ -7467,9 +7587,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>implementation module budget</v>
       </c>
-      <c r="G96" s="54"/>
+      <c r="G96" s="66"/>
       <c r="H96" s="50"/>
-      <c r="I96" s="55"/>
+      <c r="I96" s="68"/>
       <c r="J96" s="32"/>
       <c r="K96" s="33"/>
       <c r="P96" s="15">
@@ -7485,9 +7605,9 @@
         <f t="shared" si="2"/>
         <v>implementation de projection depences futures</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="53"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="70"/>
       <c r="J97" s="35"/>
       <c r="K97" s="36"/>
       <c r="P97" s="15">
@@ -7503,9 +7623,9 @@
         <f t="shared" si="2"/>
         <v>ajout themes differents</v>
       </c>
-      <c r="G98" s="54"/>
+      <c r="G98" s="66"/>
       <c r="H98" s="50"/>
-      <c r="I98" s="55"/>
+      <c r="I98" s="68"/>
       <c r="J98" s="32"/>
       <c r="K98" s="33"/>
       <c r="P98" s="15">
@@ -7521,9 +7641,9 @@
         <f t="shared" si="2"/>
         <v>ajout banque d'icon profiles</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="53"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="70"/>
       <c r="J99" s="35"/>
       <c r="K99" s="36"/>
       <c r="P99" s="15">
@@ -7536,9 +7656,9 @@
         <v/>
       </c>
       <c r="F100" s="31"/>
-      <c r="G100" s="54"/>
+      <c r="G100" s="66"/>
       <c r="H100" s="50"/>
-      <c r="I100" s="55"/>
+      <c r="I100" s="68"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
       <c r="P100" s="15">
@@ -7554,9 +7674,9 @@
         <f>IF(ISBLANK(F33),"",F33)</f>
         <v/>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="53"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="70"/>
       <c r="J101" s="35"/>
       <c r="K101" s="36"/>
       <c r="P101" s="15">
@@ -7572,9 +7692,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="54"/>
+      <c r="G102" s="66"/>
       <c r="H102" s="50"/>
-      <c r="I102" s="55"/>
+      <c r="I102" s="68"/>
       <c r="J102" s="32"/>
       <c r="K102" s="33"/>
       <c r="P102" s="15">
@@ -7590,9 +7710,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="53"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="70"/>
       <c r="J103" s="35"/>
       <c r="K103" s="36"/>
       <c r="P103" s="15">
@@ -7608,9 +7728,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="54"/>
+      <c r="G104" s="66"/>
       <c r="H104" s="50"/>
-      <c r="I104" s="55"/>
+      <c r="I104" s="68"/>
       <c r="J104" s="32"/>
       <c r="K104" s="33"/>
       <c r="P104" s="15">
@@ -7626,9 +7746,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="53"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="70"/>
       <c r="J105" s="35"/>
       <c r="K105" s="36"/>
       <c r="P105" s="15">
@@ -7644,9 +7764,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="54"/>
+      <c r="G106" s="66"/>
       <c r="H106" s="50"/>
-      <c r="I106" s="55"/>
+      <c r="I106" s="68"/>
       <c r="J106" s="32"/>
       <c r="K106" s="33"/>
       <c r="P106" s="15">
@@ -7662,9 +7782,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="53"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="70"/>
       <c r="J107" s="35"/>
       <c r="K107" s="36"/>
       <c r="P107" s="15"/>
@@ -7678,9 +7798,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="54"/>
+      <c r="G108" s="66"/>
       <c r="H108" s="50"/>
-      <c r="I108" s="55"/>
+      <c r="I108" s="68"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33"/>
       <c r="P108" s="15"/>
@@ -7694,9 +7814,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="53"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="70"/>
       <c r="J109" s="35"/>
       <c r="K109" s="36"/>
     </row>
@@ -7709,9 +7829,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="54"/>
+      <c r="G110" s="66"/>
       <c r="H110" s="50"/>
-      <c r="I110" s="55"/>
+      <c r="I110" s="68"/>
       <c r="J110" s="32"/>
       <c r="K110" s="33"/>
     </row>
@@ -7724,9 +7844,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="53"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="70"/>
       <c r="J111" s="35"/>
       <c r="K111" s="36"/>
     </row>
@@ -7739,9 +7859,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="54"/>
+      <c r="G112" s="66"/>
       <c r="H112" s="50"/>
-      <c r="I112" s="55"/>
+      <c r="I112" s="68"/>
       <c r="J112" s="32"/>
       <c r="K112" s="33"/>
     </row>
@@ -7754,9 +7874,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="53"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="35"/>
       <c r="K113" s="36"/>
     </row>
@@ -7764,24 +7884,24 @@
       <c r="K114" s="10"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="51" t="s">
+      <c r="E116" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-      <c r="J116" s="51"/>
-      <c r="K116" s="51"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="49"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="11" t="s">
@@ -7812,12 +7932,12 @@
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="48"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="59"/>
+      <c r="I122" s="59"/>
+      <c r="J122" s="59"/>
+      <c r="K122" s="59"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="8" t="str">
@@ -7836,12 +7956,12 @@
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="59"/>
+      <c r="I124" s="59"/>
+      <c r="J124" s="59"/>
+      <c r="K124" s="59"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="8" t="str">
@@ -7860,12 +7980,12 @@
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="48"/>
-      <c r="J126" s="48"/>
-      <c r="K126" s="48"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="59"/>
+      <c r="I126" s="59"/>
+      <c r="J126" s="59"/>
+      <c r="K126" s="59"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="10" t="str">
@@ -7875,6 +7995,86 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B2:K2"/>
@@ -7889,86 +8089,6 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -8135,176 +8255,191 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BCB64F-E39C-495F-A4DA-B9EE4DC4AE4D}">
-  <dimension ref="C12:N17"/>
+  <dimension ref="C9:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="3:14">
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="I12" s="79" t="s">
+    <row r="9" spans="3:14">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="15.75" thickBot="1">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="3:14" ht="23.25">
+      <c r="C13" s="85"/>
+      <c r="D13" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J13" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="79" t="s">
+      <c r="K13" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="79" t="s">
+      <c r="L13" s="46" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="3:14">
-      <c r="C13" s="81"/>
-      <c r="D13" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13">
+      <c r="N13" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="23.25">
+      <c r="C14" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="82">
+        <v>11</v>
+      </c>
+      <c r="E14" s="83">
+        <f>SUM('Sprint 1'!J28:J39)</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="F14" s="89">
+        <f>(I14 * N14 + J14*N15+K14*N16+L14*N17)/ 20</f>
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="I14" s="81">
         <f>COUNTIF('Sprint 1'!K28:K39,"facile")</f>
         <v>2</v>
       </c>
-      <c r="J13">
+      <c r="J14" s="81">
         <f>COUNTIF('Sprint 1'!K28:K39,"moyenne")</f>
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="K14" s="81">
         <f>COUNTIF('Sprint 1'!K28:K39,"difficile")</f>
         <v>4</v>
       </c>
-      <c r="L13">
+      <c r="L14" s="81">
         <f>COUNTIF('Sprint 1'!K28:K39,"incertain")</f>
         <v>1</v>
       </c>
-      <c r="N13">
+      <c r="N14" s="81">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:14">
-      <c r="C14" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="81">
-        <v>11</v>
-      </c>
-      <c r="E14" s="82">
-        <f>SUM('Sprint 1'!J28:J39)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="F14" s="83">
-        <f>(I13 * N13 + J13*N14+K13*N15+L13*N16)/ 20</f>
-        <v>3.4750000000000001</v>
-      </c>
-      <c r="I14">
-        <f>COUNTIF('Sprint 2'!K28:K34,"facile")</f>
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <f>COUNTIF('Sprint 2'!K28:K34,"moyenne")</f>
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <f>COUNTIF('Sprint 2'!K28:K34,"difficile")</f>
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <f>COUNTIF('Sprint 2'!K28:K34,"incertain")</f>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14">
-      <c r="C15" s="81" t="s">
+    <row r="15" spans="3:14" ht="23.25">
+      <c r="C15" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="82">
         <v>7</v>
       </c>
       <c r="E15" s="84">
         <f>SUM('Sprint 2'!J28:J34)</f>
         <v>0.39583333333333337</v>
       </c>
-      <c r="F15" s="83">
-        <f>(I14 * N13 + J14*N14+K14*N15+L14*N16)/ 9.5</f>
+      <c r="F15" s="89">
+        <f>(I15 * N14 + J15*N15+K15*N16+L15*N17)/ 9.5</f>
         <v>3.3684210526315788</v>
       </c>
-      <c r="I15">
-        <f>COUNTIF('Sprint 3'!K28:K31,"facile")</f>
+      <c r="I15" s="81">
+        <f>COUNTIF('Sprint 2'!K28:K34,"facile")</f>
         <v>2</v>
       </c>
-      <c r="J15">
-        <f>COUNTIF('Sprint 3'!K28:K31,"moyenne")</f>
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <f>COUNTIF('Sprint 3'!K28:K31,"difficile")</f>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f>COUNTIF('Sprint 3'!K28:K31,"incertain")</f>
+      <c r="J15" s="81">
+        <f>COUNTIF('Sprint 2'!K28:K34,"moyenne")</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="81">
+        <f>COUNTIF('Sprint 2'!K28:K34,"difficile")</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="81">
+        <f>COUNTIF('Sprint 2'!K28:K34,"incertain")</f>
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14">
-      <c r="C16" s="81" t="s">
+      <c r="N15" s="81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" ht="23.25">
+      <c r="C16" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="82">
         <v>4</v>
       </c>
       <c r="E16" s="84">
         <f>SUM('Sprint 3'!J28:J31)</f>
         <v>0.14583333333333331</v>
       </c>
-      <c r="F16" s="83">
-        <f>(I15 * N13 + J15*N14+K15*N15+L15*N16)/ 9.5</f>
+      <c r="F16" s="89">
+        <f>(I16 * N14 + J16*N15+K16*N16+L16*N17)/ 9.5</f>
         <v>1.7894736842105263</v>
       </c>
-      <c r="N16">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="78" t="s">
+      <c r="I16" s="81">
+        <f>COUNTIF('Sprint 3'!K28:K31,"facile")</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="81">
+        <f>COUNTIF('Sprint 3'!K28:K31,"moyenne")</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="81">
+        <f>COUNTIF('Sprint 3'!K28:K31,"difficile")</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="81">
+        <f>COUNTIF('Sprint 3'!K28:K31,"incertain")</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="24" thickBot="1">
+      <c r="C17" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="91">
         <f>SUM(D14:D16)</f>
         <v>22</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="86">
+      <c r="F17" s="93">
         <f>AVERAGE(F14:F16)</f>
         <v>2.8776315789473679</v>
       </c>
+      <c r="N17" s="81">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="E18" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>